--- a/Контрольные на 4-й семестр/МЭО/Контрольная работа/Лист Microsoft Excel.xlsx
+++ b/Контрольные на 4-й семестр/МЭО/Контрольная работа/Лист Microsoft Excel.xlsx
@@ -16,12 +16,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
+  <si>
+    <t>Украина</t>
+  </si>
+  <si>
+    <t>Численность</t>
+  </si>
+  <si>
+    <t>Инвестиции</t>
+  </si>
+  <si>
+    <t>На душу населения</t>
+  </si>
+  <si>
+    <t>России</t>
+  </si>
+  <si>
+    <t>Южно-Африканская Республика</t>
+  </si>
+  <si>
+    <t>Бразилия</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -31,36 +53,85 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
-      <sz val="9.5"/>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF505050"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -120,33 +191,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE3E3E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -448,92 +539,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="A4:E4"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="42" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7">
         <v>2015</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="8">
         <v>2016</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="8">
         <v>2017</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="8">
         <v>2018</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="8">
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+    <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9">
         <v>1188.4860000000001</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="10">
         <v>1273.671</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="10">
         <v>1374.5129999999999</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="10">
         <v>1484.94</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="10">
         <v>1606.694</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+    <row r="3" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
         <v>1331.5050000000001</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="12">
         <v>1426.451</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="12">
         <v>1537.1469999999999</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="12">
         <v>1652.5989999999999</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="12">
         <v>1786.4169999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
         <f>A2-A3</f>
         <v>-143.01900000000001</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="13">
         <f t="shared" ref="B4:E4" si="0">B2-B3</f>
         <v>-152.77999999999997</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="13">
         <f t="shared" si="0"/>
         <v>-162.63400000000001</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="13">
         <f t="shared" si="0"/>
         <v>-167.65899999999988</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="13">
         <f t="shared" si="0"/>
         <v>-179.72299999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3">
+        <v>833000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5">
+        <v>42098321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2">
+        <f>B16/B17</f>
+        <v>19.7870124084046</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1417000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="14">
+        <v>146781095</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2">
+        <f>B21/B22</f>
+        <v>9.6538317826284104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1854000000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="15">
+        <v>56833632</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="2">
+        <f>B26/B27</f>
+        <v>32621.529449323247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="2" t="e">
+        <f>B31/B32</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="2" t="e">
+        <f>B36/B37</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/Контрольные на 4-й семестр/МЭО/Контрольная работа/Лист Microsoft Excel.xlsx
+++ b/Контрольные на 4-й семестр/МЭО/Контрольная работа/Лист Microsoft Excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t>Украина</t>
   </si>
@@ -38,12 +38,15 @@
   <si>
     <t>Бразилия</t>
   </si>
+  <si>
+    <t>Греции</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,6 +56,14 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -106,6 +117,13 @@
     <font>
       <sz val="14"/>
       <color rgb="FF505050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -204,40 +222,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -542,7 +564,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -669,7 +691,7 @@
       <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="17" t="s">
         <v>4</v>
       </c>
     </row>
@@ -720,7 +742,7 @@
       <c r="A27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="16">
         <v>56833632</v>
       </c>
     </row>
@@ -747,19 +769,25 @@
       <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="15">
+        <v>6846000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="B32" s="16">
+        <v>215303920</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="2" t="e">
+      <c r="B33" s="2">
         <f>B31/B32</f>
-        <v>#DIV/0!</v>
+        <v>31.796912940553984</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -767,23 +795,34 @@
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
     </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="15">
+        <v>301000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="B37" s="16">
+        <v>10786104</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="2" t="e">
+      <c r="B38" s="2">
         <f>B36/B37</f>
-        <v>#DIV/0!</v>
+        <v>27.906276446064307</v>
       </c>
     </row>
   </sheetData>

--- a/Контрольные на 4-й семестр/МЭО/Контрольная работа/Лист Microsoft Excel.xlsx
+++ b/Контрольные на 4-й семестр/МЭО/Контрольная работа/Лист Microsoft Excel.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Объем продаж" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
   <si>
     <t>Украина</t>
   </si>
@@ -40,13 +40,34 @@
   </si>
   <si>
     <t>Греции</t>
+  </si>
+  <si>
+    <t>ВВП</t>
+  </si>
+  <si>
+    <t>Импорт</t>
+  </si>
+  <si>
+    <t>Экспорт</t>
+  </si>
+  <si>
+    <t>% от ВВП</t>
+  </si>
+  <si>
+    <t>Россия</t>
+  </si>
+  <si>
+    <t>Греция</t>
+  </si>
+  <si>
+    <t>Южная Африка</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +148,38 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -222,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -260,6 +313,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -563,7 +624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -833,13 +894,233 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="22">
+        <v>203490000000000</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="22">
+        <v>2053210000000000</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="22">
+        <v>70057779010</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="22">
+        <v>251721061711</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="22">
+        <v>71714344987</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="22">
+        <v>221543309809</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="23">
+        <f>B2/100/(B3+B4)</f>
+        <v>14.353315324831135</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="23">
+        <f>E2/100/(E3+E4)</f>
+        <v>43.383996843152012</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A8" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="22">
+        <v>349430000000000</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="22">
+        <v>1578420000000000</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="22">
+        <v>103369318285</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="22">
+        <v>266061410000</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="22">
+        <v>98916580431</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="22">
+        <v>411277210000</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="23">
+        <f>B9/100/(B10+B11)</f>
+        <v>17.274066171591301</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="23">
+        <f>E9/100/(E10+E11)</f>
+        <v>23.303262997169718</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="15" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A15" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="22">
+        <v>112130000000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="22">
+        <v>46008000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="22">
+        <v>52461000000</v>
+      </c>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="23">
+        <f>B16/100/(H18+B18)</f>
+        <v>21.373973046644174</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Контрольные на 4-й семестр/МЭО/Контрольная работа/Лист Microsoft Excel.xlsx
+++ b/Контрольные на 4-й семестр/МЭО/Контрольная работа/Лист Microsoft Excel.xlsx
@@ -897,7 +897,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E5"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,7 +1056,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="22">
-        <v>411277210000</v>
+        <v>326949750000</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="23">
         <f>E9/100/(E10+E11)</f>
-        <v>23.303262997169718</v>
+        <v>26.617037021697872</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -1097,7 +1097,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="22">
-        <v>46008000000</v>
+        <v>53868000000</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -1105,7 +1105,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="22">
-        <v>52461000000</v>
+        <v>62512000000</v>
       </c>
       <c r="H18" s="21"/>
     </row>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="B19" s="23">
         <f>B16/100/(H18+B18)</f>
-        <v>21.373973046644174</v>
+        <v>17.937356027642693</v>
       </c>
     </row>
   </sheetData>

--- a/Контрольные на 4-й семестр/МЭО/Контрольная работа/Лист Microsoft Excel.xlsx
+++ b/Контрольные на 4-й семестр/МЭО/Контрольная работа/Лист Microsoft Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="26">
   <si>
     <t>Украина</t>
   </si>
@@ -61,6 +61,39 @@
   </si>
   <si>
     <t>Южная Африка</t>
+  </si>
+  <si>
+    <t>Импортные таможенные пошлины, (% импорта)</t>
+  </si>
+  <si>
+    <t>Ввозные пошлины</t>
+  </si>
+  <si>
+    <t>млн. грн.</t>
+  </si>
+  <si>
+    <t>млн. $</t>
+  </si>
+  <si>
+    <t>% импорта</t>
+  </si>
+  <si>
+    <t>импорт</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> млрд рублей</t>
+  </si>
+  <si>
+    <t>рубль к $</t>
+  </si>
+  <si>
+    <t>грн. к $</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> млрд  $</t>
   </si>
 </sst>
 </file>
@@ -275,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -321,6 +354,11 @@
     </xf>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -896,7 +934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1126,12 +1164,147 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="E8:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="25">
+        <v>23898.400000000001</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="26">
+        <f>I11/I10</f>
+        <v>853.51428571428573</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="27">
+        <v>51700</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="27">
+        <f>I12/I13*100</f>
+        <v>1.6508980381320808</v>
+      </c>
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22">
+        <v>2438.8000000000002</v>
+      </c>
+      <c r="J22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="26">
+        <f>I22/28</f>
+        <v>87.100000000000009</v>
+      </c>
+      <c r="J23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24">
+        <v>222</v>
+      </c>
+      <c r="J24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="27">
+        <f>I23/I24*100</f>
+        <v>39.234234234234236</v>
+      </c>
+      <c r="J25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Контрольные на 4-й семестр/МЭО/Контрольная работа/Лист Microsoft Excel.xlsx
+++ b/Контрольные на 4-й семестр/МЭО/Контрольная работа/Лист Microsoft Excel.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Объем продаж" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист3 (2)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="39">
   <si>
     <t>Украина</t>
   </si>
@@ -87,20 +88,59 @@
     <t xml:space="preserve"> млрд рублей</t>
   </si>
   <si>
-    <t>рубль к $</t>
-  </si>
-  <si>
-    <t>грн. к $</t>
-  </si>
-  <si>
     <t xml:space="preserve"> млрд  $</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> млрд br</t>
+  </si>
+  <si>
+    <t>реалов за $</t>
+  </si>
+  <si>
+    <t>рублей за $</t>
+  </si>
+  <si>
+    <t>грн. за $</t>
+  </si>
+  <si>
+    <t>реал</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>рубль</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> млрд</t>
+  </si>
+  <si>
+    <t>ZAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> млрд. грн.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> млрд. $</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Euro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,8 +254,30 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,6 +293,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -354,11 +422,33 @@
     </xf>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1164,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E8:J25"/>
+  <dimension ref="B8:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView topLeftCell="A9" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I22" sqref="E22:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,9 +1277,9 @@
     </row>
     <row r="10" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10">
+        <v>28</v>
+      </c>
+      <c r="I10" s="28">
         <v>28</v>
       </c>
     </row>
@@ -1197,7 +1287,7 @@
       <c r="E11" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="37">
         <v>23898.400000000001</v>
       </c>
       <c r="J11" t="s">
@@ -1220,7 +1310,7 @@
       <c r="E13" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="27">
+      <c r="I13" s="36">
         <v>51700</v>
       </c>
       <c r="J13" t="s">
@@ -1239,67 +1329,673 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="E20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="25">
+        <v>1</v>
+      </c>
+      <c r="C21" s="25">
+        <v>1.5509999999999999E-2</v>
+      </c>
       <c r="E21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21">
+        <v>27</v>
+      </c>
+      <c r="I21" s="28">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="25">
+        <v>64.490200000000002</v>
+      </c>
+      <c r="C22" s="25">
+        <v>1</v>
+      </c>
       <c r="E22" t="s">
         <v>16</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="28">
         <v>2438.8000000000002</v>
       </c>
       <c r="J22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f>B21/C21</f>
+        <v>64.474532559638945</v>
+      </c>
+      <c r="C23">
+        <f>C22/B22</f>
+        <v>1.5506231954622562E-2</v>
+      </c>
       <c r="E23" t="s">
         <v>16</v>
       </c>
       <c r="I23" s="26">
-        <f>I22/28</f>
-        <v>87.100000000000009</v>
+        <f>I22/I21</f>
+        <v>42.048275862068969</v>
       </c>
       <c r="J23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>20</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="28">
         <v>222</v>
       </c>
       <c r="J24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>19</v>
       </c>
       <c r="I25" s="27">
         <f>I23/I24*100</f>
-        <v>39.234234234234236</v>
+        <v>18.940664802733771</v>
       </c>
       <c r="J25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0.30697000000000002</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="28">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f>1/C30</f>
+        <v>3.2576473271003681</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="32">
+        <v>32284</v>
+      </c>
+      <c r="J31" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="35">
+        <f>I31/I30</f>
+        <v>9903.067484662577</v>
+      </c>
+      <c r="J32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="28">
+        <v>141</v>
+      </c>
+      <c r="J33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="34">
+        <f>I32/I33*100</f>
+        <v>7023.4521167819694</v>
+      </c>
+      <c r="J34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>7.2749999999999995E-2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <f>B39/C39</f>
+        <v>13.745704467353953</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" s="39">
+        <f>B40</f>
+        <v>13.745704467353953</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="32">
+        <v>47.929000000000002</v>
+      </c>
+      <c r="J41" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="33">
+        <f>I41/I40</f>
+        <v>3.4868347499999999</v>
+      </c>
+      <c r="J42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="28"/>
+      <c r="J43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="34" t="e">
+        <f>I42/I43*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B8:J52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="37">
+        <v>23.898399999999999</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="26">
+        <f>I11/I10</f>
+        <v>0.85351428571428567</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="36">
+        <v>51.7</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="27">
+        <f>I12/I13*100</f>
+        <v>1.6508980381320804</v>
+      </c>
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="25">
+        <v>1</v>
+      </c>
+      <c r="C21" s="25">
+        <v>1.5509999999999999E-2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="28">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="25">
+        <v>64.490200000000002</v>
+      </c>
+      <c r="C22" s="25">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="28">
+        <v>587.51599999999996</v>
+      </c>
+      <c r="J22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f>B21/C21</f>
+        <v>64.474532559638945</v>
+      </c>
+      <c r="C23">
+        <f>C22/B22</f>
+        <v>1.5506231954622562E-2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="26">
+        <f>I22/I21</f>
+        <v>10.129586206896551</v>
+      </c>
+      <c r="J23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="28">
+        <v>222</v>
+      </c>
+      <c r="J24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="27">
+        <f>I23/I24*100</f>
+        <v>4.562876669773221</v>
+      </c>
+      <c r="J25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0.30697000000000002</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="28">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f>1/C30</f>
+        <v>3.2576473271003681</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="32">
+        <v>32.283999999999999</v>
+      </c>
+      <c r="J31" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="35">
+        <f>I31/I30</f>
+        <v>9.9030674846625768</v>
+      </c>
+      <c r="J32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="28">
+        <v>141</v>
+      </c>
+      <c r="J33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="34">
+        <f>I32/I33*100</f>
+        <v>7.0234521167819697</v>
+      </c>
+      <c r="J34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>7.2749999999999995E-2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <f>B39/C39</f>
+        <v>13.745704467353953</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" s="39">
+        <f>B40</f>
+        <v>13.745704467353953</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="32">
+        <v>47.929000000000002</v>
+      </c>
+      <c r="J41" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="33">
+        <f>I41/I40</f>
+        <v>3.4868347499999999</v>
+      </c>
+      <c r="J42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="J43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="34">
+        <f>I42/I43*100</f>
+        <v>4.2574294871794862</v>
+      </c>
+      <c r="J44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="E48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I48" s="39">
+        <f>B48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="32">
+        <v>47.929000000000002</v>
+      </c>
+      <c r="J49" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="33" t="e">
+        <f>I49/I48</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="J51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" s="34" t="e">
+        <f>I50/I51*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J52" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Контрольные на 4-й семестр/МЭО/Контрольная работа/Лист Microsoft Excel.xlsx
+++ b/Контрольные на 4-й семестр/МЭО/Контрольная работа/Лист Microsoft Excel.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="607" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Объем продаж" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
-    <sheet name="Лист3 (2)" sheetId="4" r:id="rId4"/>
+    <sheet name="ИТП-1" sheetId="3" r:id="rId3"/>
+    <sheet name="ИТП-2" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="90">
   <si>
     <t>Украина</t>
   </si>
@@ -133,14 +134,167 @@
     <t>Greece</t>
   </si>
   <si>
-    <t>Euro</t>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>ВВП на душу населения</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Рейтинг</t>
+  </si>
+  <si>
+    <t>20,407.882</t>
+  </si>
+  <si>
+    <t>8,967.659</t>
+  </si>
+  <si>
+    <t>6,377.291</t>
+  </si>
+  <si>
+    <t>11,326.773</t>
+  </si>
+  <si>
+    <t>2,963.465</t>
+  </si>
+  <si>
+    <t>Показатель</t>
+  </si>
+  <si>
+    <t>Средний темп роста ВВП</t>
+  </si>
+  <si>
+    <t>Экспорт в целом</t>
+  </si>
+  <si>
+    <t>Экспорт в целом на душу населения</t>
+  </si>
+  <si>
+    <t>Валовые внутренние инвестиции</t>
+  </si>
+  <si>
+    <t>Темпы роста внутренних инвестиций</t>
+  </si>
+  <si>
+    <t>Прямые иностранные инвестиции на душу населения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Денежная масса и квазиденьги $ млрд </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EUR</t>
+  </si>
+  <si>
+    <t>ZAR/$</t>
+  </si>
+  <si>
+    <t>EUR/$</t>
+  </si>
+  <si>
+    <t>UAH/$</t>
+  </si>
+  <si>
+    <t>млн. UAH</t>
+  </si>
+  <si>
+    <t>$ млн.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ млрд </t>
+  </si>
+  <si>
+    <t>Внутренние кредиты банковского сектора</t>
+  </si>
+  <si>
+    <t>115,1</t>
+  </si>
+  <si>
+    <t>111,4</t>
+  </si>
+  <si>
+    <t>180,4</t>
+  </si>
+  <si>
+    <t>58,6</t>
+  </si>
+  <si>
+    <t>65,6</t>
+  </si>
+  <si>
+    <t>Прямые иностранные инвестиции</t>
+  </si>
+  <si>
+    <t>EUR млн.</t>
+  </si>
+  <si>
+    <t>ZAR млрд.</t>
+  </si>
+  <si>
+    <t>Кредиты частному сектору</t>
+  </si>
+  <si>
+    <t>99,1</t>
+  </si>
+  <si>
+    <t>59,8</t>
+  </si>
+  <si>
+    <t>147,5</t>
+  </si>
+  <si>
+    <t>77,9</t>
+  </si>
+  <si>
+    <t>38,3</t>
+  </si>
+  <si>
+    <t>Рейтинг риска</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дефлятор </t>
+  </si>
+  <si>
+    <t>Дефицит бюджета</t>
+  </si>
+  <si>
+    <t>−1.3</t>
+  </si>
+  <si>
+    <t>−7.8</t>
+  </si>
+  <si>
+    <t>−3.2</t>
+  </si>
+  <si>
+    <t>−2.3</t>
+  </si>
+  <si>
+    <t>Объем торговли</t>
+  </si>
+  <si>
+    <t>Импортные таможенные пошлины</t>
+  </si>
+  <si>
+    <t>Сложность начала нового бизнеса</t>
+  </si>
+  <si>
+    <t>Индекс коррумпированности</t>
+  </si>
+  <si>
+    <t>Защита прав интеллектуальной собственности</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,8 +430,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF222222"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,8 +491,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -372,11 +567,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -449,6 +672,87 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1594,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B8:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A32" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1924,6 +2228,10 @@
         <v>21</v>
       </c>
     </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+    </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="31" t="s">
         <v>38</v>
@@ -1936,21 +2244,30 @@
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
+      <c r="B47" s="31">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1.0406</v>
+      </c>
       <c r="E47" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
+      <c r="B48" s="31">
+        <f>1/C47</f>
+        <v>0.96098404766480883</v>
+      </c>
+      <c r="C48" s="31">
+        <v>1</v>
+      </c>
       <c r="E48" t="s">
         <v>26</v>
       </c>
-      <c r="I48" s="39">
+      <c r="I48" s="34">
         <f>B48</f>
-        <v>0</v>
+        <v>0.96098404766480883</v>
       </c>
     </row>
     <row r="49" spans="5:10" x14ac:dyDescent="0.25">
@@ -1958,7 +2275,7 @@
         <v>16</v>
       </c>
       <c r="I49" s="32">
-        <v>47.929000000000002</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J49" s="29" t="s">
         <v>33</v>
@@ -1968,9 +2285,9 @@
       <c r="E50" t="s">
         <v>16</v>
       </c>
-      <c r="I50" s="33" t="e">
+      <c r="I50" s="33">
         <f>I49/I48</f>
-        <v>#DIV/0!</v>
+        <v>5.2030000000000002E-3</v>
       </c>
       <c r="J50" t="s">
         <v>23</v>
@@ -1981,7 +2298,7 @@
         <v>20</v>
       </c>
       <c r="I51">
-        <v>81.900000000000006</v>
+        <v>52.8</v>
       </c>
       <c r="J51" t="s">
         <v>23</v>
@@ -1991,9 +2308,9 @@
       <c r="E52" t="s">
         <v>19</v>
       </c>
-      <c r="I52" s="34" t="e">
+      <c r="I52" s="34">
         <f>I50/I51*100</f>
-        <v>#DIV/0!</v>
+        <v>9.8541666666666673E-3</v>
       </c>
       <c r="J52" t="s">
         <v>21</v>
@@ -2003,4 +2320,1070 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" copies="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BF16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BE7" sqref="BE7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="3" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.42578125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="15" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.28515625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="17.42578125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.140625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.28515625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="15.28515625" style="2" customWidth="1"/>
+    <col min="27" max="27" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.28515625" style="2" customWidth="1"/>
+    <col min="29" max="29" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.28515625" style="2" customWidth="1"/>
+    <col min="32" max="32" width="13.7109375" style="2" customWidth="1"/>
+    <col min="33" max="33" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.140625" style="2"/>
+    <col min="35" max="35" width="10.7109375" style="2" customWidth="1"/>
+    <col min="36" max="36" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="4.28515625" style="2" customWidth="1"/>
+    <col min="38" max="38" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="4.28515625" style="2" customWidth="1"/>
+    <col min="41" max="41" width="14.42578125" style="2" customWidth="1"/>
+    <col min="42" max="42" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="4.42578125" style="2" customWidth="1"/>
+    <col min="44" max="44" width="10.85546875" style="2" customWidth="1"/>
+    <col min="45" max="45" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="4.28515625" style="2" customWidth="1"/>
+    <col min="47" max="47" width="16.140625" style="2" customWidth="1"/>
+    <col min="48" max="48" width="9.42578125" style="2" customWidth="1"/>
+    <col min="49" max="49" width="4.28515625" style="2" customWidth="1"/>
+    <col min="50" max="50" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="4.140625" style="2" customWidth="1"/>
+    <col min="53" max="53" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="4.28515625" style="2" customWidth="1"/>
+    <col min="56" max="56" width="17.28515625" style="2" customWidth="1"/>
+    <col min="57" max="57" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:58" s="41" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A1" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="42"/>
+      <c r="E1" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="42"/>
+      <c r="H1" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="42"/>
+      <c r="K1" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="42"/>
+      <c r="N1" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="42"/>
+      <c r="T1" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="U1" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" s="42"/>
+      <c r="W1" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="X1" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA1" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD1" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG1" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ1" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM1" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP1" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS1" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT1" s="42"/>
+      <c r="AU1" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV1" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW1" s="42"/>
+      <c r="AX1" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY1" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ1" s="42"/>
+      <c r="BA1" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB1" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC1" s="76"/>
+      <c r="BD1" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE1" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF1" s="42"/>
+    </row>
+    <row r="2" spans="1:58" s="44" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="54"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="43"/>
+      <c r="AP2" s="43"/>
+      <c r="AQ2" s="43"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="43"/>
+      <c r="AV2" s="43"/>
+      <c r="AW2" s="43"/>
+      <c r="AX2" s="43"/>
+      <c r="AY2" s="43"/>
+      <c r="AZ2" s="43"/>
+      <c r="BA2" s="43"/>
+      <c r="BB2" s="43"/>
+      <c r="BC2" s="43"/>
+      <c r="BD2" s="43"/>
+      <c r="BE2" s="43"/>
+      <c r="BF2" s="43"/>
+    </row>
+    <row r="3" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A3" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="58">
+        <v>5</v>
+      </c>
+      <c r="D3" s="58"/>
+      <c r="E3" s="60">
+        <v>1.6</v>
+      </c>
+      <c r="F3" s="58">
+        <v>3</v>
+      </c>
+      <c r="G3" s="58"/>
+      <c r="H3" s="60">
+        <v>30.2</v>
+      </c>
+      <c r="I3" s="58">
+        <v>1</v>
+      </c>
+      <c r="J3" s="58"/>
+      <c r="K3" s="72">
+        <v>2800</v>
+      </c>
+      <c r="L3" s="58">
+        <v>5</v>
+      </c>
+      <c r="M3" s="58"/>
+      <c r="N3" s="60">
+        <v>12.55</v>
+      </c>
+      <c r="O3" s="58">
+        <v>1</v>
+      </c>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="60">
+        <v>109.8</v>
+      </c>
+      <c r="R3" s="58">
+        <v>4</v>
+      </c>
+      <c r="S3" s="58"/>
+      <c r="T3" s="60">
+        <v>313.54000000000002</v>
+      </c>
+      <c r="U3" s="58">
+        <v>2</v>
+      </c>
+      <c r="V3" s="58"/>
+      <c r="W3" s="59">
+        <v>29.06</v>
+      </c>
+      <c r="X3" s="58">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="77">
+        <v>196.85</v>
+      </c>
+      <c r="AA3" s="77">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD3" s="58">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG3" s="58">
+        <v>4</v>
+      </c>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="58">
+        <v>35</v>
+      </c>
+      <c r="AJ3" s="58">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="61"/>
+      <c r="AL3" s="60">
+        <v>96.8</v>
+      </c>
+      <c r="AM3" s="58">
+        <v>4</v>
+      </c>
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP3" s="58">
+        <v>5</v>
+      </c>
+      <c r="AQ3" s="58"/>
+      <c r="AR3" s="58">
+        <v>14</v>
+      </c>
+      <c r="AS3" s="58">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="58"/>
+      <c r="AU3" s="58">
+        <v>0.01</v>
+      </c>
+      <c r="AV3" s="58">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="58"/>
+      <c r="AX3" s="58">
+        <v>44</v>
+      </c>
+      <c r="AY3" s="58">
+        <v>4</v>
+      </c>
+      <c r="AZ3" s="58"/>
+      <c r="BA3" s="58">
+        <v>45</v>
+      </c>
+      <c r="BB3" s="58">
+        <v>5</v>
+      </c>
+      <c r="BC3" s="58"/>
+      <c r="BD3" s="75">
+        <v>6.1</v>
+      </c>
+      <c r="BE3" s="58">
+        <v>4</v>
+      </c>
+      <c r="BF3" s="58"/>
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A4" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="58">
+        <v>3</v>
+      </c>
+      <c r="D4" s="58"/>
+      <c r="E4" s="60">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F4" s="58">
+        <v>2</v>
+      </c>
+      <c r="G4" s="58"/>
+      <c r="H4" s="60">
+        <v>160</v>
+      </c>
+      <c r="I4" s="58">
+        <v>4</v>
+      </c>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58">
+        <v>764</v>
+      </c>
+      <c r="L4" s="58">
+        <v>1</v>
+      </c>
+      <c r="M4" s="58"/>
+      <c r="N4" s="60">
+        <v>19.309999999999999</v>
+      </c>
+      <c r="O4" s="58">
+        <v>4</v>
+      </c>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="60">
+        <v>98.13</v>
+      </c>
+      <c r="R4" s="58">
+        <v>1</v>
+      </c>
+      <c r="S4" s="58"/>
+      <c r="T4" s="60">
+        <v>6846</v>
+      </c>
+      <c r="U4" s="58">
+        <v>5</v>
+      </c>
+      <c r="V4" s="58"/>
+      <c r="W4" s="60">
+        <v>31.8</v>
+      </c>
+      <c r="X4" s="58">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="77">
+        <v>716.64</v>
+      </c>
+      <c r="AA4" s="77">
+        <v>5</v>
+      </c>
+      <c r="AB4" s="58"/>
+      <c r="AC4" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD4" s="58">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="58"/>
+      <c r="AF4" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG4" s="58">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="58"/>
+      <c r="AI4" s="58">
+        <v>42</v>
+      </c>
+      <c r="AJ4" s="58">
+        <v>3</v>
+      </c>
+      <c r="AK4" s="61"/>
+      <c r="AL4" s="60">
+        <v>3</v>
+      </c>
+      <c r="AM4" s="58">
+        <v>5</v>
+      </c>
+      <c r="AN4" s="58"/>
+      <c r="AO4" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP4" s="58">
+        <v>2</v>
+      </c>
+      <c r="AQ4" s="58"/>
+      <c r="AR4" s="58">
+        <v>43</v>
+      </c>
+      <c r="AS4" s="58">
+        <v>5</v>
+      </c>
+      <c r="AT4" s="58"/>
+      <c r="AU4" s="58">
+        <v>7.02</v>
+      </c>
+      <c r="AV4" s="58">
+        <v>5</v>
+      </c>
+      <c r="AW4" s="58"/>
+      <c r="AX4" s="58">
+        <v>140</v>
+      </c>
+      <c r="AY4" s="58">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="58"/>
+      <c r="BA4" s="58">
+        <v>37</v>
+      </c>
+      <c r="BB4" s="58">
+        <v>3</v>
+      </c>
+      <c r="BC4" s="58"/>
+      <c r="BD4" s="60">
+        <v>5.5</v>
+      </c>
+      <c r="BE4" s="58">
+        <v>3</v>
+      </c>
+      <c r="BF4" s="43"/>
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A5" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="58">
+        <v>2</v>
+      </c>
+      <c r="D5" s="58"/>
+      <c r="E5" s="60">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F5" s="58">
+        <v>2</v>
+      </c>
+      <c r="G5" s="58"/>
+      <c r="H5" s="60">
+        <v>108</v>
+      </c>
+      <c r="I5" s="58">
+        <v>3</v>
+      </c>
+      <c r="J5" s="58"/>
+      <c r="K5" s="72">
+        <v>1900</v>
+      </c>
+      <c r="L5" s="58">
+        <v>3</v>
+      </c>
+      <c r="M5" s="58"/>
+      <c r="N5" s="60">
+        <v>18.68</v>
+      </c>
+      <c r="O5" s="58">
+        <v>3</v>
+      </c>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="60">
+        <v>100.38</v>
+      </c>
+      <c r="R5" s="58">
+        <v>2</v>
+      </c>
+      <c r="S5" s="58"/>
+      <c r="T5" s="60">
+        <v>134.93</v>
+      </c>
+      <c r="U5" s="58">
+        <v>1</v>
+      </c>
+      <c r="V5" s="58"/>
+      <c r="W5" s="61">
+        <v>2373.1799999999998</v>
+      </c>
+      <c r="X5" s="58">
+        <v>5</v>
+      </c>
+      <c r="Y5" s="58"/>
+      <c r="Z5" s="77">
+        <v>204.73</v>
+      </c>
+      <c r="AA5" s="77">
+        <v>3</v>
+      </c>
+      <c r="AB5" s="58"/>
+      <c r="AC5" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD5" s="58">
+        <v>5</v>
+      </c>
+      <c r="AE5" s="58"/>
+      <c r="AF5" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG5" s="58">
+        <v>5</v>
+      </c>
+      <c r="AH5" s="58"/>
+      <c r="AI5" s="58">
+        <v>50</v>
+      </c>
+      <c r="AJ5" s="58">
+        <v>4</v>
+      </c>
+      <c r="AK5" s="61"/>
+      <c r="AL5" s="60">
+        <v>158.24</v>
+      </c>
+      <c r="AM5" s="58">
+        <v>2</v>
+      </c>
+      <c r="AN5" s="58"/>
+      <c r="AO5" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP5" s="58">
+        <v>3</v>
+      </c>
+      <c r="AQ5" s="58"/>
+      <c r="AR5" s="58">
+        <v>17</v>
+      </c>
+      <c r="AS5" s="58">
+        <v>2</v>
+      </c>
+      <c r="AT5" s="58"/>
+      <c r="AU5" s="58">
+        <v>4.26</v>
+      </c>
+      <c r="AV5" s="58">
+        <v>3</v>
+      </c>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58">
+        <v>134</v>
+      </c>
+      <c r="AY5" s="58">
+        <v>2</v>
+      </c>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58">
+        <v>43</v>
+      </c>
+      <c r="BB5" s="58">
+        <v>4</v>
+      </c>
+      <c r="BC5" s="58"/>
+      <c r="BD5" s="60">
+        <v>7.3</v>
+      </c>
+      <c r="BE5" s="58">
+        <v>5</v>
+      </c>
+      <c r="BF5" s="51"/>
+    </row>
+    <row r="6" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A6" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="58">
+        <v>4</v>
+      </c>
+      <c r="D6" s="58"/>
+      <c r="E6" s="60">
+        <v>2.7</v>
+      </c>
+      <c r="F6" s="58">
+        <v>4</v>
+      </c>
+      <c r="G6" s="58"/>
+      <c r="H6" s="60">
+        <v>342</v>
+      </c>
+      <c r="I6" s="58">
+        <v>5</v>
+      </c>
+      <c r="J6" s="58"/>
+      <c r="K6" s="72">
+        <v>2360</v>
+      </c>
+      <c r="L6" s="58">
+        <v>4</v>
+      </c>
+      <c r="M6" s="58"/>
+      <c r="N6" s="60">
+        <v>21.39</v>
+      </c>
+      <c r="O6" s="58">
+        <v>5</v>
+      </c>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="60">
+        <v>104.73</v>
+      </c>
+      <c r="R6" s="58">
+        <v>3</v>
+      </c>
+      <c r="S6" s="58"/>
+      <c r="T6" s="60">
+        <v>1417</v>
+      </c>
+      <c r="U6" s="58">
+        <v>4</v>
+      </c>
+      <c r="V6" s="58"/>
+      <c r="W6" s="60">
+        <v>9.65</v>
+      </c>
+      <c r="X6" s="58">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="77">
+        <v>709.22</v>
+      </c>
+      <c r="AA6" s="77">
+        <v>4</v>
+      </c>
+      <c r="AB6" s="58"/>
+      <c r="AC6" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD6" s="58">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="58"/>
+      <c r="AF6" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG6" s="58">
+        <v>3</v>
+      </c>
+      <c r="AH6" s="58"/>
+      <c r="AI6" s="58">
+        <v>53</v>
+      </c>
+      <c r="AJ6" s="58">
+        <v>5</v>
+      </c>
+      <c r="AK6" s="61"/>
+      <c r="AL6" s="60">
+        <v>120.09</v>
+      </c>
+      <c r="AM6" s="58">
+        <v>3</v>
+      </c>
+      <c r="AN6" s="58"/>
+      <c r="AO6" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP6" s="58">
+        <v>4</v>
+      </c>
+      <c r="AQ6" s="58"/>
+      <c r="AR6" s="58">
+        <v>27</v>
+      </c>
+      <c r="AS6" s="58">
+        <v>4</v>
+      </c>
+      <c r="AT6" s="58"/>
+      <c r="AU6" s="58">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="AV6" s="58">
+        <v>4</v>
+      </c>
+      <c r="AW6" s="58"/>
+      <c r="AX6" s="58">
+        <v>32</v>
+      </c>
+      <c r="AY6" s="58">
+        <v>5</v>
+      </c>
+      <c r="AZ6" s="58"/>
+      <c r="BA6" s="58">
+        <v>29</v>
+      </c>
+      <c r="BB6" s="58">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="58"/>
+      <c r="BD6" s="60">
+        <v>5</v>
+      </c>
+      <c r="BE6" s="58">
+        <v>2</v>
+      </c>
+      <c r="BF6" s="43"/>
+    </row>
+    <row r="7" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A7" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="51">
+        <v>1</v>
+      </c>
+      <c r="D7" s="51"/>
+      <c r="E7" s="46">
+        <v>3.5</v>
+      </c>
+      <c r="F7" s="51">
+        <v>5</v>
+      </c>
+      <c r="G7" s="51"/>
+      <c r="H7" s="46">
+        <v>46.1</v>
+      </c>
+      <c r="I7" s="51">
+        <v>2</v>
+      </c>
+      <c r="J7" s="51"/>
+      <c r="K7" s="68">
+        <v>1020</v>
+      </c>
+      <c r="L7" s="51">
+        <v>2</v>
+      </c>
+      <c r="M7" s="51"/>
+      <c r="N7" s="46">
+        <v>17.5</v>
+      </c>
+      <c r="O7" s="51">
+        <v>2</v>
+      </c>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="46">
+        <v>117</v>
+      </c>
+      <c r="R7" s="51">
+        <v>5</v>
+      </c>
+      <c r="S7" s="51"/>
+      <c r="T7" s="46">
+        <v>833</v>
+      </c>
+      <c r="U7" s="51">
+        <v>3</v>
+      </c>
+      <c r="V7" s="51"/>
+      <c r="W7" s="52">
+        <v>19.8</v>
+      </c>
+      <c r="X7" s="51">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="78">
+        <v>47.25</v>
+      </c>
+      <c r="AA7" s="77">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="51"/>
+      <c r="AC7" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD7" s="51">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="51"/>
+      <c r="AF7" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG7" s="51">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="51"/>
+      <c r="AI7" s="51">
+        <v>21</v>
+      </c>
+      <c r="AJ7" s="51">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="62"/>
+      <c r="AL7" s="46">
+        <v>295.74200000000002</v>
+      </c>
+      <c r="AM7" s="51">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="51"/>
+      <c r="AO7" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP7" s="51">
+        <v>3</v>
+      </c>
+      <c r="AQ7" s="51"/>
+      <c r="AR7" s="51">
+        <v>18</v>
+      </c>
+      <c r="AS7" s="51">
+        <v>3</v>
+      </c>
+      <c r="AT7" s="51"/>
+      <c r="AU7" s="51">
+        <v>1.65</v>
+      </c>
+      <c r="AV7" s="51">
+        <v>2</v>
+      </c>
+      <c r="AW7" s="51"/>
+      <c r="AX7" s="51">
+        <v>56</v>
+      </c>
+      <c r="AY7" s="51">
+        <v>3</v>
+      </c>
+      <c r="AZ7" s="51"/>
+      <c r="BA7" s="51">
+        <v>32</v>
+      </c>
+      <c r="BB7" s="51">
+        <v>2</v>
+      </c>
+      <c r="BC7" s="51"/>
+      <c r="BD7" s="70">
+        <v>4.2</v>
+      </c>
+      <c r="BE7" s="51">
+        <v>1</v>
+      </c>
+      <c r="BF7" s="43"/>
+    </row>
+    <row r="9" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A9" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="T9" s="15">
+        <v>301</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="W9" s="56">
+        <v>32621</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z9" s="50">
+        <v>1228554</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>13.74</v>
+      </c>
+      <c r="T10" s="2">
+        <f>T9/A13</f>
+        <v>313.54166666666669</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="W10" s="56">
+        <f>W9/A10</f>
+        <v>2374.1630276564774</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z10" s="56">
+        <f>Z9/A16</f>
+        <v>47252.076923076922</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="W11" s="52">
+        <v>27.9</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z11" s="56">
+        <f>Z10/1000</f>
+        <v>47.25207692307692</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A12" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="T12" s="15">
+        <v>1854</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="W12" s="56">
+        <f>W11/A13</f>
+        <v>29.0625</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="T13" s="2">
+        <f>T12/A10</f>
+        <v>134.93449781659388</v>
+      </c>
+      <c r="W13" s="56"/>
+    </row>
+    <row r="15" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A15" s="41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Контрольные на 4-й семестр/МЭО/Контрольная работа/Лист Microsoft Excel.xlsx
+++ b/Контрольные на 4-й семестр/МЭО/Контрольная работа/Лист Microsoft Excel.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="87">
   <si>
     <t>Украина</t>
   </si>
@@ -149,21 +149,6 @@
     <t>Рейтинг</t>
   </si>
   <si>
-    <t>20,407.882</t>
-  </si>
-  <si>
-    <t>8,967.659</t>
-  </si>
-  <si>
-    <t>6,377.291</t>
-  </si>
-  <si>
-    <t>11,326.773</t>
-  </si>
-  <si>
-    <t>2,963.465</t>
-  </si>
-  <si>
     <t>Показатель</t>
   </si>
   <si>
@@ -288,6 +273,12 @@
   </si>
   <si>
     <t>Защита прав интеллектуальной собственности</t>
+  </si>
+  <si>
+    <t>ВВП $</t>
+  </si>
+  <si>
+    <t>$млрд</t>
   </si>
 </sst>
 </file>
@@ -599,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -675,6 +666,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -753,6 +747,11 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2324,11 +2323,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF16"/>
+  <dimension ref="A1:BF22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BE7" sqref="BE7"/>
+      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2359,7 +2358,7 @@
     <col min="24" max="24" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4.28515625" style="2" customWidth="1"/>
     <col min="26" max="26" width="15.28515625" style="2" customWidth="1"/>
-    <col min="27" max="27" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="4.28515625" style="2" customWidth="1"/>
     <col min="29" max="29" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -2393,9 +2392,9 @@
     <col min="58" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="41" customFormat="1" ht="75" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
-        <v>48</v>
+    <row r="1" spans="1:58" s="42" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A1" s="54" t="s">
+        <v>43</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>39</v>
@@ -2403,904 +2402,904 @@
       <c r="C1" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="42"/>
+      <c r="D1" s="43"/>
       <c r="E1" s="40" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F1" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="42"/>
+      <c r="G1" s="43"/>
       <c r="H1" s="40" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I1" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="45" t="s">
-        <v>51</v>
+      <c r="J1" s="43"/>
+      <c r="K1" s="46" t="s">
+        <v>46</v>
       </c>
       <c r="L1" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="42"/>
-      <c r="N1" s="47" t="s">
-        <v>52</v>
+      <c r="M1" s="43"/>
+      <c r="N1" s="48" t="s">
+        <v>47</v>
       </c>
       <c r="O1" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="48" t="s">
-        <v>53</v>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="49" t="s">
+        <v>48</v>
       </c>
       <c r="R1" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="42"/>
-      <c r="T1" s="49" t="s">
-        <v>69</v>
+      <c r="S1" s="43"/>
+      <c r="T1" s="50" t="s">
+        <v>64</v>
       </c>
       <c r="U1" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="57" t="s">
-        <v>54</v>
+      <c r="V1" s="43"/>
+      <c r="W1" s="58" t="s">
+        <v>49</v>
       </c>
       <c r="X1" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA1" s="63" t="s">
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="49" t="s">
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD1" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG1" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ1" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM1" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP1" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ1" s="43"/>
+      <c r="AR1" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS1" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT1" s="43"/>
+      <c r="AU1" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV1" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW1" s="43"/>
+      <c r="AX1" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY1" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ1" s="43"/>
+      <c r="BA1" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB1" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC1" s="77"/>
+      <c r="BD1" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE1" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF1" s="43"/>
+    </row>
+    <row r="2" spans="1:58" s="45" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="55"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="44"/>
+      <c r="AW2" s="44"/>
+      <c r="AX2" s="44"/>
+      <c r="AY2" s="44"/>
+      <c r="AZ2" s="44"/>
+      <c r="BA2" s="44"/>
+      <c r="BB2" s="44"/>
+      <c r="BC2" s="44"/>
+      <c r="BD2" s="44"/>
+      <c r="BE2" s="44"/>
+      <c r="BF2" s="44"/>
+    </row>
+    <row r="3" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A3" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="80">
+        <v>23027.41</v>
+      </c>
+      <c r="C3" s="59">
+        <v>5</v>
+      </c>
+      <c r="D3" s="59"/>
+      <c r="E3" s="61">
+        <v>1.6</v>
+      </c>
+      <c r="F3" s="59">
+        <v>3</v>
+      </c>
+      <c r="G3" s="59"/>
+      <c r="H3" s="61">
+        <v>30.2</v>
+      </c>
+      <c r="I3" s="59">
+        <v>1</v>
+      </c>
+      <c r="J3" s="59"/>
+      <c r="K3" s="73">
+        <v>2800</v>
+      </c>
+      <c r="L3" s="59">
+        <v>5</v>
+      </c>
+      <c r="M3" s="59"/>
+      <c r="N3" s="61">
+        <v>12.55</v>
+      </c>
+      <c r="O3" s="59">
+        <v>1</v>
+      </c>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="61">
+        <v>109.8</v>
+      </c>
+      <c r="R3" s="59">
+        <v>4</v>
+      </c>
+      <c r="S3" s="59"/>
+      <c r="T3" s="61">
+        <v>313.54000000000002</v>
+      </c>
+      <c r="U3" s="59">
+        <v>2</v>
+      </c>
+      <c r="V3" s="59"/>
+      <c r="W3" s="60">
+        <v>29.06</v>
+      </c>
+      <c r="X3" s="59">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="82">
+        <v>96.93</v>
+      </c>
+      <c r="AA3" s="78">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD3" s="59">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG3" s="59">
+        <v>4</v>
+      </c>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59">
+        <v>35</v>
+      </c>
+      <c r="AJ3" s="59">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="62"/>
+      <c r="AL3" s="61">
+        <v>96.8</v>
+      </c>
+      <c r="AM3" s="59">
+        <v>4</v>
+      </c>
+      <c r="AN3" s="59"/>
+      <c r="AO3" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP3" s="59">
+        <v>5</v>
+      </c>
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="59">
+        <v>14</v>
+      </c>
+      <c r="AS3" s="59">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="59"/>
+      <c r="AU3" s="59">
+        <v>0.01</v>
+      </c>
+      <c r="AV3" s="59">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="59"/>
+      <c r="AX3" s="59">
+        <v>44</v>
+      </c>
+      <c r="AY3" s="59">
+        <v>4</v>
+      </c>
+      <c r="AZ3" s="59"/>
+      <c r="BA3" s="59">
+        <v>45</v>
+      </c>
+      <c r="BB3" s="59">
+        <v>5</v>
+      </c>
+      <c r="BC3" s="59"/>
+      <c r="BD3" s="76">
+        <v>6.1</v>
+      </c>
+      <c r="BE3" s="59">
+        <v>4</v>
+      </c>
+      <c r="BF3" s="59"/>
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A4" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="80">
+        <v>10888.98</v>
+      </c>
+      <c r="C4" s="59">
+        <v>3</v>
+      </c>
+      <c r="D4" s="59"/>
+      <c r="E4" s="61">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F4" s="59">
+        <v>2</v>
+      </c>
+      <c r="G4" s="59"/>
+      <c r="H4" s="61">
+        <v>160</v>
+      </c>
+      <c r="I4" s="59">
+        <v>4</v>
+      </c>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59">
+        <v>764</v>
+      </c>
+      <c r="L4" s="59">
+        <v>1</v>
+      </c>
+      <c r="M4" s="59"/>
+      <c r="N4" s="61">
+        <v>19.309999999999999</v>
+      </c>
+      <c r="O4" s="59">
+        <v>4</v>
+      </c>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="61">
+        <v>98.13</v>
+      </c>
+      <c r="R4" s="59">
+        <v>1</v>
+      </c>
+      <c r="S4" s="59"/>
+      <c r="T4" s="61">
+        <v>6846</v>
+      </c>
+      <c r="U4" s="59">
+        <v>5</v>
+      </c>
+      <c r="V4" s="59"/>
+      <c r="W4" s="61">
+        <v>31.8</v>
+      </c>
+      <c r="X4" s="59">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="82">
+        <v>34.89</v>
+      </c>
+      <c r="AA4" s="78">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD4" s="59">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG4" s="59">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="59">
+        <v>42</v>
+      </c>
+      <c r="AJ4" s="59">
+        <v>3</v>
+      </c>
+      <c r="AK4" s="62"/>
+      <c r="AL4" s="61">
+        <v>3</v>
+      </c>
+      <c r="AM4" s="59">
+        <v>5</v>
+      </c>
+      <c r="AN4" s="59"/>
+      <c r="AO4" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP4" s="59">
+        <v>2</v>
+      </c>
+      <c r="AQ4" s="59"/>
+      <c r="AR4" s="59">
+        <v>43</v>
+      </c>
+      <c r="AS4" s="59">
+        <v>5</v>
+      </c>
+      <c r="AT4" s="59"/>
+      <c r="AU4" s="59">
+        <v>7.02</v>
+      </c>
+      <c r="AV4" s="59">
+        <v>5</v>
+      </c>
+      <c r="AW4" s="59"/>
+      <c r="AX4" s="59">
+        <v>140</v>
+      </c>
+      <c r="AY4" s="59">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="59"/>
+      <c r="BA4" s="59">
+        <v>37</v>
+      </c>
+      <c r="BB4" s="59">
+        <v>3</v>
+      </c>
+      <c r="BC4" s="59"/>
+      <c r="BD4" s="61">
+        <v>5.5</v>
+      </c>
+      <c r="BE4" s="59">
+        <v>3</v>
+      </c>
+      <c r="BF4" s="44"/>
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A5" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="80">
+        <v>7524.51</v>
+      </c>
+      <c r="C5" s="59">
+        <v>2</v>
+      </c>
+      <c r="D5" s="59"/>
+      <c r="E5" s="61">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F5" s="59">
+        <v>2</v>
+      </c>
+      <c r="G5" s="59"/>
+      <c r="H5" s="61">
+        <v>108</v>
+      </c>
+      <c r="I5" s="59">
+        <v>3</v>
+      </c>
+      <c r="J5" s="59"/>
+      <c r="K5" s="73">
+        <v>1900</v>
+      </c>
+      <c r="L5" s="59">
+        <v>3</v>
+      </c>
+      <c r="M5" s="59"/>
+      <c r="N5" s="61">
+        <v>18.68</v>
+      </c>
+      <c r="O5" s="59">
+        <v>3</v>
+      </c>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="61">
+        <v>100.38</v>
+      </c>
+      <c r="R5" s="59">
+        <v>2</v>
+      </c>
+      <c r="S5" s="59"/>
+      <c r="T5" s="61">
+        <v>134.93</v>
+      </c>
+      <c r="U5" s="59">
+        <v>1</v>
+      </c>
+      <c r="V5" s="59"/>
+      <c r="W5" s="62">
+        <v>2373.1799999999998</v>
+      </c>
+      <c r="X5" s="59">
+        <v>5</v>
+      </c>
+      <c r="Y5" s="59"/>
+      <c r="Z5" s="82">
+        <v>58.68</v>
+      </c>
+      <c r="AA5" s="78">
+        <v>4</v>
+      </c>
+      <c r="AB5" s="59"/>
+      <c r="AC5" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD5" s="59">
+        <v>5</v>
+      </c>
+      <c r="AE5" s="59"/>
+      <c r="AF5" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG5" s="59">
+        <v>5</v>
+      </c>
+      <c r="AH5" s="59"/>
+      <c r="AI5" s="59">
+        <v>50</v>
+      </c>
+      <c r="AJ5" s="59">
+        <v>4</v>
+      </c>
+      <c r="AK5" s="62"/>
+      <c r="AL5" s="61">
+        <v>158.24</v>
+      </c>
+      <c r="AM5" s="59">
+        <v>2</v>
+      </c>
+      <c r="AN5" s="59"/>
+      <c r="AO5" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP5" s="59">
+        <v>3</v>
+      </c>
+      <c r="AQ5" s="59"/>
+      <c r="AR5" s="59">
+        <v>17</v>
+      </c>
+      <c r="AS5" s="59">
+        <v>2</v>
+      </c>
+      <c r="AT5" s="59"/>
+      <c r="AU5" s="59">
+        <v>4.26</v>
+      </c>
+      <c r="AV5" s="59">
+        <v>3</v>
+      </c>
+      <c r="AW5" s="59"/>
+      <c r="AX5" s="59">
+        <v>134</v>
+      </c>
+      <c r="AY5" s="59">
+        <v>2</v>
+      </c>
+      <c r="AZ5" s="59"/>
+      <c r="BA5" s="59">
+        <v>43</v>
+      </c>
+      <c r="BB5" s="59">
+        <v>4</v>
+      </c>
+      <c r="BC5" s="59"/>
+      <c r="BD5" s="61">
+        <v>7.3</v>
+      </c>
+      <c r="BE5" s="59">
+        <v>5</v>
+      </c>
+      <c r="BF5" s="52"/>
+    </row>
+    <row r="6" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A6" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="80">
+        <v>11441</v>
+      </c>
+      <c r="C6" s="59">
+        <v>4</v>
+      </c>
+      <c r="D6" s="59"/>
+      <c r="E6" s="61">
+        <v>2.7</v>
+      </c>
+      <c r="F6" s="59">
+        <v>4</v>
+      </c>
+      <c r="G6" s="59"/>
+      <c r="H6" s="61">
+        <v>342</v>
+      </c>
+      <c r="I6" s="59">
+        <v>5</v>
+      </c>
+      <c r="J6" s="59"/>
+      <c r="K6" s="73">
+        <v>2360</v>
+      </c>
+      <c r="L6" s="59">
+        <v>4</v>
+      </c>
+      <c r="M6" s="59"/>
+      <c r="N6" s="61">
+        <v>21.39</v>
+      </c>
+      <c r="O6" s="59">
+        <v>5</v>
+      </c>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="61">
+        <v>104.73</v>
+      </c>
+      <c r="R6" s="59">
+        <v>3</v>
+      </c>
+      <c r="S6" s="59"/>
+      <c r="T6" s="61">
+        <v>1417</v>
+      </c>
+      <c r="U6" s="59">
+        <v>4</v>
+      </c>
+      <c r="V6" s="59"/>
+      <c r="W6" s="61">
+        <v>9.65</v>
+      </c>
+      <c r="X6" s="59">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="82">
+        <v>44.94</v>
+      </c>
+      <c r="AA6" s="78">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="59"/>
+      <c r="AC6" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD6" s="59">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="59"/>
+      <c r="AF6" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG6" s="59">
+        <v>3</v>
+      </c>
+      <c r="AH6" s="59"/>
+      <c r="AI6" s="59">
+        <v>53</v>
+      </c>
+      <c r="AJ6" s="59">
+        <v>5</v>
+      </c>
+      <c r="AK6" s="62"/>
+      <c r="AL6" s="61">
+        <v>120.09</v>
+      </c>
+      <c r="AM6" s="59">
+        <v>3</v>
+      </c>
+      <c r="AN6" s="59"/>
+      <c r="AO6" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP6" s="59">
+        <v>4</v>
+      </c>
+      <c r="AQ6" s="59"/>
+      <c r="AR6" s="59">
+        <v>27</v>
+      </c>
+      <c r="AS6" s="59">
+        <v>4</v>
+      </c>
+      <c r="AT6" s="59"/>
+      <c r="AU6" s="59">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="AV6" s="59">
+        <v>4</v>
+      </c>
+      <c r="AW6" s="59"/>
+      <c r="AX6" s="59">
+        <v>32</v>
+      </c>
+      <c r="AY6" s="59">
+        <v>5</v>
+      </c>
+      <c r="AZ6" s="59"/>
+      <c r="BA6" s="59">
+        <v>29</v>
+      </c>
+      <c r="BB6" s="59">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="59"/>
+      <c r="BD6" s="61">
+        <v>5</v>
+      </c>
+      <c r="BE6" s="59">
+        <v>2</v>
+      </c>
+      <c r="BF6" s="44"/>
+    </row>
+    <row r="7" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A7" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="80">
+        <v>2991.63</v>
+      </c>
+      <c r="C7" s="52">
+        <v>1</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="47">
+        <v>3.5</v>
+      </c>
+      <c r="F7" s="52">
+        <v>5</v>
+      </c>
+      <c r="G7" s="52"/>
+      <c r="H7" s="47">
+        <v>46.1</v>
+      </c>
+      <c r="I7" s="52">
+        <v>2</v>
+      </c>
+      <c r="J7" s="52"/>
+      <c r="K7" s="69">
+        <v>1020</v>
+      </c>
+      <c r="L7" s="52">
+        <v>2</v>
+      </c>
+      <c r="M7" s="52"/>
+      <c r="N7" s="47">
+        <v>17.5</v>
+      </c>
+      <c r="O7" s="52">
+        <v>2</v>
+      </c>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="47">
+        <v>117</v>
+      </c>
+      <c r="R7" s="52">
+        <v>5</v>
+      </c>
+      <c r="S7" s="52"/>
+      <c r="T7" s="47">
+        <v>833</v>
+      </c>
+      <c r="U7" s="52">
+        <v>3</v>
+      </c>
+      <c r="V7" s="52"/>
+      <c r="W7" s="53">
+        <v>19.8</v>
+      </c>
+      <c r="X7" s="52">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="82">
+        <v>42.13</v>
+      </c>
+      <c r="AA7" s="78">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="AD1" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="64" t="s">
+      <c r="AD7" s="52">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="AG1" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="49" t="s">
+      <c r="AG7" s="52">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="52"/>
+      <c r="AI7" s="52">
+        <v>21</v>
+      </c>
+      <c r="AJ7" s="52">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="63"/>
+      <c r="AL7" s="47">
+        <v>295.74200000000002</v>
+      </c>
+      <c r="AM7" s="52">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="52"/>
+      <c r="AO7" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="AJ1" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM1" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP1" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ1" s="42"/>
-      <c r="AR1" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS1" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT1" s="42"/>
-      <c r="AU1" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="AV1" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="AW1" s="42"/>
-      <c r="AX1" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="AY1" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="AZ1" s="42"/>
-      <c r="BA1" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="BB1" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="BC1" s="76"/>
-      <c r="BD1" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="BE1" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="BF1" s="42"/>
-    </row>
-    <row r="2" spans="1:58" s="44" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43"/>
-      <c r="AP2" s="43"/>
-      <c r="AQ2" s="43"/>
-      <c r="AR2" s="43"/>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="43"/>
-      <c r="AU2" s="43"/>
-      <c r="AV2" s="43"/>
-      <c r="AW2" s="43"/>
-      <c r="AX2" s="43"/>
-      <c r="AY2" s="43"/>
-      <c r="AZ2" s="43"/>
-      <c r="BA2" s="43"/>
-      <c r="BB2" s="43"/>
-      <c r="BC2" s="43"/>
-      <c r="BD2" s="43"/>
-      <c r="BE2" s="43"/>
-      <c r="BF2" s="43"/>
-    </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="58">
-        <v>5</v>
-      </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="60">
-        <v>1.6</v>
-      </c>
-      <c r="F3" s="58">
+      <c r="AP7" s="52">
         <v>3</v>
       </c>
-      <c r="G3" s="58"/>
-      <c r="H3" s="60">
-        <v>30.2</v>
-      </c>
-      <c r="I3" s="58">
-        <v>1</v>
-      </c>
-      <c r="J3" s="58"/>
-      <c r="K3" s="72">
-        <v>2800</v>
-      </c>
-      <c r="L3" s="58">
-        <v>5</v>
-      </c>
-      <c r="M3" s="58"/>
-      <c r="N3" s="60">
-        <v>12.55</v>
-      </c>
-      <c r="O3" s="58">
-        <v>1</v>
-      </c>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="60">
-        <v>109.8</v>
-      </c>
-      <c r="R3" s="58">
-        <v>4</v>
-      </c>
-      <c r="S3" s="58"/>
-      <c r="T3" s="60">
-        <v>313.54000000000002</v>
-      </c>
-      <c r="U3" s="58">
+      <c r="AQ7" s="52"/>
+      <c r="AR7" s="52">
+        <v>18</v>
+      </c>
+      <c r="AS7" s="52">
+        <v>3</v>
+      </c>
+      <c r="AT7" s="52"/>
+      <c r="AU7" s="52">
+        <v>1.65</v>
+      </c>
+      <c r="AV7" s="52">
         <v>2</v>
       </c>
-      <c r="V3" s="58"/>
-      <c r="W3" s="59">
-        <v>29.06</v>
-      </c>
-      <c r="X3" s="58">
+      <c r="AW7" s="52"/>
+      <c r="AX7" s="52">
+        <v>56</v>
+      </c>
+      <c r="AY7" s="52">
         <v>3</v>
       </c>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="77">
-        <v>196.85</v>
-      </c>
-      <c r="AA3" s="77">
+      <c r="AZ7" s="52"/>
+      <c r="BA7" s="52">
+        <v>32</v>
+      </c>
+      <c r="BB7" s="52">
         <v>2</v>
       </c>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="73" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD3" s="58">
-        <v>4</v>
-      </c>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG3" s="58">
-        <v>4</v>
-      </c>
-      <c r="AH3" s="58"/>
-      <c r="AI3" s="58">
-        <v>35</v>
-      </c>
-      <c r="AJ3" s="58">
-        <v>2</v>
-      </c>
-      <c r="AK3" s="61"/>
-      <c r="AL3" s="60">
-        <v>96.8</v>
-      </c>
-      <c r="AM3" s="58">
-        <v>4</v>
-      </c>
-      <c r="AN3" s="58"/>
-      <c r="AO3" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="AP3" s="58">
-        <v>5</v>
-      </c>
-      <c r="AQ3" s="58"/>
-      <c r="AR3" s="58">
-        <v>14</v>
-      </c>
-      <c r="AS3" s="58">
-        <v>1</v>
-      </c>
-      <c r="AT3" s="58"/>
-      <c r="AU3" s="58">
-        <v>0.01</v>
-      </c>
-      <c r="AV3" s="58">
-        <v>1</v>
-      </c>
-      <c r="AW3" s="58"/>
-      <c r="AX3" s="58">
-        <v>44</v>
-      </c>
-      <c r="AY3" s="58">
-        <v>4</v>
-      </c>
-      <c r="AZ3" s="58"/>
-      <c r="BA3" s="58">
-        <v>45</v>
-      </c>
-      <c r="BB3" s="58">
-        <v>5</v>
-      </c>
-      <c r="BC3" s="58"/>
-      <c r="BD3" s="75">
-        <v>6.1</v>
-      </c>
-      <c r="BE3" s="58">
-        <v>4</v>
-      </c>
-      <c r="BF3" s="58"/>
-    </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A4" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="58">
-        <v>3</v>
-      </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="60">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F4" s="58">
-        <v>2</v>
-      </c>
-      <c r="G4" s="58"/>
-      <c r="H4" s="60">
-        <v>160</v>
-      </c>
-      <c r="I4" s="58">
-        <v>4</v>
-      </c>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58">
-        <v>764</v>
-      </c>
-      <c r="L4" s="58">
-        <v>1</v>
-      </c>
-      <c r="M4" s="58"/>
-      <c r="N4" s="60">
-        <v>19.309999999999999</v>
-      </c>
-      <c r="O4" s="58">
-        <v>4</v>
-      </c>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="60">
-        <v>98.13</v>
-      </c>
-      <c r="R4" s="58">
-        <v>1</v>
-      </c>
-      <c r="S4" s="58"/>
-      <c r="T4" s="60">
-        <v>6846</v>
-      </c>
-      <c r="U4" s="58">
-        <v>5</v>
-      </c>
-      <c r="V4" s="58"/>
-      <c r="W4" s="60">
-        <v>31.8</v>
-      </c>
-      <c r="X4" s="58">
-        <v>4</v>
-      </c>
-      <c r="Y4" s="58"/>
-      <c r="Z4" s="77">
-        <v>716.64</v>
-      </c>
-      <c r="AA4" s="77">
-        <v>5</v>
-      </c>
-      <c r="AB4" s="58"/>
-      <c r="AC4" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD4" s="58">
-        <v>3</v>
-      </c>
-      <c r="AE4" s="58"/>
-      <c r="AF4" s="74" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG4" s="58">
-        <v>2</v>
-      </c>
-      <c r="AH4" s="58"/>
-      <c r="AI4" s="58">
-        <v>42</v>
-      </c>
-      <c r="AJ4" s="58">
-        <v>3</v>
-      </c>
-      <c r="AK4" s="61"/>
-      <c r="AL4" s="60">
-        <v>3</v>
-      </c>
-      <c r="AM4" s="58">
-        <v>5</v>
-      </c>
-      <c r="AN4" s="58"/>
-      <c r="AO4" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP4" s="58">
-        <v>2</v>
-      </c>
-      <c r="AQ4" s="58"/>
-      <c r="AR4" s="58">
-        <v>43</v>
-      </c>
-      <c r="AS4" s="58">
-        <v>5</v>
-      </c>
-      <c r="AT4" s="58"/>
-      <c r="AU4" s="58">
-        <v>7.02</v>
-      </c>
-      <c r="AV4" s="58">
-        <v>5</v>
-      </c>
-      <c r="AW4" s="58"/>
-      <c r="AX4" s="58">
-        <v>140</v>
-      </c>
-      <c r="AY4" s="58">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="58"/>
-      <c r="BA4" s="58">
-        <v>37</v>
-      </c>
-      <c r="BB4" s="58">
-        <v>3</v>
-      </c>
-      <c r="BC4" s="58"/>
-      <c r="BD4" s="60">
-        <v>5.5</v>
-      </c>
-      <c r="BE4" s="58">
-        <v>3</v>
-      </c>
-      <c r="BF4" s="43"/>
-    </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A5" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="58">
-        <v>2</v>
-      </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="60">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F5" s="58">
-        <v>2</v>
-      </c>
-      <c r="G5" s="58"/>
-      <c r="H5" s="60">
-        <v>108</v>
-      </c>
-      <c r="I5" s="58">
-        <v>3</v>
-      </c>
-      <c r="J5" s="58"/>
-      <c r="K5" s="72">
-        <v>1900</v>
-      </c>
-      <c r="L5" s="58">
-        <v>3</v>
-      </c>
-      <c r="M5" s="58"/>
-      <c r="N5" s="60">
-        <v>18.68</v>
-      </c>
-      <c r="O5" s="58">
-        <v>3</v>
-      </c>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="60">
-        <v>100.38</v>
-      </c>
-      <c r="R5" s="58">
-        <v>2</v>
-      </c>
-      <c r="S5" s="58"/>
-      <c r="T5" s="60">
-        <v>134.93</v>
-      </c>
-      <c r="U5" s="58">
-        <v>1</v>
-      </c>
-      <c r="V5" s="58"/>
-      <c r="W5" s="61">
-        <v>2373.1799999999998</v>
-      </c>
-      <c r="X5" s="58">
-        <v>5</v>
-      </c>
-      <c r="Y5" s="58"/>
-      <c r="Z5" s="77">
-        <v>204.73</v>
-      </c>
-      <c r="AA5" s="77">
-        <v>3</v>
-      </c>
-      <c r="AB5" s="58"/>
-      <c r="AC5" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD5" s="58">
-        <v>5</v>
-      </c>
-      <c r="AE5" s="58"/>
-      <c r="AF5" s="74" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG5" s="58">
-        <v>5</v>
-      </c>
-      <c r="AH5" s="58"/>
-      <c r="AI5" s="58">
-        <v>50</v>
-      </c>
-      <c r="AJ5" s="58">
-        <v>4</v>
-      </c>
-      <c r="AK5" s="61"/>
-      <c r="AL5" s="60">
-        <v>158.24</v>
-      </c>
-      <c r="AM5" s="58">
-        <v>2</v>
-      </c>
-      <c r="AN5" s="58"/>
-      <c r="AO5" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="AP5" s="58">
-        <v>3</v>
-      </c>
-      <c r="AQ5" s="58"/>
-      <c r="AR5" s="58">
-        <v>17</v>
-      </c>
-      <c r="AS5" s="58">
-        <v>2</v>
-      </c>
-      <c r="AT5" s="58"/>
-      <c r="AU5" s="58">
-        <v>4.26</v>
-      </c>
-      <c r="AV5" s="58">
-        <v>3</v>
-      </c>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58">
-        <v>134</v>
-      </c>
-      <c r="AY5" s="58">
-        <v>2</v>
-      </c>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58">
-        <v>43</v>
-      </c>
-      <c r="BB5" s="58">
-        <v>4</v>
-      </c>
-      <c r="BC5" s="58"/>
-      <c r="BD5" s="60">
-        <v>7.3</v>
-      </c>
-      <c r="BE5" s="58">
-        <v>5</v>
-      </c>
-      <c r="BF5" s="51"/>
-    </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="58">
-        <v>4</v>
-      </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="60">
-        <v>2.7</v>
-      </c>
-      <c r="F6" s="58">
-        <v>4</v>
-      </c>
-      <c r="G6" s="58"/>
-      <c r="H6" s="60">
-        <v>342</v>
-      </c>
-      <c r="I6" s="58">
-        <v>5</v>
-      </c>
-      <c r="J6" s="58"/>
-      <c r="K6" s="72">
-        <v>2360</v>
-      </c>
-      <c r="L6" s="58">
-        <v>4</v>
-      </c>
-      <c r="M6" s="58"/>
-      <c r="N6" s="60">
-        <v>21.39</v>
-      </c>
-      <c r="O6" s="58">
-        <v>5</v>
-      </c>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="60">
-        <v>104.73</v>
-      </c>
-      <c r="R6" s="58">
-        <v>3</v>
-      </c>
-      <c r="S6" s="58"/>
-      <c r="T6" s="60">
-        <v>1417</v>
-      </c>
-      <c r="U6" s="58">
-        <v>4</v>
-      </c>
-      <c r="V6" s="58"/>
-      <c r="W6" s="60">
-        <v>9.65</v>
-      </c>
-      <c r="X6" s="58">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="58"/>
-      <c r="Z6" s="77">
-        <v>709.22</v>
-      </c>
-      <c r="AA6" s="77">
-        <v>4</v>
-      </c>
-      <c r="AB6" s="58"/>
-      <c r="AC6" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD6" s="58">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="58"/>
-      <c r="AF6" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG6" s="58">
-        <v>3</v>
-      </c>
-      <c r="AH6" s="58"/>
-      <c r="AI6" s="58">
-        <v>53</v>
-      </c>
-      <c r="AJ6" s="58">
-        <v>5</v>
-      </c>
-      <c r="AK6" s="61"/>
-      <c r="AL6" s="60">
-        <v>120.09</v>
-      </c>
-      <c r="AM6" s="58">
-        <v>3</v>
-      </c>
-      <c r="AN6" s="58"/>
-      <c r="AO6" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="AP6" s="58">
-        <v>4</v>
-      </c>
-      <c r="AQ6" s="58"/>
-      <c r="AR6" s="58">
-        <v>27</v>
-      </c>
-      <c r="AS6" s="58">
-        <v>4</v>
-      </c>
-      <c r="AT6" s="58"/>
-      <c r="AU6" s="58">
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="AV6" s="58">
-        <v>4</v>
-      </c>
-      <c r="AW6" s="58"/>
-      <c r="AX6" s="58">
-        <v>32</v>
-      </c>
-      <c r="AY6" s="58">
-        <v>5</v>
-      </c>
-      <c r="AZ6" s="58"/>
-      <c r="BA6" s="58">
-        <v>29</v>
-      </c>
-      <c r="BB6" s="58">
-        <v>1</v>
-      </c>
-      <c r="BC6" s="58"/>
-      <c r="BD6" s="60">
-        <v>5</v>
-      </c>
-      <c r="BE6" s="58">
-        <v>2</v>
-      </c>
-      <c r="BF6" s="43"/>
-    </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A7" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="51">
-        <v>1</v>
-      </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="46">
-        <v>3.5</v>
-      </c>
-      <c r="F7" s="51">
-        <v>5</v>
-      </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="46">
-        <v>46.1</v>
-      </c>
-      <c r="I7" s="51">
-        <v>2</v>
-      </c>
-      <c r="J7" s="51"/>
-      <c r="K7" s="68">
-        <v>1020</v>
-      </c>
-      <c r="L7" s="51">
-        <v>2</v>
-      </c>
-      <c r="M7" s="51"/>
-      <c r="N7" s="46">
-        <v>17.5</v>
-      </c>
-      <c r="O7" s="51">
-        <v>2</v>
-      </c>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="46">
-        <v>117</v>
-      </c>
-      <c r="R7" s="51">
-        <v>5</v>
-      </c>
-      <c r="S7" s="51"/>
-      <c r="T7" s="46">
-        <v>833</v>
-      </c>
-      <c r="U7" s="51">
-        <v>3</v>
-      </c>
-      <c r="V7" s="51"/>
-      <c r="W7" s="52">
-        <v>19.8</v>
-      </c>
-      <c r="X7" s="51">
-        <v>2</v>
-      </c>
-      <c r="Y7" s="51"/>
-      <c r="Z7" s="78">
-        <v>47.25</v>
-      </c>
-      <c r="AA7" s="77">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="51"/>
-      <c r="AC7" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD7" s="51">
-        <v>2</v>
-      </c>
-      <c r="AE7" s="51"/>
-      <c r="AF7" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG7" s="51">
-        <v>1</v>
-      </c>
-      <c r="AH7" s="51"/>
-      <c r="AI7" s="51">
-        <v>21</v>
-      </c>
-      <c r="AJ7" s="51">
-        <v>1</v>
-      </c>
-      <c r="AK7" s="62"/>
-      <c r="AL7" s="46">
-        <v>295.74200000000002</v>
-      </c>
-      <c r="AM7" s="51">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="51"/>
-      <c r="AO7" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="AP7" s="51">
-        <v>3</v>
-      </c>
-      <c r="AQ7" s="51"/>
-      <c r="AR7" s="51">
-        <v>18</v>
-      </c>
-      <c r="AS7" s="51">
-        <v>3</v>
-      </c>
-      <c r="AT7" s="51"/>
-      <c r="AU7" s="51">
-        <v>1.65</v>
-      </c>
-      <c r="AV7" s="51">
-        <v>2</v>
-      </c>
-      <c r="AW7" s="51"/>
-      <c r="AX7" s="51">
-        <v>56</v>
-      </c>
-      <c r="AY7" s="51">
-        <v>3</v>
-      </c>
-      <c r="AZ7" s="51"/>
-      <c r="BA7" s="51">
-        <v>32</v>
-      </c>
-      <c r="BB7" s="51">
-        <v>2</v>
-      </c>
-      <c r="BC7" s="51"/>
-      <c r="BD7" s="70">
+      <c r="BC7" s="52"/>
+      <c r="BD7" s="71">
         <v>4.2</v>
       </c>
-      <c r="BE7" s="51">
-        <v>1</v>
-      </c>
-      <c r="BF7" s="43"/>
+      <c r="BE7" s="52">
+        <v>1</v>
+      </c>
+      <c r="BF7" s="44"/>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
-        <v>57</v>
+      <c r="A9" s="42" t="s">
+        <v>52</v>
       </c>
       <c r="T9" s="15">
         <v>301</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="W9" s="56">
+        <v>65</v>
+      </c>
+      <c r="W9" s="57">
         <v>32621</v>
       </c>
       <c r="X9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Z9" s="50">
+      <c r="Z9" s="51">
         <v>1228554</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.3">
@@ -3312,49 +3311,49 @@
         <v>313.54166666666669</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="W10" s="56">
+        <v>56</v>
+      </c>
+      <c r="W10" s="57">
         <f>W9/A10</f>
         <v>2374.1630276564774</v>
       </c>
       <c r="X10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Z10" s="56">
+      <c r="Z10" s="57">
         <f>Z9/A16</f>
         <v>47252.076923076922</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="W11" s="52">
+      <c r="W11" s="53">
         <v>27.9</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z11" s="56">
+        <v>51</v>
+      </c>
+      <c r="Z11" s="57">
         <f>Z10/1000</f>
         <v>47.25207692307692</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
-        <v>58</v>
+      <c r="A12" s="42" t="s">
+        <v>53</v>
       </c>
       <c r="T12" s="15">
         <v>1854</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="W12" s="56">
+        <v>66</v>
+      </c>
+      <c r="W12" s="57">
         <f>W11/A13</f>
         <v>29.0625</v>
       </c>
@@ -3370,17 +3369,121 @@
         <f>T12/A10</f>
         <v>134.93449781659388</v>
       </c>
-      <c r="W13" s="56"/>
+      <c r="W13" s="57"/>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A15" s="41" t="s">
-        <v>59</v>
+      <c r="A15" s="42" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>26</v>
       </c>
+      <c r="AC16" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF16" s="41"/>
+    </row>
+    <row r="17" spans="24:32" x14ac:dyDescent="0.3">
+      <c r="AC17" s="43">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="18" spans="24:32" x14ac:dyDescent="0.3">
+      <c r="X18" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z18" s="78">
+        <v>196.85</v>
+      </c>
+      <c r="AA18" s="82">
+        <f>Z18/AC18*100</f>
+        <v>96.929379671666183</v>
+      </c>
+      <c r="AC18" s="81">
+        <v>203.08600000000001</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF18" s="82"/>
+    </row>
+    <row r="19" spans="24:32" x14ac:dyDescent="0.3">
+      <c r="X19" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z19" s="78">
+        <v>716.64</v>
+      </c>
+      <c r="AA19" s="82">
+        <f t="shared" ref="AA19:AA22" si="0">Z19/AC19*100</f>
+        <v>34.889970788704964</v>
+      </c>
+      <c r="AC19" s="81">
+        <v>2054</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF19" s="82"/>
+    </row>
+    <row r="20" spans="24:32" x14ac:dyDescent="0.3">
+      <c r="X20" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z20" s="78">
+        <v>204.73</v>
+      </c>
+      <c r="AA20" s="82">
+        <f t="shared" si="0"/>
+        <v>58.683413974179629</v>
+      </c>
+      <c r="AC20" s="81">
+        <v>348.87200000000001</v>
+      </c>
+      <c r="AD20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF20" s="82"/>
+    </row>
+    <row r="21" spans="24:32" x14ac:dyDescent="0.3">
+      <c r="X21" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z21" s="78">
+        <v>709.22</v>
+      </c>
+      <c r="AA21" s="82">
+        <f t="shared" si="0"/>
+        <v>44.944233206590624</v>
+      </c>
+      <c r="AC21" s="81">
+        <v>1578</v>
+      </c>
+      <c r="AD21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF21" s="82"/>
+    </row>
+    <row r="22" spans="24:32" x14ac:dyDescent="0.3">
+      <c r="X22" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z22" s="79">
+        <v>47.25</v>
+      </c>
+      <c r="AA22" s="82">
+        <f t="shared" si="0"/>
+        <v>42.129571838721759</v>
+      </c>
+      <c r="AC22" s="81">
+        <v>112.154</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF22" s="82"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Контрольные на 4-й семестр/МЭО/Контрольная работа/Лист Microsoft Excel.xlsx
+++ b/Контрольные на 4-й семестр/МЭО/Контрольная работа/Лист Microsoft Excel.xlsx
@@ -285,7 +285,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,8 +456,14 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -485,6 +491,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,7 +620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -677,14 +707,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -707,37 +730,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -752,6 +752,38 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2326,8 +2358,8 @@
   <dimension ref="A1:BF22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA5" sqref="AA5"/>
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2393,171 +2425,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" s="42" customFormat="1" ht="75" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="40" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="40" t="s">
+      <c r="G1" s="70"/>
+      <c r="H1" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="43"/>
-      <c r="K1" s="46" t="s">
+      <c r="J1" s="70"/>
+      <c r="K1" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="43"/>
-      <c r="N1" s="48" t="s">
+      <c r="M1" s="70"/>
+      <c r="N1" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="O1" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="49" t="s">
+      <c r="P1" s="70"/>
+      <c r="Q1" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="40" t="s">
+      <c r="R1" s="70" t="s">
         <v>42</v>
       </c>
       <c r="S1" s="43"/>
-      <c r="T1" s="50" t="s">
+      <c r="T1" s="47" t="s">
         <v>64</v>
       </c>
       <c r="U1" s="40" t="s">
         <v>42</v>
       </c>
       <c r="V1" s="43"/>
-      <c r="W1" s="58" t="s">
+      <c r="W1" s="55" t="s">
         <v>49</v>
       </c>
       <c r="X1" s="40" t="s">
         <v>42</v>
       </c>
       <c r="Y1" s="43"/>
-      <c r="Z1" s="50" t="s">
+      <c r="Z1" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="AA1" s="64" t="s">
+      <c r="AA1" s="58" t="s">
         <v>42</v>
       </c>
       <c r="AB1" s="43"/>
-      <c r="AC1" s="50" t="s">
+      <c r="AC1" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" s="64" t="s">
+      <c r="AD1" s="58" t="s">
         <v>42</v>
       </c>
       <c r="AE1" s="43"/>
-      <c r="AF1" s="65" t="s">
+      <c r="AF1" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="AG1" s="64" t="s">
+      <c r="AG1" s="58" t="s">
         <v>42</v>
       </c>
       <c r="AH1" s="43"/>
-      <c r="AI1" s="50" t="s">
+      <c r="AI1" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="AJ1" s="64" t="s">
+      <c r="AJ1" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="AK1" s="66"/>
+      <c r="AK1" s="43"/>
       <c r="AL1" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="AM1" s="64" t="s">
+      <c r="AM1" s="58" t="s">
         <v>42</v>
       </c>
       <c r="AN1" s="43"/>
-      <c r="AO1" s="65" t="s">
+      <c r="AO1" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="AP1" s="64" t="s">
+      <c r="AP1" s="58" t="s">
         <v>42</v>
       </c>
       <c r="AQ1" s="43"/>
-      <c r="AR1" s="65" t="s">
+      <c r="AR1" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="AS1" s="64" t="s">
+      <c r="AS1" s="58" t="s">
         <v>42</v>
       </c>
       <c r="AT1" s="43"/>
-      <c r="AU1" s="48" t="s">
+      <c r="AU1" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="AV1" s="64" t="s">
+      <c r="AV1" s="58" t="s">
         <v>42</v>
       </c>
       <c r="AW1" s="43"/>
-      <c r="AX1" s="48" t="s">
+      <c r="AX1" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="AY1" s="64" t="s">
+      <c r="AY1" s="58" t="s">
         <v>42</v>
       </c>
       <c r="AZ1" s="43"/>
-      <c r="BA1" s="48" t="s">
+      <c r="BA1" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="BB1" s="64" t="s">
+      <c r="BB1" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="BC1" s="77"/>
-      <c r="BD1" s="67" t="s">
+      <c r="BC1" s="63"/>
+      <c r="BD1" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="BE1" s="64" t="s">
+      <c r="BE1" s="58" t="s">
         <v>42</v>
       </c>
       <c r="BF1" s="43"/>
     </row>
     <row r="2" spans="1:58" s="45" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
       <c r="S2" s="44"/>
       <c r="T2" s="44"/>
       <c r="U2" s="44"/>
       <c r="V2" s="44"/>
-      <c r="W2" s="59"/>
+      <c r="W2" s="56"/>
       <c r="X2" s="44"/>
       <c r="Y2" s="44"/>
       <c r="Z2" s="44"/>
-      <c r="AA2" s="59"/>
+      <c r="AA2" s="56"/>
       <c r="AB2" s="44"/>
       <c r="AC2" s="44"/>
       <c r="AD2" s="44"/>
@@ -2567,6 +2599,7 @@
       <c r="AH2" s="44"/>
       <c r="AI2" s="44"/>
       <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
       <c r="AL2" s="44"/>
       <c r="AM2" s="44"/>
       <c r="AN2" s="44"/>
@@ -2590,694 +2623,713 @@
       <c r="BF2" s="44"/>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="80">
+      <c r="B3" s="71">
         <v>23027.41</v>
       </c>
-      <c r="C3" s="59">
+      <c r="C3" s="74">
         <v>5</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="61">
+      <c r="D3" s="74"/>
+      <c r="E3" s="73">
         <v>1.6</v>
       </c>
-      <c r="F3" s="59">
+      <c r="F3" s="74">
         <v>3</v>
       </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="61">
+      <c r="G3" s="74"/>
+      <c r="H3" s="73">
         <v>30.2</v>
       </c>
-      <c r="I3" s="59">
+      <c r="I3" s="74">
         <v>1</v>
       </c>
-      <c r="J3" s="59"/>
-      <c r="K3" s="73">
+      <c r="J3" s="74"/>
+      <c r="K3" s="76">
         <v>2800</v>
       </c>
-      <c r="L3" s="59">
+      <c r="L3" s="74">
         <v>5</v>
       </c>
-      <c r="M3" s="59"/>
-      <c r="N3" s="61">
+      <c r="M3" s="74"/>
+      <c r="N3" s="73">
         <v>12.55</v>
       </c>
-      <c r="O3" s="59">
+      <c r="O3" s="74">
         <v>1</v>
       </c>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="61">
+      <c r="P3" s="74"/>
+      <c r="Q3" s="73">
         <v>109.8</v>
       </c>
-      <c r="R3" s="59">
+      <c r="R3" s="74">
         <v>4</v>
       </c>
-      <c r="S3" s="59"/>
-      <c r="T3" s="61">
+      <c r="S3" s="56"/>
+      <c r="T3" s="57">
         <v>313.54000000000002</v>
       </c>
-      <c r="U3" s="59">
+      <c r="U3" s="81">
         <v>2</v>
       </c>
-      <c r="V3" s="59"/>
-      <c r="W3" s="60">
+      <c r="V3" s="56"/>
+      <c r="W3" s="85">
         <v>29.06</v>
       </c>
-      <c r="X3" s="59">
+      <c r="X3" s="56">
         <v>3</v>
       </c>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="82">
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="66">
         <v>96.93</v>
       </c>
-      <c r="AA3" s="78">
+      <c r="AA3" s="64">
         <v>5</v>
       </c>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="74" t="s">
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="AD3" s="59">
+      <c r="AD3" s="56">
         <v>4</v>
       </c>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="75" t="s">
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="AG3" s="59">
+      <c r="AG3" s="56">
         <v>4</v>
       </c>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59">
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56">
         <v>35</v>
       </c>
-      <c r="AJ3" s="59">
+      <c r="AJ3" s="56">
         <v>2</v>
       </c>
-      <c r="AK3" s="62"/>
-      <c r="AL3" s="61">
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="57">
         <v>96.8</v>
       </c>
-      <c r="AM3" s="59">
+      <c r="AM3" s="56">
         <v>4</v>
       </c>
-      <c r="AN3" s="59"/>
-      <c r="AO3" s="59" t="s">
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="AP3" s="59">
+      <c r="AP3" s="56">
         <v>5</v>
       </c>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="59">
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="56">
         <v>14</v>
       </c>
-      <c r="AS3" s="59">
+      <c r="AS3" s="56">
         <v>1</v>
       </c>
-      <c r="AT3" s="59"/>
-      <c r="AU3" s="59">
+      <c r="AT3" s="56"/>
+      <c r="AU3" s="56">
         <v>0.01</v>
       </c>
-      <c r="AV3" s="59">
+      <c r="AV3" s="56">
         <v>1</v>
       </c>
-      <c r="AW3" s="59"/>
-      <c r="AX3" s="59">
+      <c r="AW3" s="56"/>
+      <c r="AX3" s="56">
         <v>44</v>
       </c>
-      <c r="AY3" s="59">
+      <c r="AY3" s="56">
         <v>4</v>
       </c>
-      <c r="AZ3" s="59"/>
-      <c r="BA3" s="59">
+      <c r="AZ3" s="56"/>
+      <c r="BA3" s="56">
         <v>45</v>
       </c>
-      <c r="BB3" s="59">
+      <c r="BB3" s="56">
         <v>5</v>
       </c>
-      <c r="BC3" s="59"/>
-      <c r="BD3" s="76">
+      <c r="BC3" s="56"/>
+      <c r="BD3" s="62">
         <v>6.1</v>
       </c>
-      <c r="BE3" s="59">
+      <c r="BE3" s="56">
         <v>4</v>
       </c>
-      <c r="BF3" s="59"/>
+      <c r="BF3" s="56"/>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="80">
+      <c r="B4" s="71">
         <v>10888.98</v>
       </c>
-      <c r="C4" s="59">
+      <c r="C4" s="74">
         <v>3</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="61">
+      <c r="D4" s="74"/>
+      <c r="E4" s="73">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F4" s="59">
+      <c r="F4" s="74">
         <v>2</v>
       </c>
-      <c r="G4" s="59"/>
-      <c r="H4" s="61">
+      <c r="G4" s="74"/>
+      <c r="H4" s="73">
         <v>160</v>
       </c>
-      <c r="I4" s="59">
+      <c r="I4" s="74">
         <v>4</v>
       </c>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59">
+      <c r="J4" s="74"/>
+      <c r="K4" s="74">
         <v>764</v>
       </c>
-      <c r="L4" s="59">
+      <c r="L4" s="74">
         <v>1</v>
       </c>
-      <c r="M4" s="59"/>
-      <c r="N4" s="61">
+      <c r="M4" s="74"/>
+      <c r="N4" s="73">
         <v>19.309999999999999</v>
       </c>
-      <c r="O4" s="59">
+      <c r="O4" s="74">
         <v>4</v>
       </c>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="61">
+      <c r="P4" s="74"/>
+      <c r="Q4" s="73">
         <v>98.13</v>
       </c>
-      <c r="R4" s="59">
+      <c r="R4" s="74">
         <v>1</v>
       </c>
-      <c r="S4" s="59"/>
-      <c r="T4" s="61">
+      <c r="S4" s="56"/>
+      <c r="T4" s="57">
         <v>6846</v>
       </c>
-      <c r="U4" s="59">
+      <c r="U4" s="80">
         <v>5</v>
       </c>
-      <c r="V4" s="59"/>
-      <c r="W4" s="61">
+      <c r="V4" s="56"/>
+      <c r="W4" s="57">
         <v>31.8</v>
       </c>
-      <c r="X4" s="59">
+      <c r="X4" s="56">
         <v>4</v>
       </c>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="82">
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="66">
         <v>34.89</v>
       </c>
-      <c r="AA4" s="78">
+      <c r="AA4" s="64">
         <v>1</v>
       </c>
-      <c r="AB4" s="59"/>
-      <c r="AC4" s="72" t="s">
+      <c r="AB4" s="56"/>
+      <c r="AC4" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="AD4" s="59">
+      <c r="AD4" s="56">
         <v>3</v>
       </c>
-      <c r="AE4" s="59"/>
-      <c r="AF4" s="75" t="s">
+      <c r="AE4" s="56"/>
+      <c r="AF4" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="AG4" s="59">
+      <c r="AG4" s="56">
         <v>2</v>
       </c>
-      <c r="AH4" s="59"/>
-      <c r="AI4" s="59">
+      <c r="AH4" s="56"/>
+      <c r="AI4" s="56">
         <v>42</v>
       </c>
-      <c r="AJ4" s="59">
+      <c r="AJ4" s="56">
         <v>3</v>
       </c>
-      <c r="AK4" s="62"/>
-      <c r="AL4" s="61">
+      <c r="AK4" s="56"/>
+      <c r="AL4" s="57">
         <v>3</v>
       </c>
-      <c r="AM4" s="59">
+      <c r="AM4" s="56">
         <v>5</v>
       </c>
-      <c r="AN4" s="59"/>
-      <c r="AO4" s="59" t="s">
+      <c r="AN4" s="56"/>
+      <c r="AO4" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="AP4" s="59">
+      <c r="AP4" s="56">
         <v>2</v>
       </c>
-      <c r="AQ4" s="59"/>
-      <c r="AR4" s="59">
+      <c r="AQ4" s="56"/>
+      <c r="AR4" s="56">
         <v>43</v>
       </c>
-      <c r="AS4" s="59">
+      <c r="AS4" s="56">
         <v>5</v>
       </c>
-      <c r="AT4" s="59"/>
-      <c r="AU4" s="59">
+      <c r="AT4" s="56"/>
+      <c r="AU4" s="56">
         <v>7.02</v>
       </c>
-      <c r="AV4" s="59">
+      <c r="AV4" s="56">
         <v>5</v>
       </c>
-      <c r="AW4" s="59"/>
-      <c r="AX4" s="59">
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56">
         <v>140</v>
       </c>
-      <c r="AY4" s="59">
+      <c r="AY4" s="56">
         <v>1</v>
       </c>
-      <c r="AZ4" s="59"/>
-      <c r="BA4" s="59">
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56">
         <v>37</v>
       </c>
-      <c r="BB4" s="59">
+      <c r="BB4" s="56">
         <v>3</v>
       </c>
-      <c r="BC4" s="59"/>
-      <c r="BD4" s="61">
+      <c r="BC4" s="56"/>
+      <c r="BD4" s="57">
         <v>5.5</v>
       </c>
-      <c r="BE4" s="59">
+      <c r="BE4" s="56">
         <v>3</v>
       </c>
       <c r="BF4" s="44"/>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="80">
+      <c r="B5" s="71">
         <v>7524.51</v>
       </c>
-      <c r="C5" s="59">
+      <c r="C5" s="74">
         <v>2</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="61">
+      <c r="D5" s="74"/>
+      <c r="E5" s="73">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F5" s="59">
+      <c r="F5" s="74">
         <v>2</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="61">
+      <c r="G5" s="74"/>
+      <c r="H5" s="73">
         <v>108</v>
       </c>
-      <c r="I5" s="59">
+      <c r="I5" s="74">
         <v>3</v>
       </c>
-      <c r="J5" s="59"/>
-      <c r="K5" s="73">
+      <c r="J5" s="74"/>
+      <c r="K5" s="76">
         <v>1900</v>
       </c>
-      <c r="L5" s="59">
+      <c r="L5" s="74">
         <v>3</v>
       </c>
-      <c r="M5" s="59"/>
-      <c r="N5" s="61">
+      <c r="M5" s="74"/>
+      <c r="N5" s="73">
         <v>18.68</v>
       </c>
-      <c r="O5" s="59">
+      <c r="O5" s="74">
         <v>3</v>
       </c>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="61">
+      <c r="P5" s="74"/>
+      <c r="Q5" s="73">
         <v>100.38</v>
       </c>
-      <c r="R5" s="59">
+      <c r="R5" s="74">
         <v>2</v>
       </c>
-      <c r="S5" s="59"/>
-      <c r="T5" s="61">
+      <c r="S5" s="56"/>
+      <c r="T5" s="57">
         <v>134.93</v>
       </c>
-      <c r="U5" s="59">
+      <c r="U5" s="83">
         <v>1</v>
       </c>
-      <c r="V5" s="59"/>
-      <c r="W5" s="62">
+      <c r="V5" s="56"/>
+      <c r="W5" s="56">
         <v>2373.1799999999998</v>
       </c>
-      <c r="X5" s="59">
+      <c r="X5" s="56">
         <v>5</v>
       </c>
-      <c r="Y5" s="59"/>
-      <c r="Z5" s="82">
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="66">
         <v>58.68</v>
       </c>
-      <c r="AA5" s="78">
+      <c r="AA5" s="64">
         <v>4</v>
       </c>
-      <c r="AB5" s="59"/>
-      <c r="AC5" s="72" t="s">
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="AD5" s="59">
+      <c r="AD5" s="56">
         <v>5</v>
       </c>
-      <c r="AE5" s="59"/>
-      <c r="AF5" s="75" t="s">
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="AG5" s="59">
+      <c r="AG5" s="56">
         <v>5</v>
       </c>
-      <c r="AH5" s="59"/>
-      <c r="AI5" s="59">
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56">
         <v>50</v>
       </c>
-      <c r="AJ5" s="59">
+      <c r="AJ5" s="56">
         <v>4</v>
       </c>
-      <c r="AK5" s="62"/>
-      <c r="AL5" s="61">
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="57">
         <v>158.24</v>
       </c>
-      <c r="AM5" s="59">
+      <c r="AM5" s="56">
         <v>2</v>
       </c>
-      <c r="AN5" s="59"/>
-      <c r="AO5" s="59" t="s">
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="AP5" s="59">
+      <c r="AP5" s="56">
         <v>3</v>
       </c>
-      <c r="AQ5" s="59"/>
-      <c r="AR5" s="59">
+      <c r="AQ5" s="56"/>
+      <c r="AR5" s="56">
         <v>17</v>
       </c>
-      <c r="AS5" s="59">
+      <c r="AS5" s="56">
         <v>2</v>
       </c>
-      <c r="AT5" s="59"/>
-      <c r="AU5" s="59">
+      <c r="AT5" s="56"/>
+      <c r="AU5" s="56">
         <v>4.26</v>
       </c>
-      <c r="AV5" s="59">
+      <c r="AV5" s="56">
         <v>3</v>
       </c>
-      <c r="AW5" s="59"/>
-      <c r="AX5" s="59">
+      <c r="AW5" s="56"/>
+      <c r="AX5" s="56">
         <v>134</v>
       </c>
-      <c r="AY5" s="59">
+      <c r="AY5" s="56">
         <v>2</v>
       </c>
-      <c r="AZ5" s="59"/>
-      <c r="BA5" s="59">
+      <c r="AZ5" s="56"/>
+      <c r="BA5" s="56">
         <v>43</v>
       </c>
-      <c r="BB5" s="59">
+      <c r="BB5" s="56">
         <v>4</v>
       </c>
-      <c r="BC5" s="59"/>
-      <c r="BD5" s="61">
+      <c r="BC5" s="56"/>
+      <c r="BD5" s="57">
         <v>7.3</v>
       </c>
-      <c r="BE5" s="59">
+      <c r="BE5" s="56">
         <v>5</v>
       </c>
-      <c r="BF5" s="52"/>
+      <c r="BF5" s="49"/>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="80">
+      <c r="B6" s="71">
         <v>11441</v>
       </c>
-      <c r="C6" s="59">
+      <c r="C6" s="74">
         <v>4</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="61">
+      <c r="D6" s="74"/>
+      <c r="E6" s="73">
         <v>2.7</v>
       </c>
-      <c r="F6" s="59">
+      <c r="F6" s="74">
         <v>4</v>
       </c>
-      <c r="G6" s="59"/>
-      <c r="H6" s="61">
+      <c r="G6" s="74"/>
+      <c r="H6" s="73">
         <v>342</v>
       </c>
-      <c r="I6" s="59">
+      <c r="I6" s="74">
         <v>5</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="73">
+      <c r="J6" s="74"/>
+      <c r="K6" s="76">
         <v>2360</v>
       </c>
-      <c r="L6" s="59">
+      <c r="L6" s="74">
         <v>4</v>
       </c>
-      <c r="M6" s="59"/>
-      <c r="N6" s="61">
+      <c r="M6" s="74"/>
+      <c r="N6" s="73">
         <v>21.39</v>
       </c>
-      <c r="O6" s="59">
+      <c r="O6" s="74">
         <v>5</v>
       </c>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="61">
+      <c r="P6" s="74"/>
+      <c r="Q6" s="73">
         <v>104.73</v>
       </c>
-      <c r="R6" s="59">
+      <c r="R6" s="74">
         <v>3</v>
       </c>
-      <c r="S6" s="59"/>
-      <c r="T6" s="61">
+      <c r="S6" s="56"/>
+      <c r="T6" s="57">
         <v>1417</v>
       </c>
-      <c r="U6" s="59">
+      <c r="U6" s="79">
         <v>4</v>
       </c>
-      <c r="V6" s="59"/>
-      <c r="W6" s="61">
+      <c r="V6" s="56"/>
+      <c r="W6" s="57">
         <v>9.65</v>
       </c>
-      <c r="X6" s="59">
+      <c r="X6" s="56">
         <v>1</v>
       </c>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="82">
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="66">
         <v>44.94</v>
       </c>
-      <c r="AA6" s="78">
+      <c r="AA6" s="64">
         <v>3</v>
       </c>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="72" t="s">
+      <c r="AB6" s="56"/>
+      <c r="AC6" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="AD6" s="59">
+      <c r="AD6" s="56">
         <v>1</v>
       </c>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="75" t="s">
+      <c r="AE6" s="56"/>
+      <c r="AF6" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="AG6" s="59">
+      <c r="AG6" s="56">
         <v>3</v>
       </c>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="59">
+      <c r="AH6" s="56"/>
+      <c r="AI6" s="56">
         <v>53</v>
       </c>
-      <c r="AJ6" s="59">
+      <c r="AJ6" s="56">
         <v>5</v>
       </c>
-      <c r="AK6" s="62"/>
-      <c r="AL6" s="61">
+      <c r="AK6" s="56"/>
+      <c r="AL6" s="57">
         <v>120.09</v>
       </c>
-      <c r="AM6" s="59">
+      <c r="AM6" s="56">
         <v>3</v>
       </c>
-      <c r="AN6" s="59"/>
-      <c r="AO6" s="59" t="s">
+      <c r="AN6" s="56"/>
+      <c r="AO6" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="AP6" s="59">
+      <c r="AP6" s="56">
         <v>4</v>
       </c>
-      <c r="AQ6" s="59"/>
-      <c r="AR6" s="59">
+      <c r="AQ6" s="56"/>
+      <c r="AR6" s="56">
         <v>27</v>
       </c>
-      <c r="AS6" s="59">
+      <c r="AS6" s="56">
         <v>4</v>
       </c>
-      <c r="AT6" s="59"/>
-      <c r="AU6" s="59">
+      <c r="AT6" s="56"/>
+      <c r="AU6" s="56">
         <v>4.5599999999999996</v>
       </c>
-      <c r="AV6" s="59">
+      <c r="AV6" s="56">
         <v>4</v>
       </c>
-      <c r="AW6" s="59"/>
-      <c r="AX6" s="59">
+      <c r="AW6" s="56"/>
+      <c r="AX6" s="56">
         <v>32</v>
       </c>
-      <c r="AY6" s="59">
+      <c r="AY6" s="56">
         <v>5</v>
       </c>
-      <c r="AZ6" s="59"/>
-      <c r="BA6" s="59">
+      <c r="AZ6" s="56"/>
+      <c r="BA6" s="56">
         <v>29</v>
       </c>
-      <c r="BB6" s="59">
+      <c r="BB6" s="56">
         <v>1</v>
       </c>
-      <c r="BC6" s="59"/>
-      <c r="BD6" s="61">
+      <c r="BC6" s="56"/>
+      <c r="BD6" s="57">
         <v>5</v>
       </c>
-      <c r="BE6" s="59">
+      <c r="BE6" s="56">
         <v>2</v>
       </c>
       <c r="BF6" s="44"/>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="80">
+      <c r="B7" s="71">
         <v>2991.63</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="74">
         <v>1</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="47">
+      <c r="D7" s="74"/>
+      <c r="E7" s="73">
         <v>3.5</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="74">
         <v>5</v>
       </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="47">
+      <c r="G7" s="74"/>
+      <c r="H7" s="73">
         <v>46.1</v>
       </c>
-      <c r="I7" s="52">
+      <c r="I7" s="74">
         <v>2</v>
       </c>
-      <c r="J7" s="52"/>
-      <c r="K7" s="69">
+      <c r="J7" s="74"/>
+      <c r="K7" s="76">
         <v>1020</v>
       </c>
-      <c r="L7" s="52">
+      <c r="L7" s="74">
         <v>2</v>
       </c>
-      <c r="M7" s="52"/>
-      <c r="N7" s="47">
+      <c r="M7" s="74"/>
+      <c r="N7" s="73">
         <v>17.5</v>
       </c>
-      <c r="O7" s="52">
+      <c r="O7" s="74">
         <v>2</v>
       </c>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="47">
+      <c r="P7" s="74"/>
+      <c r="Q7" s="73">
         <v>117</v>
       </c>
-      <c r="R7" s="52">
+      <c r="R7" s="74">
         <v>5</v>
       </c>
-      <c r="S7" s="52"/>
-      <c r="T7" s="47">
+      <c r="S7" s="56"/>
+      <c r="T7" s="57">
         <v>833</v>
       </c>
-      <c r="U7" s="52">
+      <c r="U7" s="49">
         <v>3</v>
       </c>
-      <c r="V7" s="52"/>
-      <c r="W7" s="53">
+      <c r="V7" s="56"/>
+      <c r="W7" s="86">
         <v>19.8</v>
       </c>
-      <c r="X7" s="52">
+      <c r="X7" s="56">
         <v>2</v>
       </c>
-      <c r="Y7" s="52"/>
-      <c r="Z7" s="82">
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="69">
         <v>42.13</v>
       </c>
-      <c r="AA7" s="78">
+      <c r="AA7" s="82">
         <v>2</v>
       </c>
-      <c r="AB7" s="52"/>
-      <c r="AC7" s="68" t="s">
+      <c r="AB7" s="56"/>
+      <c r="AC7" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="AD7" s="52">
+      <c r="AD7" s="56">
         <v>2</v>
       </c>
-      <c r="AE7" s="52"/>
-      <c r="AF7" s="70" t="s">
+      <c r="AE7" s="56"/>
+      <c r="AF7" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="AG7" s="52">
+      <c r="AG7" s="56">
         <v>1</v>
       </c>
-      <c r="AH7" s="52"/>
-      <c r="AI7" s="52">
+      <c r="AH7" s="56"/>
+      <c r="AI7" s="56">
         <v>21</v>
       </c>
-      <c r="AJ7" s="52">
+      <c r="AJ7" s="56">
         <v>1</v>
       </c>
-      <c r="AK7" s="63"/>
-      <c r="AL7" s="47">
+      <c r="AK7" s="56"/>
+      <c r="AL7" s="57">
         <v>295.74200000000002</v>
       </c>
-      <c r="AM7" s="52">
+      <c r="AM7" s="56">
         <v>1</v>
       </c>
-      <c r="AN7" s="52"/>
-      <c r="AO7" s="52" t="s">
+      <c r="AN7" s="56"/>
+      <c r="AO7" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="AP7" s="52">
+      <c r="AP7" s="56">
         <v>3</v>
       </c>
-      <c r="AQ7" s="52"/>
-      <c r="AR7" s="52">
+      <c r="AQ7" s="56"/>
+      <c r="AR7" s="56">
         <v>18</v>
       </c>
-      <c r="AS7" s="52">
+      <c r="AS7" s="56">
         <v>3</v>
       </c>
-      <c r="AT7" s="52"/>
-      <c r="AU7" s="52">
+      <c r="AT7" s="56"/>
+      <c r="AU7" s="56">
         <v>1.65</v>
       </c>
-      <c r="AV7" s="52">
+      <c r="AV7" s="56">
         <v>2</v>
       </c>
-      <c r="AW7" s="52"/>
-      <c r="AX7" s="52">
+      <c r="AW7" s="56"/>
+      <c r="AX7" s="56">
         <v>56</v>
       </c>
-      <c r="AY7" s="52">
+      <c r="AY7" s="56">
         <v>3</v>
       </c>
-      <c r="AZ7" s="52"/>
-      <c r="BA7" s="52">
+      <c r="AZ7" s="56"/>
+      <c r="BA7" s="56">
         <v>32</v>
       </c>
-      <c r="BB7" s="52">
+      <c r="BB7" s="56">
         <v>2</v>
       </c>
-      <c r="BC7" s="52"/>
-      <c r="BD7" s="71">
+      <c r="BC7" s="56"/>
+      <c r="BD7" s="62">
         <v>4.2</v>
       </c>
-      <c r="BE7" s="52">
+      <c r="BE7" s="56">
         <v>1</v>
       </c>
-      <c r="BF7" s="44"/>
+      <c r="BF7" s="56"/>
+    </row>
+    <row r="8" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
@@ -3289,13 +3341,13 @@
       <c r="U9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="W9" s="57">
+      <c r="W9" s="54">
         <v>32621</v>
       </c>
       <c r="X9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Z9" s="51">
+      <c r="Z9" s="48">
         <v>1228554</v>
       </c>
       <c r="AA9" s="2" t="s">
@@ -3313,14 +3365,14 @@
       <c r="U10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="W10" s="57">
+      <c r="W10" s="54">
         <f>W9/A10</f>
         <v>2374.1630276564774</v>
       </c>
       <c r="X10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Z10" s="57">
+      <c r="Z10" s="54">
         <f>Z9/A16</f>
         <v>47252.076923076922</v>
       </c>
@@ -3329,13 +3381,13 @@
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="W11" s="53">
+      <c r="W11" s="50">
         <v>27.9</v>
       </c>
       <c r="X11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Z11" s="57">
+      <c r="Z11" s="54">
         <f>Z10/1000</f>
         <v>47.25207692307692</v>
       </c>
@@ -3353,7 +3405,7 @@
       <c r="U12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="W12" s="57">
+      <c r="W12" s="54">
         <f>W11/A13</f>
         <v>29.0625</v>
       </c>
@@ -3369,7 +3421,7 @@
         <f>T12/A10</f>
         <v>134.93449781659388</v>
       </c>
-      <c r="W13" s="57"/>
+      <c r="W13" s="54"/>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A15" s="42" t="s">
@@ -3385,105 +3437,109 @@
       </c>
       <c r="AF16" s="41"/>
     </row>
-    <row r="17" spans="24:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="14:32" x14ac:dyDescent="0.3">
       <c r="AC17" s="43">
         <v>2019</v>
       </c>
     </row>
-    <row r="18" spans="24:32" x14ac:dyDescent="0.3">
-      <c r="X18" s="54" t="s">
+    <row r="18" spans="14:32" x14ac:dyDescent="0.3">
+      <c r="N18" s="2">
+        <f>100-98.13</f>
+        <v>1.8700000000000045</v>
+      </c>
+      <c r="X18" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="Z18" s="78">
+      <c r="Z18" s="64">
         <v>196.85</v>
       </c>
-      <c r="AA18" s="82">
+      <c r="AA18" s="68">
         <f>Z18/AC18*100</f>
         <v>96.929379671666183</v>
       </c>
-      <c r="AC18" s="81">
+      <c r="AC18" s="67">
         <v>203.08600000000001</v>
       </c>
       <c r="AD18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AF18" s="82"/>
-    </row>
-    <row r="19" spans="24:32" x14ac:dyDescent="0.3">
-      <c r="X19" s="54" t="s">
+      <c r="AF18" s="68"/>
+    </row>
+    <row r="19" spans="14:32" x14ac:dyDescent="0.3">
+      <c r="X19" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="Z19" s="78">
+      <c r="Z19" s="64">
         <v>716.64</v>
       </c>
-      <c r="AA19" s="82">
+      <c r="AA19" s="68">
         <f t="shared" ref="AA19:AA22" si="0">Z19/AC19*100</f>
         <v>34.889970788704964</v>
       </c>
-      <c r="AC19" s="81">
+      <c r="AC19" s="67">
         <v>2054</v>
       </c>
       <c r="AD19" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AF19" s="82"/>
-    </row>
-    <row r="20" spans="24:32" x14ac:dyDescent="0.3">
-      <c r="X20" s="56" t="s">
+      <c r="AF19" s="68"/>
+    </row>
+    <row r="20" spans="14:32" x14ac:dyDescent="0.3">
+      <c r="X20" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="Z20" s="78">
+      <c r="Z20" s="64">
         <v>204.73</v>
       </c>
-      <c r="AA20" s="82">
+      <c r="AA20" s="68">
         <f t="shared" si="0"/>
         <v>58.683413974179629</v>
       </c>
-      <c r="AC20" s="81">
+      <c r="AC20" s="67">
         <v>348.87200000000001</v>
       </c>
       <c r="AD20" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AF20" s="82"/>
-    </row>
-    <row r="21" spans="24:32" x14ac:dyDescent="0.3">
-      <c r="X21" s="54" t="s">
+      <c r="AF20" s="68"/>
+    </row>
+    <row r="21" spans="14:32" x14ac:dyDescent="0.3">
+      <c r="X21" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="Z21" s="78">
+      <c r="Z21" s="64">
         <v>709.22</v>
       </c>
-      <c r="AA21" s="82">
+      <c r="AA21" s="68">
         <f t="shared" si="0"/>
         <v>44.944233206590624</v>
       </c>
-      <c r="AC21" s="81">
+      <c r="AC21" s="67">
         <v>1578</v>
       </c>
       <c r="AD21" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AF21" s="82"/>
-    </row>
-    <row r="22" spans="24:32" x14ac:dyDescent="0.3">
-      <c r="X22" s="54" t="s">
+      <c r="AF21" s="68"/>
+    </row>
+    <row r="22" spans="14:32" x14ac:dyDescent="0.3">
+      <c r="X22" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="Z22" s="79">
+      <c r="Z22" s="65">
         <v>47.25</v>
       </c>
-      <c r="AA22" s="82">
+      <c r="AA22" s="68">
         <f t="shared" si="0"/>
         <v>42.129571838721759</v>
       </c>
-      <c r="AC22" s="81">
+      <c r="AC22" s="67">
         <v>112.154</v>
       </c>
       <c r="AD22" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AF22" s="82"/>
+      <c r="AF22" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Контрольные на 4-й семестр/МЭО/Контрольная работа/Лист Microsoft Excel.xlsx
+++ b/Контрольные на 4-й семестр/МЭО/Контрольная работа/Лист Microsoft Excel.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="87">
   <si>
     <t>Украина</t>
   </si>
@@ -212,9 +212,6 @@
     <t>65,6</t>
   </si>
   <si>
-    <t>Прямые иностранные инвестиции</t>
-  </si>
-  <si>
     <t>EUR млн.</t>
   </si>
   <si>
@@ -279,6 +276,9 @@
   </si>
   <si>
     <t>$млрд</t>
+  </si>
+  <si>
+    <t>Прямые иностранные инвестиции,%</t>
   </si>
 </sst>
 </file>
@@ -620,7 +620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -710,9 +710,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -770,6 +767,7 @@
     <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -783,6 +781,9 @@
     </xf>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2355,11 +2356,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF22"/>
+  <dimension ref="A1:BF25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U6" sqref="U6"/>
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2425,59 +2426,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" s="42" customFormat="1" ht="75" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70" t="s">
+      <c r="D1" s="69"/>
+      <c r="E1" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70" t="s">
+      <c r="G1" s="69"/>
+      <c r="H1" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="75" t="s">
+      <c r="J1" s="69"/>
+      <c r="K1" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="70" t="s">
+      <c r="L1" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="70"/>
-      <c r="N1" s="77" t="s">
+      <c r="M1" s="69"/>
+      <c r="N1" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="70" t="s">
+      <c r="O1" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="78" t="s">
+      <c r="P1" s="69"/>
+      <c r="Q1" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="70" t="s">
+      <c r="R1" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="43"/>
-      <c r="T1" s="47" t="s">
-        <v>64</v>
+      <c r="S1" s="69"/>
+      <c r="T1" s="87" t="s">
+        <v>86</v>
       </c>
       <c r="U1" s="40" t="s">
         <v>42</v>
       </c>
       <c r="V1" s="43"/>
-      <c r="W1" s="55" t="s">
+      <c r="W1" s="54" t="s">
         <v>49</v>
       </c>
       <c r="X1" s="40" t="s">
@@ -2487,109 +2488,109 @@
       <c r="Z1" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="AA1" s="58" t="s">
+      <c r="AA1" s="57" t="s">
         <v>42</v>
       </c>
       <c r="AB1" s="43"/>
       <c r="AC1" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" s="58" t="s">
+      <c r="AD1" s="57" t="s">
         <v>42</v>
       </c>
       <c r="AE1" s="43"/>
       <c r="AF1" s="84" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG1" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG1" s="57" t="s">
         <v>42</v>
       </c>
       <c r="AH1" s="43"/>
       <c r="AI1" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ1" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ1" s="57" t="s">
         <v>42</v>
       </c>
       <c r="AK1" s="43"/>
       <c r="AL1" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM1" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM1" s="57" t="s">
         <v>42</v>
       </c>
       <c r="AN1" s="43"/>
       <c r="AO1" s="84" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP1" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP1" s="57" t="s">
         <v>42</v>
       </c>
       <c r="AQ1" s="43"/>
       <c r="AR1" s="84" t="s">
-        <v>80</v>
-      </c>
-      <c r="AS1" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS1" s="57" t="s">
         <v>42</v>
       </c>
       <c r="AT1" s="43"/>
       <c r="AU1" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="AV1" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV1" s="57" t="s">
         <v>42</v>
       </c>
       <c r="AW1" s="43"/>
       <c r="AX1" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY1" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY1" s="57" t="s">
         <v>42</v>
       </c>
       <c r="AZ1" s="43"/>
       <c r="BA1" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB1" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC1" s="62"/>
+      <c r="BD1" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="BB1" s="58" t="s">
+      <c r="BE1" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="BC1" s="63"/>
-      <c r="BD1" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="BE1" s="58" t="s">
-        <v>42</v>
-      </c>
       <c r="BF1" s="43"/>
     </row>
     <row r="2" spans="1:58" s="45" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
       <c r="U2" s="44"/>
       <c r="V2" s="44"/>
-      <c r="W2" s="56"/>
+      <c r="W2" s="55"/>
       <c r="X2" s="44"/>
       <c r="Y2" s="44"/>
       <c r="Z2" s="44"/>
-      <c r="AA2" s="56"/>
+      <c r="AA2" s="55"/>
       <c r="AB2" s="44"/>
       <c r="AC2" s="44"/>
       <c r="AD2" s="44"/>
@@ -2623,713 +2624,715 @@
       <c r="BF2" s="44"/>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="71">
+      <c r="B3" s="70">
         <v>23027.41</v>
       </c>
-      <c r="C3" s="74">
+      <c r="C3" s="73">
         <v>5</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="73">
+      <c r="D3" s="73"/>
+      <c r="E3" s="72">
         <v>1.6</v>
       </c>
-      <c r="F3" s="74">
+      <c r="F3" s="73">
         <v>3</v>
       </c>
-      <c r="G3" s="74"/>
-      <c r="H3" s="73">
+      <c r="G3" s="73"/>
+      <c r="H3" s="72">
         <v>30.2</v>
       </c>
-      <c r="I3" s="74">
+      <c r="I3" s="73">
         <v>1</v>
       </c>
-      <c r="J3" s="74"/>
-      <c r="K3" s="76">
+      <c r="J3" s="73"/>
+      <c r="K3" s="75">
         <v>2800</v>
       </c>
-      <c r="L3" s="74">
+      <c r="L3" s="73">
         <v>5</v>
       </c>
-      <c r="M3" s="74"/>
-      <c r="N3" s="73">
+      <c r="M3" s="73"/>
+      <c r="N3" s="72">
         <v>12.55</v>
       </c>
-      <c r="O3" s="74">
+      <c r="O3" s="73">
         <v>1</v>
       </c>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="73">
+      <c r="P3" s="73"/>
+      <c r="Q3" s="72">
         <v>109.8</v>
       </c>
-      <c r="R3" s="74">
+      <c r="R3" s="73">
         <v>4</v>
       </c>
-      <c r="S3" s="56"/>
-      <c r="T3" s="57">
-        <v>313.54000000000002</v>
-      </c>
-      <c r="U3" s="81">
-        <v>2</v>
-      </c>
-      <c r="V3" s="56"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73">
+        <v>15</v>
+      </c>
+      <c r="U3" s="48">
+        <v>3</v>
+      </c>
+      <c r="V3" s="55"/>
       <c r="W3" s="85">
         <v>29.06</v>
       </c>
-      <c r="X3" s="56">
+      <c r="X3" s="48">
         <v>3</v>
       </c>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="66">
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="65">
         <v>96.93</v>
       </c>
-      <c r="AA3" s="64">
+      <c r="AA3" s="63">
         <v>5</v>
       </c>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="60" t="s">
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="AD3" s="56">
+      <c r="AD3" s="55">
         <v>4</v>
       </c>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="61" t="s">
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG3" s="55">
+        <v>4</v>
+      </c>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="55">
+        <v>35</v>
+      </c>
+      <c r="AJ3" s="55">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="55"/>
+      <c r="AL3" s="56">
+        <v>96.8</v>
+      </c>
+      <c r="AM3" s="55">
+        <v>4</v>
+      </c>
+      <c r="AN3" s="55"/>
+      <c r="AO3" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP3" s="55">
+        <v>5</v>
+      </c>
+      <c r="AQ3" s="55"/>
+      <c r="AR3" s="55">
+        <v>14</v>
+      </c>
+      <c r="AS3" s="55">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="55"/>
+      <c r="AU3" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="AV3" s="55">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="55"/>
+      <c r="AX3" s="55">
+        <v>44</v>
+      </c>
+      <c r="AY3" s="55">
+        <v>4</v>
+      </c>
+      <c r="AZ3" s="55"/>
+      <c r="BA3" s="55">
+        <v>45</v>
+      </c>
+      <c r="BB3" s="55">
+        <v>5</v>
+      </c>
+      <c r="BC3" s="55"/>
+      <c r="BD3" s="61">
+        <v>6.1</v>
+      </c>
+      <c r="BE3" s="55">
+        <v>4</v>
+      </c>
+      <c r="BF3" s="55"/>
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A4" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="70">
+        <v>10888.98</v>
+      </c>
+      <c r="C4" s="73">
+        <v>3</v>
+      </c>
+      <c r="D4" s="73"/>
+      <c r="E4" s="72">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F4" s="73">
+        <v>2</v>
+      </c>
+      <c r="G4" s="73"/>
+      <c r="H4" s="72">
+        <v>160</v>
+      </c>
+      <c r="I4" s="73">
+        <v>4</v>
+      </c>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73">
+        <v>764</v>
+      </c>
+      <c r="L4" s="73">
+        <v>1</v>
+      </c>
+      <c r="M4" s="73"/>
+      <c r="N4" s="72">
+        <v>19.309999999999999</v>
+      </c>
+      <c r="O4" s="73">
+        <v>4</v>
+      </c>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="72">
+        <v>98.13</v>
+      </c>
+      <c r="R4" s="73">
+        <v>1</v>
+      </c>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73">
+        <v>33</v>
+      </c>
+      <c r="U4" s="79">
+        <v>4</v>
+      </c>
+      <c r="V4" s="55"/>
+      <c r="W4" s="56">
+        <v>31.8</v>
+      </c>
+      <c r="X4" s="79">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="65">
+        <v>34.89</v>
+      </c>
+      <c r="AA4" s="63">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD4" s="55">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="AG3" s="56">
+      <c r="AG4" s="55">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="55">
+        <v>42</v>
+      </c>
+      <c r="AJ4" s="55">
+        <v>3</v>
+      </c>
+      <c r="AK4" s="55"/>
+      <c r="AL4" s="56">
+        <v>3</v>
+      </c>
+      <c r="AM4" s="55">
+        <v>5</v>
+      </c>
+      <c r="AN4" s="55"/>
+      <c r="AO4" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP4" s="55">
+        <v>2</v>
+      </c>
+      <c r="AQ4" s="55"/>
+      <c r="AR4" s="55">
+        <v>43</v>
+      </c>
+      <c r="AS4" s="55">
+        <v>5</v>
+      </c>
+      <c r="AT4" s="55"/>
+      <c r="AU4" s="55">
+        <v>7.02</v>
+      </c>
+      <c r="AV4" s="55">
+        <v>5</v>
+      </c>
+      <c r="AW4" s="55"/>
+      <c r="AX4" s="55">
+        <v>140</v>
+      </c>
+      <c r="AY4" s="55">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="55"/>
+      <c r="BA4" s="55">
+        <v>37</v>
+      </c>
+      <c r="BB4" s="55">
+        <v>3</v>
+      </c>
+      <c r="BC4" s="55"/>
+      <c r="BD4" s="56">
+        <v>5.5</v>
+      </c>
+      <c r="BE4" s="55">
+        <v>3</v>
+      </c>
+      <c r="BF4" s="44"/>
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A5" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="70">
+        <v>7524.51</v>
+      </c>
+      <c r="C5" s="73">
+        <v>2</v>
+      </c>
+      <c r="D5" s="73"/>
+      <c r="E5" s="72">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F5" s="73">
+        <v>2</v>
+      </c>
+      <c r="G5" s="73"/>
+      <c r="H5" s="72">
+        <v>108</v>
+      </c>
+      <c r="I5" s="73">
+        <v>3</v>
+      </c>
+      <c r="J5" s="73"/>
+      <c r="K5" s="75">
+        <v>1900</v>
+      </c>
+      <c r="L5" s="73">
+        <v>3</v>
+      </c>
+      <c r="M5" s="73"/>
+      <c r="N5" s="72">
+        <v>18.68</v>
+      </c>
+      <c r="O5" s="73">
+        <v>3</v>
+      </c>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="72">
+        <v>100.38</v>
+      </c>
+      <c r="R5" s="73">
+        <v>2</v>
+      </c>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73">
         <v>4</v>
-      </c>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56">
-        <v>35</v>
-      </c>
-      <c r="AJ3" s="56">
-        <v>2</v>
-      </c>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="57">
-        <v>96.8</v>
-      </c>
-      <c r="AM3" s="56">
-        <v>4</v>
-      </c>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP3" s="56">
-        <v>5</v>
-      </c>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="56">
-        <v>14</v>
-      </c>
-      <c r="AS3" s="56">
-        <v>1</v>
-      </c>
-      <c r="AT3" s="56"/>
-      <c r="AU3" s="56">
-        <v>0.01</v>
-      </c>
-      <c r="AV3" s="56">
-        <v>1</v>
-      </c>
-      <c r="AW3" s="56"/>
-      <c r="AX3" s="56">
-        <v>44</v>
-      </c>
-      <c r="AY3" s="56">
-        <v>4</v>
-      </c>
-      <c r="AZ3" s="56"/>
-      <c r="BA3" s="56">
-        <v>45</v>
-      </c>
-      <c r="BB3" s="56">
-        <v>5</v>
-      </c>
-      <c r="BC3" s="56"/>
-      <c r="BD3" s="62">
-        <v>6.1</v>
-      </c>
-      <c r="BE3" s="56">
-        <v>4</v>
-      </c>
-      <c r="BF3" s="56"/>
-    </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A4" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="71">
-        <v>10888.98</v>
-      </c>
-      <c r="C4" s="74">
-        <v>3</v>
-      </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="73">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F4" s="74">
-        <v>2</v>
-      </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="73">
-        <v>160</v>
-      </c>
-      <c r="I4" s="74">
-        <v>4</v>
-      </c>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74">
-        <v>764</v>
-      </c>
-      <c r="L4" s="74">
-        <v>1</v>
-      </c>
-      <c r="M4" s="74"/>
-      <c r="N4" s="73">
-        <v>19.309999999999999</v>
-      </c>
-      <c r="O4" s="74">
-        <v>4</v>
-      </c>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="73">
-        <v>98.13</v>
-      </c>
-      <c r="R4" s="74">
-        <v>1</v>
-      </c>
-      <c r="S4" s="56"/>
-      <c r="T4" s="57">
-        <v>6846</v>
-      </c>
-      <c r="U4" s="80">
-        <v>5</v>
-      </c>
-      <c r="V4" s="56"/>
-      <c r="W4" s="57">
-        <v>31.8</v>
-      </c>
-      <c r="X4" s="56">
-        <v>4</v>
-      </c>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="66">
-        <v>34.89</v>
-      </c>
-      <c r="AA4" s="64">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="56"/>
-      <c r="AC4" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD4" s="56">
-        <v>3</v>
-      </c>
-      <c r="AE4" s="56"/>
-      <c r="AF4" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG4" s="56">
-        <v>2</v>
-      </c>
-      <c r="AH4" s="56"/>
-      <c r="AI4" s="56">
-        <v>42</v>
-      </c>
-      <c r="AJ4" s="56">
-        <v>3</v>
-      </c>
-      <c r="AK4" s="56"/>
-      <c r="AL4" s="57">
-        <v>3</v>
-      </c>
-      <c r="AM4" s="56">
-        <v>5</v>
-      </c>
-      <c r="AN4" s="56"/>
-      <c r="AO4" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="AP4" s="56">
-        <v>2</v>
-      </c>
-      <c r="AQ4" s="56"/>
-      <c r="AR4" s="56">
-        <v>43</v>
-      </c>
-      <c r="AS4" s="56">
-        <v>5</v>
-      </c>
-      <c r="AT4" s="56"/>
-      <c r="AU4" s="56">
-        <v>7.02</v>
-      </c>
-      <c r="AV4" s="56">
-        <v>5</v>
-      </c>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56">
-        <v>140</v>
-      </c>
-      <c r="AY4" s="56">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56">
-        <v>37</v>
-      </c>
-      <c r="BB4" s="56">
-        <v>3</v>
-      </c>
-      <c r="BC4" s="56"/>
-      <c r="BD4" s="57">
-        <v>5.5</v>
-      </c>
-      <c r="BE4" s="56">
-        <v>3</v>
-      </c>
-      <c r="BF4" s="44"/>
-    </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="71">
-        <v>7524.51</v>
-      </c>
-      <c r="C5" s="74">
-        <v>2</v>
-      </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="73">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F5" s="74">
-        <v>2</v>
-      </c>
-      <c r="G5" s="74"/>
-      <c r="H5" s="73">
-        <v>108</v>
-      </c>
-      <c r="I5" s="74">
-        <v>3</v>
-      </c>
-      <c r="J5" s="74"/>
-      <c r="K5" s="76">
-        <v>1900</v>
-      </c>
-      <c r="L5" s="74">
-        <v>3</v>
-      </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="73">
-        <v>18.68</v>
-      </c>
-      <c r="O5" s="74">
-        <v>3</v>
-      </c>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="73">
-        <v>100.38</v>
-      </c>
-      <c r="R5" s="74">
-        <v>2</v>
-      </c>
-      <c r="S5" s="56"/>
-      <c r="T5" s="57">
-        <v>134.93</v>
       </c>
       <c r="U5" s="83">
         <v>1</v>
       </c>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56">
+      <c r="V5" s="55"/>
+      <c r="W5" s="55">
         <v>2373.1799999999998</v>
       </c>
-      <c r="X5" s="56">
+      <c r="X5" s="80">
         <v>5</v>
       </c>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="66">
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="65">
         <v>58.68</v>
       </c>
-      <c r="AA5" s="64">
+      <c r="AA5" s="63">
         <v>4</v>
       </c>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="60" t="s">
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="AD5" s="56">
+      <c r="AD5" s="55">
         <v>5</v>
       </c>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="61" t="s">
+      <c r="AE5" s="55"/>
+      <c r="AF5" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG5" s="55">
+        <v>5</v>
+      </c>
+      <c r="AH5" s="55"/>
+      <c r="AI5" s="55">
+        <v>50</v>
+      </c>
+      <c r="AJ5" s="55">
+        <v>4</v>
+      </c>
+      <c r="AK5" s="55"/>
+      <c r="AL5" s="56">
+        <v>158.24</v>
+      </c>
+      <c r="AM5" s="55">
+        <v>2</v>
+      </c>
+      <c r="AN5" s="55"/>
+      <c r="AO5" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP5" s="55">
+        <v>3</v>
+      </c>
+      <c r="AQ5" s="55"/>
+      <c r="AR5" s="55">
+        <v>17</v>
+      </c>
+      <c r="AS5" s="55">
+        <v>2</v>
+      </c>
+      <c r="AT5" s="55"/>
+      <c r="AU5" s="55">
+        <v>4.26</v>
+      </c>
+      <c r="AV5" s="55">
+        <v>3</v>
+      </c>
+      <c r="AW5" s="55"/>
+      <c r="AX5" s="55">
+        <v>134</v>
+      </c>
+      <c r="AY5" s="55">
+        <v>2</v>
+      </c>
+      <c r="AZ5" s="55"/>
+      <c r="BA5" s="55">
+        <v>43</v>
+      </c>
+      <c r="BB5" s="55">
+        <v>4</v>
+      </c>
+      <c r="BC5" s="55"/>
+      <c r="BD5" s="56">
+        <v>7.3</v>
+      </c>
+      <c r="BE5" s="55">
+        <v>5</v>
+      </c>
+      <c r="BF5" s="48"/>
+    </row>
+    <row r="6" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A6" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="70">
+        <v>11441</v>
+      </c>
+      <c r="C6" s="73">
+        <v>4</v>
+      </c>
+      <c r="D6" s="73"/>
+      <c r="E6" s="72">
+        <v>2.7</v>
+      </c>
+      <c r="F6" s="73">
+        <v>4</v>
+      </c>
+      <c r="G6" s="73"/>
+      <c r="H6" s="72">
+        <v>342</v>
+      </c>
+      <c r="I6" s="73">
+        <v>5</v>
+      </c>
+      <c r="J6" s="73"/>
+      <c r="K6" s="75">
+        <v>2360</v>
+      </c>
+      <c r="L6" s="73">
+        <v>4</v>
+      </c>
+      <c r="M6" s="73"/>
+      <c r="N6" s="72">
+        <v>21.39</v>
+      </c>
+      <c r="O6" s="73">
+        <v>5</v>
+      </c>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="72">
+        <v>104.73</v>
+      </c>
+      <c r="R6" s="73">
+        <v>3</v>
+      </c>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73">
+        <v>9</v>
+      </c>
+      <c r="U6" s="81">
+        <v>2</v>
+      </c>
+      <c r="V6" s="55"/>
+      <c r="W6" s="56">
+        <v>9.65</v>
+      </c>
+      <c r="X6" s="78">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="55"/>
+      <c r="Z6" s="65">
+        <v>44.94</v>
+      </c>
+      <c r="AA6" s="63">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="55"/>
+      <c r="AC6" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD6" s="55">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="55"/>
+      <c r="AF6" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="AG5" s="56">
+      <c r="AG6" s="55">
+        <v>3</v>
+      </c>
+      <c r="AH6" s="55"/>
+      <c r="AI6" s="55">
+        <v>53</v>
+      </c>
+      <c r="AJ6" s="55">
         <v>5</v>
       </c>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56">
-        <v>50</v>
-      </c>
-      <c r="AJ5" s="56">
+      <c r="AK6" s="55"/>
+      <c r="AL6" s="56">
+        <v>120.09</v>
+      </c>
+      <c r="AM6" s="55">
+        <v>3</v>
+      </c>
+      <c r="AN6" s="55"/>
+      <c r="AO6" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP6" s="55">
         <v>4</v>
       </c>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="57">
-        <v>158.24</v>
-      </c>
-      <c r="AM5" s="56">
+      <c r="AQ6" s="55"/>
+      <c r="AR6" s="55">
+        <v>27</v>
+      </c>
+      <c r="AS6" s="55">
+        <v>4</v>
+      </c>
+      <c r="AT6" s="55"/>
+      <c r="AU6" s="55">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="AV6" s="55">
+        <v>4</v>
+      </c>
+      <c r="AW6" s="55"/>
+      <c r="AX6" s="55">
+        <v>32</v>
+      </c>
+      <c r="AY6" s="55">
+        <v>5</v>
+      </c>
+      <c r="AZ6" s="55"/>
+      <c r="BA6" s="55">
+        <v>29</v>
+      </c>
+      <c r="BB6" s="55">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="55"/>
+      <c r="BD6" s="56">
+        <v>5</v>
+      </c>
+      <c r="BE6" s="55">
         <v>2</v>
       </c>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP5" s="56">
-        <v>3</v>
-      </c>
-      <c r="AQ5" s="56"/>
-      <c r="AR5" s="56">
-        <v>17</v>
-      </c>
-      <c r="AS5" s="56">
+      <c r="BF6" s="44"/>
+    </row>
+    <row r="7" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A7" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="70">
+        <v>2991.63</v>
+      </c>
+      <c r="C7" s="73">
+        <v>1</v>
+      </c>
+      <c r="D7" s="73"/>
+      <c r="E7" s="72">
+        <v>3.5</v>
+      </c>
+      <c r="F7" s="73">
+        <v>5</v>
+      </c>
+      <c r="G7" s="73"/>
+      <c r="H7" s="72">
+        <v>46.1</v>
+      </c>
+      <c r="I7" s="73">
         <v>2</v>
       </c>
-      <c r="AT5" s="56"/>
-      <c r="AU5" s="56">
-        <v>4.26</v>
-      </c>
-      <c r="AV5" s="56">
-        <v>3</v>
-      </c>
-      <c r="AW5" s="56"/>
-      <c r="AX5" s="56">
-        <v>134</v>
-      </c>
-      <c r="AY5" s="56">
+      <c r="J7" s="73"/>
+      <c r="K7" s="75">
+        <v>1020</v>
+      </c>
+      <c r="L7" s="73">
         <v>2</v>
       </c>
-      <c r="AZ5" s="56"/>
-      <c r="BA5" s="56">
-        <v>43</v>
-      </c>
-      <c r="BB5" s="56">
-        <v>4</v>
-      </c>
-      <c r="BC5" s="56"/>
-      <c r="BD5" s="57">
-        <v>7.3</v>
-      </c>
-      <c r="BE5" s="56">
+      <c r="M7" s="73"/>
+      <c r="N7" s="72">
+        <v>17.5</v>
+      </c>
+      <c r="O7" s="73">
+        <v>2</v>
+      </c>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="72">
+        <v>117</v>
+      </c>
+      <c r="R7" s="73">
         <v>5</v>
       </c>
-      <c r="BF5" s="49"/>
-    </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A6" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="71">
-        <v>11441</v>
-      </c>
-      <c r="C6" s="74">
-        <v>4</v>
-      </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="73">
-        <v>2.7</v>
-      </c>
-      <c r="F6" s="74">
-        <v>4</v>
-      </c>
-      <c r="G6" s="74"/>
-      <c r="H6" s="73">
-        <v>342</v>
-      </c>
-      <c r="I6" s="74">
+      <c r="S7" s="73"/>
+      <c r="T7" s="73">
+        <v>74</v>
+      </c>
+      <c r="U7" s="80">
         <v>5</v>
       </c>
-      <c r="J6" s="74"/>
-      <c r="K6" s="76">
-        <v>2360</v>
-      </c>
-      <c r="L6" s="74">
-        <v>4</v>
-      </c>
-      <c r="M6" s="74"/>
-      <c r="N6" s="73">
-        <v>21.39</v>
-      </c>
-      <c r="O6" s="74">
-        <v>5</v>
-      </c>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="73">
-        <v>104.73</v>
-      </c>
-      <c r="R6" s="74">
-        <v>3</v>
-      </c>
-      <c r="S6" s="56"/>
-      <c r="T6" s="57">
-        <v>1417</v>
-      </c>
-      <c r="U6" s="79">
-        <v>4</v>
-      </c>
-      <c r="V6" s="56"/>
-      <c r="W6" s="57">
-        <v>9.65</v>
-      </c>
-      <c r="X6" s="56">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="66">
-        <v>44.94</v>
-      </c>
-      <c r="AA6" s="64">
-        <v>3</v>
-      </c>
-      <c r="AB6" s="56"/>
-      <c r="AC6" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD6" s="56">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="56"/>
-      <c r="AF6" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG6" s="56">
-        <v>3</v>
-      </c>
-      <c r="AH6" s="56"/>
-      <c r="AI6" s="56">
-        <v>53</v>
-      </c>
-      <c r="AJ6" s="56">
-        <v>5</v>
-      </c>
-      <c r="AK6" s="56"/>
-      <c r="AL6" s="57">
-        <v>120.09</v>
-      </c>
-      <c r="AM6" s="56">
-        <v>3</v>
-      </c>
-      <c r="AN6" s="56"/>
-      <c r="AO6" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP6" s="56">
-        <v>4</v>
-      </c>
-      <c r="AQ6" s="56"/>
-      <c r="AR6" s="56">
-        <v>27</v>
-      </c>
-      <c r="AS6" s="56">
-        <v>4</v>
-      </c>
-      <c r="AT6" s="56"/>
-      <c r="AU6" s="56">
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="AV6" s="56">
-        <v>4</v>
-      </c>
-      <c r="AW6" s="56"/>
-      <c r="AX6" s="56">
-        <v>32</v>
-      </c>
-      <c r="AY6" s="56">
-        <v>5</v>
-      </c>
-      <c r="AZ6" s="56"/>
-      <c r="BA6" s="56">
-        <v>29</v>
-      </c>
-      <c r="BB6" s="56">
-        <v>1</v>
-      </c>
-      <c r="BC6" s="56"/>
-      <c r="BD6" s="57">
-        <v>5</v>
-      </c>
-      <c r="BE6" s="56">
-        <v>2</v>
-      </c>
-      <c r="BF6" s="44"/>
-    </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A7" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="71">
-        <v>2991.63</v>
-      </c>
-      <c r="C7" s="74">
-        <v>1</v>
-      </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="73">
-        <v>3.5</v>
-      </c>
-      <c r="F7" s="74">
-        <v>5</v>
-      </c>
-      <c r="G7" s="74"/>
-      <c r="H7" s="73">
-        <v>46.1</v>
-      </c>
-      <c r="I7" s="74">
-        <v>2</v>
-      </c>
-      <c r="J7" s="74"/>
-      <c r="K7" s="76">
-        <v>1020</v>
-      </c>
-      <c r="L7" s="74">
-        <v>2</v>
-      </c>
-      <c r="M7" s="74"/>
-      <c r="N7" s="73">
-        <v>17.5</v>
-      </c>
-      <c r="O7" s="74">
-        <v>2</v>
-      </c>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="73">
-        <v>117</v>
-      </c>
-      <c r="R7" s="74">
-        <v>5</v>
-      </c>
-      <c r="S7" s="56"/>
-      <c r="T7" s="57">
-        <v>833</v>
-      </c>
-      <c r="U7" s="49">
-        <v>3</v>
-      </c>
-      <c r="V7" s="56"/>
+      <c r="V7" s="55"/>
       <c r="W7" s="86">
         <v>19.8</v>
       </c>
-      <c r="X7" s="56">
+      <c r="X7" s="81">
         <v>2</v>
       </c>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="69">
+      <c r="Y7" s="55"/>
+      <c r="Z7" s="68">
         <v>42.13</v>
       </c>
       <c r="AA7" s="82">
         <v>2</v>
       </c>
-      <c r="AB7" s="56"/>
-      <c r="AC7" s="60" t="s">
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="AD7" s="56">
+      <c r="AD7" s="55">
         <v>2</v>
       </c>
-      <c r="AE7" s="56"/>
-      <c r="AF7" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG7" s="56">
+      <c r="AE7" s="55"/>
+      <c r="AF7" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG7" s="55">
         <v>1</v>
       </c>
-      <c r="AH7" s="56"/>
-      <c r="AI7" s="56">
+      <c r="AH7" s="55"/>
+      <c r="AI7" s="55">
         <v>21</v>
       </c>
-      <c r="AJ7" s="56">
+      <c r="AJ7" s="55">
         <v>1</v>
       </c>
-      <c r="AK7" s="56"/>
-      <c r="AL7" s="57">
+      <c r="AK7" s="55"/>
+      <c r="AL7" s="56">
         <v>295.74200000000002</v>
       </c>
-      <c r="AM7" s="56">
+      <c r="AM7" s="55">
         <v>1</v>
       </c>
-      <c r="AN7" s="56"/>
-      <c r="AO7" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP7" s="56">
+      <c r="AN7" s="55"/>
+      <c r="AO7" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP7" s="55">
         <v>3</v>
       </c>
-      <c r="AQ7" s="56"/>
-      <c r="AR7" s="56">
+      <c r="AQ7" s="55"/>
+      <c r="AR7" s="55">
         <v>18</v>
       </c>
-      <c r="AS7" s="56">
+      <c r="AS7" s="55">
         <v>3</v>
       </c>
-      <c r="AT7" s="56"/>
-      <c r="AU7" s="56">
+      <c r="AT7" s="55"/>
+      <c r="AU7" s="55">
         <v>1.65</v>
       </c>
-      <c r="AV7" s="56">
+      <c r="AV7" s="55">
         <v>2</v>
       </c>
-      <c r="AW7" s="56"/>
-      <c r="AX7" s="56">
+      <c r="AW7" s="55"/>
+      <c r="AX7" s="55">
         <v>56</v>
       </c>
-      <c r="AY7" s="56">
+      <c r="AY7" s="55">
         <v>3</v>
       </c>
-      <c r="AZ7" s="56"/>
-      <c r="BA7" s="56">
+      <c r="AZ7" s="55"/>
+      <c r="BA7" s="55">
         <v>32</v>
       </c>
-      <c r="BB7" s="56">
+      <c r="BB7" s="55">
         <v>2</v>
       </c>
-      <c r="BC7" s="56"/>
-      <c r="BD7" s="62">
+      <c r="BC7" s="55"/>
+      <c r="BD7" s="61">
         <v>4.2</v>
       </c>
-      <c r="BE7" s="56">
+      <c r="BE7" s="55">
         <v>1</v>
       </c>
-      <c r="BF7" s="56"/>
+      <c r="BF7" s="55"/>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
@@ -3339,15 +3342,15 @@
         <v>301</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="W9" s="54">
+        <v>64</v>
+      </c>
+      <c r="W9" s="53">
         <v>32621</v>
       </c>
       <c r="X9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Z9" s="48">
+      <c r="Z9" s="47">
         <v>1228554</v>
       </c>
       <c r="AA9" s="2" t="s">
@@ -3365,14 +3368,14 @@
       <c r="U10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="W10" s="54">
+      <c r="W10" s="53">
         <f>W9/A10</f>
         <v>2374.1630276564774</v>
       </c>
       <c r="X10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Z10" s="54">
+      <c r="Z10" s="53">
         <f>Z9/A16</f>
         <v>47252.076923076922</v>
       </c>
@@ -3381,13 +3384,13 @@
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="W11" s="50">
+      <c r="W11" s="49">
         <v>27.9</v>
       </c>
       <c r="X11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Z11" s="54">
+      <c r="Z11" s="53">
         <f>Z10/1000</f>
         <v>47.25207692307692</v>
       </c>
@@ -3403,9 +3406,9 @@
         <v>1854</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="W12" s="54">
+        <v>65</v>
+      </c>
+      <c r="W12" s="53">
         <f>W11/A13</f>
         <v>29.0625</v>
       </c>
@@ -3421,25 +3424,55 @@
         <f>T12/A10</f>
         <v>134.93449781659388</v>
       </c>
-      <c r="W13" s="54"/>
+      <c r="W13" s="53"/>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A15" s="42" t="s">
         <v>54</v>
       </c>
+      <c r="R15" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="T15" s="67">
+        <f>T21/1000/AC18*100</f>
+        <v>0.15438779630304406</v>
+      </c>
+      <c r="U15" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>26</v>
       </c>
+      <c r="R16" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="T16" s="67">
+        <f t="shared" ref="T16:T19" si="0">T22/1000/AC19*100</f>
+        <v>0.33330087633885103</v>
+      </c>
+      <c r="U16" s="2">
+        <v>33</v>
+      </c>
       <c r="AC16" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF16" s="41"/>
     </row>
     <row r="17" spans="14:32" x14ac:dyDescent="0.3">
+      <c r="R17" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="T17" s="67">
+        <f t="shared" si="0"/>
+        <v>3.8676076039349673E-2</v>
+      </c>
+      <c r="U17" s="2">
+        <v>4</v>
+      </c>
       <c r="AC17" s="43">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="18" spans="14:32" x14ac:dyDescent="0.3">
@@ -3447,99 +3480,155 @@
         <f>100-98.13</f>
         <v>1.8700000000000045</v>
       </c>
-      <c r="X18" s="51" t="s">
+      <c r="R18" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="T18" s="67">
+        <f t="shared" si="0"/>
+        <v>8.9797211660329529E-2</v>
+      </c>
+      <c r="U18" s="2">
+        <v>9</v>
+      </c>
+      <c r="X18" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="Z18" s="64">
+      <c r="Z18" s="63">
         <v>196.85</v>
       </c>
-      <c r="AA18" s="68">
+      <c r="AA18" s="67">
         <f>Z18/AC18*100</f>
         <v>96.929379671666183</v>
       </c>
-      <c r="AC18" s="67">
+      <c r="AC18" s="66">
         <v>203.08600000000001</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF18" s="68"/>
+        <v>85</v>
+      </c>
+      <c r="AF18" s="67"/>
     </row>
     <row r="19" spans="14:32" x14ac:dyDescent="0.3">
-      <c r="X19" s="51" t="s">
+      <c r="R19" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="T19" s="67">
+        <f t="shared" si="0"/>
+        <v>0.74272874797153909</v>
+      </c>
+      <c r="U19" s="2">
+        <v>74</v>
+      </c>
+      <c r="X19" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="Z19" s="64">
+      <c r="Z19" s="63">
         <v>716.64</v>
       </c>
-      <c r="AA19" s="68">
-        <f t="shared" ref="AA19:AA22" si="0">Z19/AC19*100</f>
+      <c r="AA19" s="67">
+        <f t="shared" ref="AA19:AA22" si="1">Z19/AC19*100</f>
         <v>34.889970788704964</v>
       </c>
-      <c r="AC19" s="67">
+      <c r="AC19" s="66">
         <v>2054</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF19" s="68"/>
+        <v>85</v>
+      </c>
+      <c r="AF19" s="67"/>
     </row>
     <row r="20" spans="14:32" x14ac:dyDescent="0.3">
-      <c r="X20" s="53" t="s">
+      <c r="X20" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="Z20" s="64">
+      <c r="Z20" s="63">
         <v>204.73</v>
       </c>
-      <c r="AA20" s="68">
-        <f t="shared" si="0"/>
+      <c r="AA20" s="67">
+        <f t="shared" si="1"/>
         <v>58.683413974179629</v>
       </c>
-      <c r="AC20" s="67">
+      <c r="AC20" s="66">
         <v>348.87200000000001</v>
       </c>
       <c r="AD20" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF20" s="68"/>
+        <v>85</v>
+      </c>
+      <c r="AF20" s="67"/>
     </row>
     <row r="21" spans="14:32" x14ac:dyDescent="0.3">
-      <c r="X21" s="51" t="s">
+      <c r="T21" s="56">
+        <v>313.54000000000002</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X21" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="Z21" s="64">
+      <c r="Z21" s="63">
         <v>709.22</v>
       </c>
-      <c r="AA21" s="68">
-        <f t="shared" si="0"/>
+      <c r="AA21" s="67">
+        <f t="shared" si="1"/>
         <v>44.944233206590624</v>
       </c>
-      <c r="AC21" s="67">
+      <c r="AC21" s="66">
         <v>1578</v>
       </c>
       <c r="AD21" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF21" s="68"/>
+        <v>85</v>
+      </c>
+      <c r="AF21" s="67"/>
     </row>
     <row r="22" spans="14:32" x14ac:dyDescent="0.3">
-      <c r="X22" s="51" t="s">
+      <c r="T22" s="56">
+        <v>6846</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X22" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="Z22" s="65">
+      <c r="Z22" s="64">
         <v>47.25</v>
       </c>
-      <c r="AA22" s="68">
-        <f t="shared" si="0"/>
+      <c r="AA22" s="67">
+        <f t="shared" si="1"/>
         <v>42.129571838721759</v>
       </c>
-      <c r="AC22" s="67">
+      <c r="AC22" s="66">
         <v>112.154</v>
       </c>
       <c r="AD22" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF22" s="68"/>
+        <v>85</v>
+      </c>
+      <c r="AF22" s="67"/>
+    </row>
+    <row r="23" spans="14:32" x14ac:dyDescent="0.3">
+      <c r="T23" s="56">
+        <v>134.93</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="14:32" x14ac:dyDescent="0.3">
+      <c r="T24" s="56">
+        <v>1417</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="14:32" x14ac:dyDescent="0.3">
+      <c r="T25" s="56">
+        <v>833</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Контрольные на 4-й семестр/МЭО/Контрольная работа/Лист Microsoft Excel.xlsx
+++ b/Контрольные на 4-й семестр/МЭО/Контрольная работа/Лист Microsoft Excel.xlsx
@@ -620,7 +620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -723,9 +723,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -776,14 +773,14 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2360,7 +2357,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W7" sqref="W7"/>
+      <selection pane="topRight" activeCell="V1" sqref="V1:V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2429,56 +2426,56 @@
       <c r="A1" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69" t="s">
+      <c r="D1" s="68"/>
+      <c r="E1" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69" t="s">
+      <c r="G1" s="68"/>
+      <c r="H1" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="69" t="s">
+      <c r="I1" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="69"/>
-      <c r="K1" s="74" t="s">
+      <c r="J1" s="68"/>
+      <c r="K1" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="69" t="s">
+      <c r="L1" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="69"/>
-      <c r="N1" s="76" t="s">
+      <c r="M1" s="68"/>
+      <c r="N1" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="69" t="s">
+      <c r="O1" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="77" t="s">
+      <c r="P1" s="68"/>
+      <c r="Q1" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="69" t="s">
+      <c r="R1" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="69"/>
-      <c r="T1" s="87" t="s">
+      <c r="S1" s="68"/>
+      <c r="T1" s="84" t="s">
         <v>86</v>
       </c>
       <c r="U1" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="43"/>
-      <c r="W1" s="54" t="s">
+      <c r="V1" s="68"/>
+      <c r="W1" s="75" t="s">
         <v>49</v>
       </c>
       <c r="X1" s="40" t="s">
@@ -2488,109 +2485,109 @@
       <c r="Z1" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="AA1" s="57" t="s">
+      <c r="AA1" s="56" t="s">
         <v>42</v>
       </c>
       <c r="AB1" s="43"/>
       <c r="AC1" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" s="57" t="s">
+      <c r="AD1" s="56" t="s">
         <v>42</v>
       </c>
       <c r="AE1" s="43"/>
-      <c r="AF1" s="84" t="s">
+      <c r="AF1" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="AG1" s="57" t="s">
+      <c r="AG1" s="56" t="s">
         <v>42</v>
       </c>
       <c r="AH1" s="43"/>
       <c r="AI1" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="AJ1" s="57" t="s">
+      <c r="AJ1" s="56" t="s">
         <v>42</v>
       </c>
       <c r="AK1" s="43"/>
       <c r="AL1" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="AM1" s="57" t="s">
+      <c r="AM1" s="56" t="s">
         <v>42</v>
       </c>
       <c r="AN1" s="43"/>
-      <c r="AO1" s="84" t="s">
+      <c r="AO1" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="AP1" s="57" t="s">
+      <c r="AP1" s="56" t="s">
         <v>42</v>
       </c>
       <c r="AQ1" s="43"/>
-      <c r="AR1" s="84" t="s">
+      <c r="AR1" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="AS1" s="57" t="s">
+      <c r="AS1" s="56" t="s">
         <v>42</v>
       </c>
       <c r="AT1" s="43"/>
       <c r="AU1" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="AV1" s="57" t="s">
+      <c r="AV1" s="56" t="s">
         <v>42</v>
       </c>
       <c r="AW1" s="43"/>
       <c r="AX1" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="57" t="s">
+      <c r="AY1" s="56" t="s">
         <v>42</v>
       </c>
       <c r="AZ1" s="43"/>
       <c r="BA1" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="BB1" s="57" t="s">
+      <c r="BB1" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="BC1" s="62"/>
-      <c r="BD1" s="58" t="s">
+      <c r="BC1" s="61"/>
+      <c r="BD1" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="BE1" s="57" t="s">
+      <c r="BE1" s="56" t="s">
         <v>42</v>
       </c>
       <c r="BF1" s="43"/>
     </row>
     <row r="2" spans="1:58" s="45" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
       <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="55"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
       <c r="X2" s="44"/>
       <c r="Y2" s="44"/>
       <c r="Z2" s="44"/>
-      <c r="AA2" s="55"/>
+      <c r="AA2" s="54"/>
       <c r="AB2" s="44"/>
       <c r="AC2" s="44"/>
       <c r="AD2" s="44"/>
@@ -2627,274 +2624,274 @@
       <c r="A3" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="70">
+      <c r="B3" s="69">
         <v>23027.41</v>
       </c>
-      <c r="C3" s="73">
+      <c r="C3" s="72">
         <v>5</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="72">
+      <c r="D3" s="72"/>
+      <c r="E3" s="71">
         <v>1.6</v>
       </c>
-      <c r="F3" s="73">
+      <c r="F3" s="72">
         <v>3</v>
       </c>
-      <c r="G3" s="73"/>
-      <c r="H3" s="72">
+      <c r="G3" s="72"/>
+      <c r="H3" s="71">
         <v>30.2</v>
       </c>
-      <c r="I3" s="73">
+      <c r="I3" s="72">
         <v>1</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="75">
+      <c r="J3" s="72"/>
+      <c r="K3" s="74">
         <v>2800</v>
       </c>
-      <c r="L3" s="73">
+      <c r="L3" s="72">
         <v>5</v>
       </c>
-      <c r="M3" s="73"/>
-      <c r="N3" s="72">
+      <c r="M3" s="72"/>
+      <c r="N3" s="71">
         <v>12.55</v>
       </c>
-      <c r="O3" s="73">
+      <c r="O3" s="72">
         <v>1</v>
       </c>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="72">
+      <c r="P3" s="72"/>
+      <c r="Q3" s="71">
         <v>109.8</v>
       </c>
-      <c r="R3" s="73">
+      <c r="R3" s="72">
         <v>4</v>
       </c>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73">
+      <c r="S3" s="72"/>
+      <c r="T3" s="72">
         <v>15</v>
       </c>
       <c r="U3" s="48">
         <v>3</v>
       </c>
-      <c r="V3" s="55"/>
+      <c r="V3" s="72"/>
       <c r="W3" s="85">
         <v>29.06</v>
       </c>
       <c r="X3" s="48">
         <v>3</v>
       </c>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="65">
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="64">
         <v>96.93</v>
       </c>
-      <c r="AA3" s="63">
+      <c r="AA3" s="62">
         <v>5</v>
       </c>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="59" t="s">
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="AD3" s="55">
+      <c r="AD3" s="54">
         <v>4</v>
       </c>
-      <c r="AE3" s="55"/>
-      <c r="AF3" s="60" t="s">
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="AG3" s="55">
+      <c r="AG3" s="54">
         <v>4</v>
       </c>
-      <c r="AH3" s="55"/>
-      <c r="AI3" s="55">
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54">
         <v>35</v>
       </c>
-      <c r="AJ3" s="55">
+      <c r="AJ3" s="54">
         <v>2</v>
       </c>
-      <c r="AK3" s="55"/>
-      <c r="AL3" s="56">
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="55">
         <v>96.8</v>
       </c>
-      <c r="AM3" s="55">
+      <c r="AM3" s="54">
         <v>4</v>
       </c>
-      <c r="AN3" s="55"/>
-      <c r="AO3" s="55" t="s">
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="AP3" s="55">
+      <c r="AP3" s="54">
         <v>5</v>
       </c>
-      <c r="AQ3" s="55"/>
-      <c r="AR3" s="55">
+      <c r="AQ3" s="54"/>
+      <c r="AR3" s="54">
         <v>14</v>
       </c>
-      <c r="AS3" s="55">
+      <c r="AS3" s="54">
         <v>1</v>
       </c>
-      <c r="AT3" s="55"/>
-      <c r="AU3" s="55">
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="54">
         <v>0.01</v>
       </c>
-      <c r="AV3" s="55">
+      <c r="AV3" s="54">
         <v>1</v>
       </c>
-      <c r="AW3" s="55"/>
-      <c r="AX3" s="55">
+      <c r="AW3" s="54"/>
+      <c r="AX3" s="54">
         <v>44</v>
       </c>
-      <c r="AY3" s="55">
+      <c r="AY3" s="54">
         <v>4</v>
       </c>
-      <c r="AZ3" s="55"/>
-      <c r="BA3" s="55">
+      <c r="AZ3" s="54"/>
+      <c r="BA3" s="54">
         <v>45</v>
       </c>
-      <c r="BB3" s="55">
+      <c r="BB3" s="54">
         <v>5</v>
       </c>
-      <c r="BC3" s="55"/>
-      <c r="BD3" s="61">
+      <c r="BC3" s="54"/>
+      <c r="BD3" s="60">
         <v>6.1</v>
       </c>
-      <c r="BE3" s="55">
+      <c r="BE3" s="54">
         <v>4</v>
       </c>
-      <c r="BF3" s="55"/>
+      <c r="BF3" s="54"/>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="70">
+      <c r="B4" s="69">
         <v>10888.98</v>
       </c>
-      <c r="C4" s="73">
+      <c r="C4" s="72">
         <v>3</v>
       </c>
-      <c r="D4" s="73"/>
-      <c r="E4" s="72">
+      <c r="D4" s="72"/>
+      <c r="E4" s="71">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F4" s="73">
+      <c r="F4" s="72">
         <v>2</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="72">
+      <c r="G4" s="72"/>
+      <c r="H4" s="71">
         <v>160</v>
       </c>
-      <c r="I4" s="73">
+      <c r="I4" s="72">
         <v>4</v>
       </c>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73">
+      <c r="J4" s="72"/>
+      <c r="K4" s="72">
         <v>764</v>
       </c>
-      <c r="L4" s="73">
+      <c r="L4" s="72">
         <v>1</v>
       </c>
-      <c r="M4" s="73"/>
-      <c r="N4" s="72">
+      <c r="M4" s="72"/>
+      <c r="N4" s="71">
         <v>19.309999999999999</v>
       </c>
-      <c r="O4" s="73">
+      <c r="O4" s="72">
         <v>4</v>
       </c>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="72">
+      <c r="P4" s="72"/>
+      <c r="Q4" s="71">
         <v>98.13</v>
       </c>
-      <c r="R4" s="73">
+      <c r="R4" s="72">
         <v>1</v>
       </c>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73">
+      <c r="S4" s="72"/>
+      <c r="T4" s="72">
         <v>33</v>
       </c>
-      <c r="U4" s="79">
+      <c r="U4" s="78">
         <v>4</v>
       </c>
-      <c r="V4" s="55"/>
-      <c r="W4" s="56">
+      <c r="V4" s="72"/>
+      <c r="W4" s="71">
         <v>31.8</v>
       </c>
-      <c r="X4" s="79">
+      <c r="X4" s="78">
         <v>4</v>
       </c>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="65">
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="64">
         <v>34.89</v>
       </c>
-      <c r="AA4" s="63">
+      <c r="AA4" s="62">
         <v>1</v>
       </c>
-      <c r="AB4" s="55"/>
-      <c r="AC4" s="59" t="s">
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="AD4" s="55">
+      <c r="AD4" s="54">
         <v>3</v>
       </c>
-      <c r="AE4" s="55"/>
-      <c r="AF4" s="60" t="s">
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="AG4" s="55">
+      <c r="AG4" s="54">
         <v>2</v>
       </c>
-      <c r="AH4" s="55"/>
-      <c r="AI4" s="55">
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54">
         <v>42</v>
       </c>
-      <c r="AJ4" s="55">
+      <c r="AJ4" s="54">
         <v>3</v>
       </c>
-      <c r="AK4" s="55"/>
-      <c r="AL4" s="56">
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="55">
         <v>3</v>
       </c>
-      <c r="AM4" s="55">
+      <c r="AM4" s="54">
         <v>5</v>
       </c>
-      <c r="AN4" s="55"/>
-      <c r="AO4" s="55" t="s">
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="AP4" s="55">
+      <c r="AP4" s="54">
         <v>2</v>
       </c>
-      <c r="AQ4" s="55"/>
-      <c r="AR4" s="55">
+      <c r="AQ4" s="54"/>
+      <c r="AR4" s="54">
         <v>43</v>
       </c>
-      <c r="AS4" s="55">
+      <c r="AS4" s="54">
         <v>5</v>
       </c>
-      <c r="AT4" s="55"/>
-      <c r="AU4" s="55">
+      <c r="AT4" s="54"/>
+      <c r="AU4" s="54">
         <v>7.02</v>
       </c>
-      <c r="AV4" s="55">
+      <c r="AV4" s="54">
         <v>5</v>
       </c>
-      <c r="AW4" s="55"/>
-      <c r="AX4" s="55">
+      <c r="AW4" s="54"/>
+      <c r="AX4" s="54">
         <v>140</v>
       </c>
-      <c r="AY4" s="55">
+      <c r="AY4" s="54">
         <v>1</v>
       </c>
-      <c r="AZ4" s="55"/>
-      <c r="BA4" s="55">
+      <c r="AZ4" s="54"/>
+      <c r="BA4" s="54">
         <v>37</v>
       </c>
-      <c r="BB4" s="55">
+      <c r="BB4" s="54">
         <v>3</v>
       </c>
-      <c r="BC4" s="55"/>
-      <c r="BD4" s="56">
+      <c r="BC4" s="54"/>
+      <c r="BD4" s="55">
         <v>5.5</v>
       </c>
-      <c r="BE4" s="55">
+      <c r="BE4" s="54">
         <v>3</v>
       </c>
       <c r="BF4" s="44"/>
@@ -2903,136 +2900,136 @@
       <c r="A5" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="70">
+      <c r="B5" s="69">
         <v>7524.51</v>
       </c>
-      <c r="C5" s="73">
+      <c r="C5" s="72">
         <v>2</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="72">
+      <c r="D5" s="72"/>
+      <c r="E5" s="71">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F5" s="73">
+      <c r="F5" s="72">
         <v>2</v>
       </c>
-      <c r="G5" s="73"/>
-      <c r="H5" s="72">
+      <c r="G5" s="72"/>
+      <c r="H5" s="71">
         <v>108</v>
       </c>
-      <c r="I5" s="73">
+      <c r="I5" s="72">
         <v>3</v>
       </c>
-      <c r="J5" s="73"/>
-      <c r="K5" s="75">
+      <c r="J5" s="72"/>
+      <c r="K5" s="74">
         <v>1900</v>
       </c>
-      <c r="L5" s="73">
+      <c r="L5" s="72">
         <v>3</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="72">
+      <c r="M5" s="72"/>
+      <c r="N5" s="71">
         <v>18.68</v>
       </c>
-      <c r="O5" s="73">
+      <c r="O5" s="72">
         <v>3</v>
       </c>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="72">
+      <c r="P5" s="72"/>
+      <c r="Q5" s="71">
         <v>100.38</v>
       </c>
-      <c r="R5" s="73">
+      <c r="R5" s="72">
         <v>2</v>
       </c>
-      <c r="S5" s="73"/>
-      <c r="T5" s="73">
+      <c r="S5" s="72"/>
+      <c r="T5" s="72">
         <v>4</v>
       </c>
-      <c r="U5" s="83">
+      <c r="U5" s="82">
         <v>1</v>
       </c>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55">
+      <c r="V5" s="72"/>
+      <c r="W5" s="72">
         <v>2373.1799999999998</v>
       </c>
-      <c r="X5" s="80">
+      <c r="X5" s="79">
         <v>5</v>
       </c>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="65">
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="64">
         <v>58.68</v>
       </c>
-      <c r="AA5" s="63">
+      <c r="AA5" s="62">
         <v>4</v>
       </c>
-      <c r="AB5" s="55"/>
-      <c r="AC5" s="59" t="s">
+      <c r="AB5" s="54"/>
+      <c r="AC5" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="AD5" s="55">
+      <c r="AD5" s="54">
         <v>5</v>
       </c>
-      <c r="AE5" s="55"/>
-      <c r="AF5" s="60" t="s">
+      <c r="AE5" s="54"/>
+      <c r="AF5" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="AG5" s="55">
+      <c r="AG5" s="54">
         <v>5</v>
       </c>
-      <c r="AH5" s="55"/>
-      <c r="AI5" s="55">
+      <c r="AH5" s="54"/>
+      <c r="AI5" s="54">
         <v>50</v>
       </c>
-      <c r="AJ5" s="55">
+      <c r="AJ5" s="54">
         <v>4</v>
       </c>
-      <c r="AK5" s="55"/>
-      <c r="AL5" s="56">
+      <c r="AK5" s="54"/>
+      <c r="AL5" s="55">
         <v>158.24</v>
       </c>
-      <c r="AM5" s="55">
+      <c r="AM5" s="54">
         <v>2</v>
       </c>
-      <c r="AN5" s="55"/>
-      <c r="AO5" s="55" t="s">
+      <c r="AN5" s="54"/>
+      <c r="AO5" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="AP5" s="55">
+      <c r="AP5" s="54">
         <v>3</v>
       </c>
-      <c r="AQ5" s="55"/>
-      <c r="AR5" s="55">
+      <c r="AQ5" s="54"/>
+      <c r="AR5" s="54">
         <v>17</v>
       </c>
-      <c r="AS5" s="55">
+      <c r="AS5" s="54">
         <v>2</v>
       </c>
-      <c r="AT5" s="55"/>
-      <c r="AU5" s="55">
+      <c r="AT5" s="54"/>
+      <c r="AU5" s="54">
         <v>4.26</v>
       </c>
-      <c r="AV5" s="55">
+      <c r="AV5" s="54">
         <v>3</v>
       </c>
-      <c r="AW5" s="55"/>
-      <c r="AX5" s="55">
+      <c r="AW5" s="54"/>
+      <c r="AX5" s="54">
         <v>134</v>
       </c>
-      <c r="AY5" s="55">
+      <c r="AY5" s="54">
         <v>2</v>
       </c>
-      <c r="AZ5" s="55"/>
-      <c r="BA5" s="55">
+      <c r="AZ5" s="54"/>
+      <c r="BA5" s="54">
         <v>43</v>
       </c>
-      <c r="BB5" s="55">
+      <c r="BB5" s="54">
         <v>4</v>
       </c>
-      <c r="BC5" s="55"/>
-      <c r="BD5" s="56">
+      <c r="BC5" s="54"/>
+      <c r="BD5" s="55">
         <v>7.3</v>
       </c>
-      <c r="BE5" s="55">
+      <c r="BE5" s="54">
         <v>5</v>
       </c>
       <c r="BF5" s="48"/>
@@ -3041,136 +3038,136 @@
       <c r="A6" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="70">
+      <c r="B6" s="69">
         <v>11441</v>
       </c>
-      <c r="C6" s="73">
+      <c r="C6" s="72">
         <v>4</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="72">
+      <c r="D6" s="72"/>
+      <c r="E6" s="71">
         <v>2.7</v>
       </c>
-      <c r="F6" s="73">
+      <c r="F6" s="72">
         <v>4</v>
       </c>
-      <c r="G6" s="73"/>
-      <c r="H6" s="72">
+      <c r="G6" s="72"/>
+      <c r="H6" s="71">
         <v>342</v>
       </c>
-      <c r="I6" s="73">
+      <c r="I6" s="72">
         <v>5</v>
       </c>
-      <c r="J6" s="73"/>
-      <c r="K6" s="75">
+      <c r="J6" s="72"/>
+      <c r="K6" s="74">
         <v>2360</v>
       </c>
-      <c r="L6" s="73">
+      <c r="L6" s="72">
         <v>4</v>
       </c>
-      <c r="M6" s="73"/>
-      <c r="N6" s="72">
+      <c r="M6" s="72"/>
+      <c r="N6" s="71">
         <v>21.39</v>
       </c>
-      <c r="O6" s="73">
+      <c r="O6" s="72">
         <v>5</v>
       </c>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="72">
+      <c r="P6" s="72"/>
+      <c r="Q6" s="71">
         <v>104.73</v>
       </c>
-      <c r="R6" s="73">
+      <c r="R6" s="72">
         <v>3</v>
       </c>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73">
+      <c r="S6" s="72"/>
+      <c r="T6" s="72">
         <v>9</v>
       </c>
-      <c r="U6" s="81">
+      <c r="U6" s="80">
         <v>2</v>
       </c>
-      <c r="V6" s="55"/>
-      <c r="W6" s="56">
+      <c r="V6" s="72"/>
+      <c r="W6" s="71">
         <v>9.65</v>
       </c>
-      <c r="X6" s="78">
+      <c r="X6" s="77">
         <v>1</v>
       </c>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="65">
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="64">
         <v>44.94</v>
       </c>
-      <c r="AA6" s="63">
+      <c r="AA6" s="62">
         <v>3</v>
       </c>
-      <c r="AB6" s="55"/>
-      <c r="AC6" s="59" t="s">
+      <c r="AB6" s="54"/>
+      <c r="AC6" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="AD6" s="55">
+      <c r="AD6" s="54">
         <v>1</v>
       </c>
-      <c r="AE6" s="55"/>
-      <c r="AF6" s="60" t="s">
+      <c r="AE6" s="54"/>
+      <c r="AF6" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="AG6" s="55">
+      <c r="AG6" s="54">
         <v>3</v>
       </c>
-      <c r="AH6" s="55"/>
-      <c r="AI6" s="55">
+      <c r="AH6" s="54"/>
+      <c r="AI6" s="54">
         <v>53</v>
       </c>
-      <c r="AJ6" s="55">
+      <c r="AJ6" s="54">
         <v>5</v>
       </c>
-      <c r="AK6" s="55"/>
-      <c r="AL6" s="56">
+      <c r="AK6" s="54"/>
+      <c r="AL6" s="55">
         <v>120.09</v>
       </c>
-      <c r="AM6" s="55">
+      <c r="AM6" s="54">
         <v>3</v>
       </c>
-      <c r="AN6" s="55"/>
-      <c r="AO6" s="55" t="s">
+      <c r="AN6" s="54"/>
+      <c r="AO6" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="AP6" s="55">
+      <c r="AP6" s="54">
         <v>4</v>
       </c>
-      <c r="AQ6" s="55"/>
-      <c r="AR6" s="55">
+      <c r="AQ6" s="54"/>
+      <c r="AR6" s="54">
         <v>27</v>
       </c>
-      <c r="AS6" s="55">
+      <c r="AS6" s="54">
         <v>4</v>
       </c>
-      <c r="AT6" s="55"/>
-      <c r="AU6" s="55">
+      <c r="AT6" s="54"/>
+      <c r="AU6" s="54">
         <v>4.5599999999999996</v>
       </c>
-      <c r="AV6" s="55">
+      <c r="AV6" s="54">
         <v>4</v>
       </c>
-      <c r="AW6" s="55"/>
-      <c r="AX6" s="55">
+      <c r="AW6" s="54"/>
+      <c r="AX6" s="54">
         <v>32</v>
       </c>
-      <c r="AY6" s="55">
+      <c r="AY6" s="54">
         <v>5</v>
       </c>
-      <c r="AZ6" s="55"/>
-      <c r="BA6" s="55">
+      <c r="AZ6" s="54"/>
+      <c r="BA6" s="54">
         <v>29</v>
       </c>
-      <c r="BB6" s="55">
+      <c r="BB6" s="54">
         <v>1</v>
       </c>
-      <c r="BC6" s="55"/>
-      <c r="BD6" s="56">
+      <c r="BC6" s="54"/>
+      <c r="BD6" s="55">
         <v>5</v>
       </c>
-      <c r="BE6" s="55">
+      <c r="BE6" s="54">
         <v>2</v>
       </c>
       <c r="BF6" s="44"/>
@@ -3179,160 +3176,160 @@
       <c r="A7" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="70">
+      <c r="B7" s="69">
         <v>2991.63</v>
       </c>
-      <c r="C7" s="73">
+      <c r="C7" s="72">
         <v>1</v>
       </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="72">
+      <c r="D7" s="72"/>
+      <c r="E7" s="71">
         <v>3.5</v>
       </c>
-      <c r="F7" s="73">
+      <c r="F7" s="72">
         <v>5</v>
       </c>
-      <c r="G7" s="73"/>
-      <c r="H7" s="72">
+      <c r="G7" s="72"/>
+      <c r="H7" s="71">
         <v>46.1</v>
       </c>
-      <c r="I7" s="73">
+      <c r="I7" s="72">
         <v>2</v>
       </c>
-      <c r="J7" s="73"/>
-      <c r="K7" s="75">
+      <c r="J7" s="72"/>
+      <c r="K7" s="74">
         <v>1020</v>
       </c>
-      <c r="L7" s="73">
+      <c r="L7" s="72">
         <v>2</v>
       </c>
-      <c r="M7" s="73"/>
-      <c r="N7" s="72">
+      <c r="M7" s="72"/>
+      <c r="N7" s="71">
         <v>17.5</v>
       </c>
-      <c r="O7" s="73">
+      <c r="O7" s="72">
         <v>2</v>
       </c>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="72">
+      <c r="P7" s="72"/>
+      <c r="Q7" s="71">
         <v>117</v>
       </c>
-      <c r="R7" s="73">
+      <c r="R7" s="72">
         <v>5</v>
       </c>
-      <c r="S7" s="73"/>
-      <c r="T7" s="73">
+      <c r="S7" s="72"/>
+      <c r="T7" s="72">
         <v>74</v>
       </c>
-      <c r="U7" s="80">
+      <c r="U7" s="79">
         <v>5</v>
       </c>
-      <c r="V7" s="55"/>
+      <c r="V7" s="72"/>
       <c r="W7" s="86">
         <v>19.8</v>
       </c>
-      <c r="X7" s="81">
+      <c r="X7" s="80">
         <v>2</v>
       </c>
-      <c r="Y7" s="55"/>
-      <c r="Z7" s="68">
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="67">
         <v>42.13</v>
       </c>
-      <c r="AA7" s="82">
+      <c r="AA7" s="81">
         <v>2</v>
       </c>
-      <c r="AB7" s="55"/>
-      <c r="AC7" s="59" t="s">
+      <c r="AB7" s="54"/>
+      <c r="AC7" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="AD7" s="55">
+      <c r="AD7" s="54">
         <v>2</v>
       </c>
-      <c r="AE7" s="55"/>
-      <c r="AF7" s="60" t="s">
+      <c r="AE7" s="54"/>
+      <c r="AF7" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="AG7" s="55">
+      <c r="AG7" s="54">
         <v>1</v>
       </c>
-      <c r="AH7" s="55"/>
-      <c r="AI7" s="55">
+      <c r="AH7" s="54"/>
+      <c r="AI7" s="54">
         <v>21</v>
       </c>
-      <c r="AJ7" s="55">
+      <c r="AJ7" s="54">
         <v>1</v>
       </c>
-      <c r="AK7" s="55"/>
-      <c r="AL7" s="56">
+      <c r="AK7" s="54"/>
+      <c r="AL7" s="55">
         <v>295.74200000000002</v>
       </c>
-      <c r="AM7" s="55">
+      <c r="AM7" s="54">
         <v>1</v>
       </c>
-      <c r="AN7" s="55"/>
-      <c r="AO7" s="55" t="s">
+      <c r="AN7" s="54"/>
+      <c r="AO7" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="AP7" s="55">
+      <c r="AP7" s="54">
         <v>3</v>
       </c>
-      <c r="AQ7" s="55"/>
-      <c r="AR7" s="55">
+      <c r="AQ7" s="54"/>
+      <c r="AR7" s="54">
         <v>18</v>
       </c>
-      <c r="AS7" s="55">
+      <c r="AS7" s="54">
         <v>3</v>
       </c>
-      <c r="AT7" s="55"/>
-      <c r="AU7" s="55">
+      <c r="AT7" s="54"/>
+      <c r="AU7" s="54">
         <v>1.65</v>
       </c>
-      <c r="AV7" s="55">
+      <c r="AV7" s="54">
         <v>2</v>
       </c>
-      <c r="AW7" s="55"/>
-      <c r="AX7" s="55">
+      <c r="AW7" s="54"/>
+      <c r="AX7" s="54">
         <v>56</v>
       </c>
-      <c r="AY7" s="55">
+      <c r="AY7" s="54">
         <v>3</v>
       </c>
-      <c r="AZ7" s="55"/>
-      <c r="BA7" s="55">
+      <c r="AZ7" s="54"/>
+      <c r="BA7" s="54">
         <v>32</v>
       </c>
-      <c r="BB7" s="55">
+      <c r="BB7" s="54">
         <v>2</v>
       </c>
-      <c r="BC7" s="55"/>
-      <c r="BD7" s="61">
+      <c r="BC7" s="54"/>
+      <c r="BD7" s="60">
         <v>4.2</v>
       </c>
-      <c r="BE7" s="55">
+      <c r="BE7" s="54">
         <v>1</v>
       </c>
-      <c r="BF7" s="55"/>
+      <c r="BF7" s="54"/>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
@@ -3433,7 +3430,7 @@
       <c r="R15" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="T15" s="67">
+      <c r="T15" s="66">
         <f>T21/1000/AC18*100</f>
         <v>0.15438779630304406</v>
       </c>
@@ -3448,7 +3445,7 @@
       <c r="R16" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="T16" s="67">
+      <c r="T16" s="66">
         <f t="shared" ref="T16:T19" si="0">T22/1000/AC19*100</f>
         <v>0.33330087633885103</v>
       </c>
@@ -3464,7 +3461,7 @@
       <c r="R17" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="T17" s="67">
+      <c r="T17" s="66">
         <f t="shared" si="0"/>
         <v>3.8676076039349673E-2</v>
       </c>
@@ -3483,7 +3480,7 @@
       <c r="R18" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="T18" s="67">
+      <c r="T18" s="66">
         <f t="shared" si="0"/>
         <v>8.9797211660329529E-2</v>
       </c>
@@ -3493,26 +3490,26 @@
       <c r="X18" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="Z18" s="63">
+      <c r="Z18" s="62">
         <v>196.85</v>
       </c>
-      <c r="AA18" s="67">
+      <c r="AA18" s="66">
         <f>Z18/AC18*100</f>
         <v>96.929379671666183</v>
       </c>
-      <c r="AC18" s="66">
+      <c r="AC18" s="65">
         <v>203.08600000000001</v>
       </c>
       <c r="AD18" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AF18" s="67"/>
+      <c r="AF18" s="66"/>
     </row>
     <row r="19" spans="14:32" x14ac:dyDescent="0.3">
       <c r="R19" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="T19" s="67">
+      <c r="T19" s="66">
         <f t="shared" si="0"/>
         <v>0.74272874797153909</v>
       </c>
@@ -3522,42 +3519,42 @@
       <c r="X19" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="Z19" s="63">
+      <c r="Z19" s="62">
         <v>716.64</v>
       </c>
-      <c r="AA19" s="67">
+      <c r="AA19" s="66">
         <f t="shared" ref="AA19:AA22" si="1">Z19/AC19*100</f>
         <v>34.889970788704964</v>
       </c>
-      <c r="AC19" s="66">
+      <c r="AC19" s="65">
         <v>2054</v>
       </c>
       <c r="AD19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AF19" s="67"/>
+      <c r="AF19" s="66"/>
     </row>
     <row r="20" spans="14:32" x14ac:dyDescent="0.3">
       <c r="X20" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="Z20" s="63">
+      <c r="Z20" s="62">
         <v>204.73</v>
       </c>
-      <c r="AA20" s="67">
+      <c r="AA20" s="66">
         <f t="shared" si="1"/>
         <v>58.683413974179629</v>
       </c>
-      <c r="AC20" s="66">
+      <c r="AC20" s="65">
         <v>348.87200000000001</v>
       </c>
       <c r="AD20" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AF20" s="67"/>
+      <c r="AF20" s="66"/>
     </row>
     <row r="21" spans="14:32" x14ac:dyDescent="0.3">
-      <c r="T21" s="56">
+      <c r="T21" s="55">
         <v>313.54000000000002</v>
       </c>
       <c r="U21" s="2" t="s">
@@ -3566,23 +3563,23 @@
       <c r="X21" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="Z21" s="63">
+      <c r="Z21" s="62">
         <v>709.22</v>
       </c>
-      <c r="AA21" s="67">
+      <c r="AA21" s="66">
         <f t="shared" si="1"/>
         <v>44.944233206590624</v>
       </c>
-      <c r="AC21" s="66">
+      <c r="AC21" s="65">
         <v>1578</v>
       </c>
       <c r="AD21" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AF21" s="67"/>
+      <c r="AF21" s="66"/>
     </row>
     <row r="22" spans="14:32" x14ac:dyDescent="0.3">
-      <c r="T22" s="56">
+      <c r="T22" s="55">
         <v>6846</v>
       </c>
       <c r="U22" s="2" t="s">
@@ -3591,23 +3588,23 @@
       <c r="X22" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="Z22" s="64">
+      <c r="Z22" s="63">
         <v>47.25</v>
       </c>
-      <c r="AA22" s="67">
+      <c r="AA22" s="66">
         <f t="shared" si="1"/>
         <v>42.129571838721759</v>
       </c>
-      <c r="AC22" s="66">
+      <c r="AC22" s="65">
         <v>112.154</v>
       </c>
       <c r="AD22" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AF22" s="67"/>
+      <c r="AF22" s="66"/>
     </row>
     <row r="23" spans="14:32" x14ac:dyDescent="0.3">
-      <c r="T23" s="56">
+      <c r="T23" s="55">
         <v>134.93</v>
       </c>
       <c r="U23" s="2" t="s">
@@ -3615,7 +3612,7 @@
       </c>
     </row>
     <row r="24" spans="14:32" x14ac:dyDescent="0.3">
-      <c r="T24" s="56">
+      <c r="T24" s="55">
         <v>1417</v>
       </c>
       <c r="U24" s="2" t="s">
@@ -3623,7 +3620,7 @@
       </c>
     </row>
     <row r="25" spans="14:32" x14ac:dyDescent="0.3">
-      <c r="T25" s="56">
+      <c r="T25" s="55">
         <v>833</v>
       </c>
       <c r="U25" s="2" t="s">

--- a/Контрольные на 4-й семестр/МЭО/Контрольная работа/Лист Microsoft Excel.xlsx
+++ b/Контрольные на 4-й семестр/МЭО/Контрольная работа/Лист Microsoft Excel.xlsx
@@ -170,9 +170,6 @@
     <t>Прямые иностранные инвестиции на душу населения</t>
   </si>
   <si>
-    <t xml:space="preserve">Денежная масса и квазиденьги $ млрд </t>
-  </si>
-  <si>
     <t xml:space="preserve"> EUR</t>
   </si>
   <si>
@@ -279,6 +276,9 @@
   </si>
   <si>
     <t>Прямые иностранные инвестиции,%</t>
+  </si>
+  <si>
+    <t>Денежная масса и квазиденьги %</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -515,6 +515,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -741,12 +747,10 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -768,7 +772,6 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -782,6 +785,15 @@
     <xf numFmtId="2" fontId="18" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2356,8 +2368,8 @@
   <dimension ref="A1:BF25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V1" sqref="V1:V7"/>
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z1" sqref="Z1:Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2426,134 +2438,134 @@
       <c r="A1" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68" t="s">
+      <c r="D1" s="66"/>
+      <c r="E1" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68" t="s">
+      <c r="G1" s="66"/>
+      <c r="H1" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="68"/>
-      <c r="K1" s="73" t="s">
+      <c r="J1" s="66"/>
+      <c r="K1" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="L1" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="68"/>
-      <c r="N1" s="75" t="s">
+      <c r="M1" s="66"/>
+      <c r="N1" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="68" t="s">
+      <c r="O1" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="76" t="s">
+      <c r="P1" s="66"/>
+      <c r="Q1" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="68" t="s">
+      <c r="R1" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="68"/>
-      <c r="T1" s="84" t="s">
-        <v>86</v>
+      <c r="S1" s="66"/>
+      <c r="T1" s="81" t="s">
+        <v>85</v>
       </c>
       <c r="U1" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="68"/>
-      <c r="W1" s="75" t="s">
+      <c r="V1" s="66"/>
+      <c r="W1" s="73" t="s">
         <v>49</v>
       </c>
       <c r="X1" s="40" t="s">
         <v>42</v>
       </c>
       <c r="Y1" s="43"/>
-      <c r="Z1" s="46" t="s">
-        <v>50</v>
+      <c r="Z1" s="88" t="s">
+        <v>86</v>
       </c>
       <c r="AA1" s="56" t="s">
         <v>42</v>
       </c>
       <c r="AB1" s="43"/>
       <c r="AC1" s="46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD1" s="56" t="s">
         <v>42</v>
       </c>
       <c r="AE1" s="43"/>
-      <c r="AF1" s="83" t="s">
-        <v>66</v>
+      <c r="AF1" s="80" t="s">
+        <v>65</v>
       </c>
       <c r="AG1" s="56" t="s">
         <v>42</v>
       </c>
       <c r="AH1" s="43"/>
       <c r="AI1" s="46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ1" s="56" t="s">
         <v>42</v>
       </c>
       <c r="AK1" s="43"/>
       <c r="AL1" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AM1" s="56" t="s">
         <v>42</v>
       </c>
       <c r="AN1" s="43"/>
-      <c r="AO1" s="83" t="s">
-        <v>74</v>
+      <c r="AO1" s="80" t="s">
+        <v>73</v>
       </c>
       <c r="AP1" s="56" t="s">
         <v>42</v>
       </c>
       <c r="AQ1" s="43"/>
-      <c r="AR1" s="83" t="s">
-        <v>79</v>
+      <c r="AR1" s="80" t="s">
+        <v>78</v>
       </c>
       <c r="AS1" s="56" t="s">
         <v>42</v>
       </c>
       <c r="AT1" s="43"/>
       <c r="AU1" s="46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AV1" s="56" t="s">
         <v>42</v>
       </c>
       <c r="AW1" s="43"/>
       <c r="AX1" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AY1" s="56" t="s">
         <v>42</v>
       </c>
       <c r="AZ1" s="43"/>
       <c r="BA1" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB1" s="56" t="s">
         <v>42</v>
       </c>
       <c r="BC1" s="61"/>
       <c r="BD1" s="57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BE1" s="56" t="s">
         <v>42</v>
@@ -2562,31 +2574,31 @@
     </row>
     <row r="2" spans="1:58" s="45" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
       <c r="U2" s="44"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
       <c r="X2" s="44"/>
       <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
+      <c r="Z2" s="89"/>
       <c r="AA2" s="54"/>
       <c r="AB2" s="44"/>
       <c r="AC2" s="44"/>
@@ -2624,78 +2636,78 @@
       <c r="A3" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="69">
+      <c r="B3" s="67">
         <v>23027.41</v>
       </c>
-      <c r="C3" s="72">
+      <c r="C3" s="70">
         <v>5</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="71">
+      <c r="D3" s="70"/>
+      <c r="E3" s="69">
         <v>1.6</v>
       </c>
-      <c r="F3" s="72">
+      <c r="F3" s="70">
         <v>3</v>
       </c>
-      <c r="G3" s="72"/>
-      <c r="H3" s="71">
+      <c r="G3" s="70"/>
+      <c r="H3" s="69">
         <v>30.2</v>
       </c>
-      <c r="I3" s="72">
+      <c r="I3" s="70">
         <v>1</v>
       </c>
-      <c r="J3" s="72"/>
-      <c r="K3" s="74">
+      <c r="J3" s="70"/>
+      <c r="K3" s="72">
         <v>2800</v>
       </c>
-      <c r="L3" s="72">
+      <c r="L3" s="70">
         <v>5</v>
       </c>
-      <c r="M3" s="72"/>
-      <c r="N3" s="71">
+      <c r="M3" s="70"/>
+      <c r="N3" s="69">
         <v>12.55</v>
       </c>
-      <c r="O3" s="72">
+      <c r="O3" s="70">
         <v>1</v>
       </c>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="71">
+      <c r="P3" s="70"/>
+      <c r="Q3" s="69">
         <v>109.8</v>
       </c>
-      <c r="R3" s="72">
+      <c r="R3" s="70">
         <v>4</v>
       </c>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72">
+      <c r="S3" s="70"/>
+      <c r="T3" s="70">
         <v>15</v>
       </c>
       <c r="U3" s="48">
         <v>3</v>
       </c>
-      <c r="V3" s="72"/>
-      <c r="W3" s="85">
+      <c r="V3" s="70"/>
+      <c r="W3" s="82">
         <v>29.06</v>
       </c>
       <c r="X3" s="48">
         <v>3</v>
       </c>
       <c r="Y3" s="54"/>
-      <c r="Z3" s="64">
+      <c r="Z3" s="90">
         <v>96.93</v>
       </c>
-      <c r="AA3" s="62">
+      <c r="AA3" s="86">
         <v>5</v>
       </c>
       <c r="AB3" s="54"/>
       <c r="AC3" s="58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD3" s="54">
         <v>4</v>
       </c>
       <c r="AE3" s="54"/>
       <c r="AF3" s="59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AG3" s="54">
         <v>4</v>
@@ -2716,7 +2728,7 @@
       </c>
       <c r="AN3" s="54"/>
       <c r="AO3" s="54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AP3" s="54">
         <v>5</v>
@@ -2762,78 +2774,78 @@
       <c r="A4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="69">
+      <c r="B4" s="67">
         <v>10888.98</v>
       </c>
-      <c r="C4" s="72">
+      <c r="C4" s="70">
         <v>3</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="71">
+      <c r="D4" s="70"/>
+      <c r="E4" s="69">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F4" s="72">
+      <c r="F4" s="70">
         <v>2</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="71">
+      <c r="G4" s="70"/>
+      <c r="H4" s="69">
         <v>160</v>
       </c>
-      <c r="I4" s="72">
+      <c r="I4" s="70">
         <v>4</v>
       </c>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72">
+      <c r="J4" s="70"/>
+      <c r="K4" s="70">
         <v>764</v>
       </c>
-      <c r="L4" s="72">
+      <c r="L4" s="70">
         <v>1</v>
       </c>
-      <c r="M4" s="72"/>
-      <c r="N4" s="71">
+      <c r="M4" s="70"/>
+      <c r="N4" s="69">
         <v>19.309999999999999</v>
       </c>
-      <c r="O4" s="72">
+      <c r="O4" s="70">
         <v>4</v>
       </c>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="71">
+      <c r="P4" s="70"/>
+      <c r="Q4" s="69">
         <v>98.13</v>
       </c>
-      <c r="R4" s="72">
+      <c r="R4" s="70">
         <v>1</v>
       </c>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72">
+      <c r="S4" s="70"/>
+      <c r="T4" s="70">
         <v>33</v>
       </c>
-      <c r="U4" s="78">
+      <c r="U4" s="76">
         <v>4</v>
       </c>
-      <c r="V4" s="72"/>
-      <c r="W4" s="71">
+      <c r="V4" s="70"/>
+      <c r="W4" s="69">
         <v>31.8</v>
       </c>
-      <c r="X4" s="78">
+      <c r="X4" s="76">
         <v>4</v>
       </c>
       <c r="Y4" s="54"/>
-      <c r="Z4" s="64">
+      <c r="Z4" s="90">
         <v>34.89</v>
       </c>
-      <c r="AA4" s="62">
+      <c r="AA4" s="79">
         <v>1</v>
       </c>
       <c r="AB4" s="54"/>
       <c r="AC4" s="58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AD4" s="54">
         <v>3</v>
       </c>
       <c r="AE4" s="54"/>
       <c r="AF4" s="59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AG4" s="54">
         <v>2</v>
@@ -2854,7 +2866,7 @@
       </c>
       <c r="AN4" s="54"/>
       <c r="AO4" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AP4" s="54">
         <v>2</v>
@@ -2900,78 +2912,78 @@
       <c r="A5" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="69">
+      <c r="B5" s="67">
         <v>7524.51</v>
       </c>
-      <c r="C5" s="72">
+      <c r="C5" s="70">
         <v>2</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="71">
+      <c r="D5" s="70"/>
+      <c r="E5" s="69">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F5" s="72">
+      <c r="F5" s="70">
         <v>2</v>
       </c>
-      <c r="G5" s="72"/>
-      <c r="H5" s="71">
+      <c r="G5" s="70"/>
+      <c r="H5" s="69">
         <v>108</v>
       </c>
-      <c r="I5" s="72">
+      <c r="I5" s="70">
         <v>3</v>
       </c>
-      <c r="J5" s="72"/>
-      <c r="K5" s="74">
+      <c r="J5" s="70"/>
+      <c r="K5" s="72">
         <v>1900</v>
       </c>
-      <c r="L5" s="72">
+      <c r="L5" s="70">
         <v>3</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="71">
+      <c r="M5" s="70"/>
+      <c r="N5" s="69">
         <v>18.68</v>
       </c>
-      <c r="O5" s="72">
+      <c r="O5" s="70">
         <v>3</v>
       </c>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="71">
+      <c r="P5" s="70"/>
+      <c r="Q5" s="69">
         <v>100.38</v>
       </c>
-      <c r="R5" s="72">
+      <c r="R5" s="70">
         <v>2</v>
       </c>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72">
+      <c r="S5" s="70"/>
+      <c r="T5" s="70">
         <v>4</v>
       </c>
-      <c r="U5" s="82">
+      <c r="U5" s="79">
         <v>1</v>
       </c>
-      <c r="V5" s="72"/>
-      <c r="W5" s="72">
+      <c r="V5" s="70"/>
+      <c r="W5" s="70">
         <v>2373.1799999999998</v>
       </c>
-      <c r="X5" s="79">
+      <c r="X5" s="77">
         <v>5</v>
       </c>
       <c r="Y5" s="54"/>
-      <c r="Z5" s="64">
+      <c r="Z5" s="90">
         <v>58.68</v>
       </c>
-      <c r="AA5" s="62">
+      <c r="AA5" s="85">
         <v>4</v>
       </c>
       <c r="AB5" s="54"/>
       <c r="AC5" s="58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AD5" s="54">
         <v>5</v>
       </c>
       <c r="AE5" s="54"/>
       <c r="AF5" s="59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AG5" s="54">
         <v>5</v>
@@ -2992,7 +3004,7 @@
       </c>
       <c r="AN5" s="54"/>
       <c r="AO5" s="54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AP5" s="54">
         <v>3</v>
@@ -3038,78 +3050,78 @@
       <c r="A6" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="69">
+      <c r="B6" s="67">
         <v>11441</v>
       </c>
-      <c r="C6" s="72">
+      <c r="C6" s="70">
         <v>4</v>
       </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="71">
+      <c r="D6" s="70"/>
+      <c r="E6" s="69">
         <v>2.7</v>
       </c>
-      <c r="F6" s="72">
+      <c r="F6" s="70">
         <v>4</v>
       </c>
-      <c r="G6" s="72"/>
-      <c r="H6" s="71">
+      <c r="G6" s="70"/>
+      <c r="H6" s="69">
         <v>342</v>
       </c>
-      <c r="I6" s="72">
+      <c r="I6" s="70">
         <v>5</v>
       </c>
-      <c r="J6" s="72"/>
-      <c r="K6" s="74">
+      <c r="J6" s="70"/>
+      <c r="K6" s="72">
         <v>2360</v>
       </c>
-      <c r="L6" s="72">
+      <c r="L6" s="70">
         <v>4</v>
       </c>
-      <c r="M6" s="72"/>
-      <c r="N6" s="71">
+      <c r="M6" s="70"/>
+      <c r="N6" s="69">
         <v>21.39</v>
       </c>
-      <c r="O6" s="72">
+      <c r="O6" s="70">
         <v>5</v>
       </c>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="71">
+      <c r="P6" s="70"/>
+      <c r="Q6" s="69">
         <v>104.73</v>
       </c>
-      <c r="R6" s="72">
+      <c r="R6" s="70">
         <v>3</v>
       </c>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72">
+      <c r="S6" s="70"/>
+      <c r="T6" s="70">
         <v>9</v>
       </c>
-      <c r="U6" s="80">
+      <c r="U6" s="78">
         <v>2</v>
       </c>
-      <c r="V6" s="72"/>
-      <c r="W6" s="71">
+      <c r="V6" s="70"/>
+      <c r="W6" s="69">
         <v>9.65</v>
       </c>
-      <c r="X6" s="77">
+      <c r="X6" s="75">
         <v>1</v>
       </c>
       <c r="Y6" s="54"/>
-      <c r="Z6" s="64">
+      <c r="Z6" s="90">
         <v>44.94</v>
       </c>
-      <c r="AA6" s="62">
+      <c r="AA6" s="84">
         <v>3</v>
       </c>
       <c r="AB6" s="54"/>
       <c r="AC6" s="58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD6" s="54">
         <v>1</v>
       </c>
       <c r="AE6" s="54"/>
       <c r="AF6" s="59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AG6" s="54">
         <v>3</v>
@@ -3130,7 +3142,7 @@
       </c>
       <c r="AN6" s="54"/>
       <c r="AO6" s="54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AP6" s="54">
         <v>4</v>
@@ -3176,78 +3188,78 @@
       <c r="A7" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="69">
+      <c r="B7" s="67">
         <v>2991.63</v>
       </c>
-      <c r="C7" s="72">
+      <c r="C7" s="70">
         <v>1</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="71">
+      <c r="D7" s="70"/>
+      <c r="E7" s="69">
         <v>3.5</v>
       </c>
-      <c r="F7" s="72">
+      <c r="F7" s="70">
         <v>5</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="71">
+      <c r="G7" s="70"/>
+      <c r="H7" s="69">
         <v>46.1</v>
       </c>
-      <c r="I7" s="72">
+      <c r="I7" s="70">
         <v>2</v>
       </c>
-      <c r="J7" s="72"/>
-      <c r="K7" s="74">
+      <c r="J7" s="70"/>
+      <c r="K7" s="72">
         <v>1020</v>
       </c>
-      <c r="L7" s="72">
+      <c r="L7" s="70">
         <v>2</v>
       </c>
-      <c r="M7" s="72"/>
-      <c r="N7" s="71">
+      <c r="M7" s="70"/>
+      <c r="N7" s="69">
         <v>17.5</v>
       </c>
-      <c r="O7" s="72">
+      <c r="O7" s="70">
         <v>2</v>
       </c>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="71">
+      <c r="P7" s="70"/>
+      <c r="Q7" s="69">
         <v>117</v>
       </c>
-      <c r="R7" s="72">
+      <c r="R7" s="70">
         <v>5</v>
       </c>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72">
+      <c r="S7" s="70"/>
+      <c r="T7" s="70">
         <v>74</v>
       </c>
-      <c r="U7" s="79">
+      <c r="U7" s="77">
         <v>5</v>
       </c>
-      <c r="V7" s="72"/>
-      <c r="W7" s="86">
+      <c r="V7" s="70"/>
+      <c r="W7" s="83">
         <v>19.8</v>
       </c>
-      <c r="X7" s="80">
+      <c r="X7" s="78">
         <v>2</v>
       </c>
       <c r="Y7" s="54"/>
-      <c r="Z7" s="67">
+      <c r="Z7" s="90">
         <v>42.13</v>
       </c>
-      <c r="AA7" s="81">
+      <c r="AA7" s="87">
         <v>2</v>
       </c>
       <c r="AB7" s="54"/>
       <c r="AC7" s="58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD7" s="54">
         <v>2</v>
       </c>
       <c r="AE7" s="54"/>
       <c r="AF7" s="59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AG7" s="54">
         <v>1</v>
@@ -3268,7 +3280,7 @@
       </c>
       <c r="AN7" s="54"/>
       <c r="AO7" s="54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AP7" s="54">
         <v>3</v>
@@ -3311,35 +3323,35 @@
       <c r="BF7" s="54"/>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="70"/>
-      <c r="S8" s="70"/>
-      <c r="T8" s="70"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="68"/>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T9" s="15">
         <v>301</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W9" s="53">
         <v>32621</v>
@@ -3351,7 +3363,7 @@
         <v>1228554</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.3">
@@ -3363,7 +3375,7 @@
         <v>313.54166666666669</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W10" s="53">
         <f>W9/A10</f>
@@ -3377,7 +3389,7 @@
         <v>47252.076923076922</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.3">
@@ -3385,25 +3397,25 @@
         <v>27.9</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Z11" s="53">
         <f>Z10/1000</f>
         <v>47.25207692307692</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A12" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T12" s="15">
         <v>1854</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W12" s="53">
         <f>W11/A13</f>
@@ -3425,12 +3437,12 @@
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A15" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R15" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="T15" s="66">
+      <c r="T15" s="65">
         <f>T21/1000/AC18*100</f>
         <v>0.15438779630304406</v>
       </c>
@@ -3445,7 +3457,7 @@
       <c r="R16" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="T16" s="66">
+      <c r="T16" s="65">
         <f t="shared" ref="T16:T19" si="0">T22/1000/AC19*100</f>
         <v>0.33330087633885103</v>
       </c>
@@ -3453,7 +3465,7 @@
         <v>33</v>
       </c>
       <c r="AC16" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AF16" s="41"/>
     </row>
@@ -3461,7 +3473,7 @@
       <c r="R17" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="T17" s="66">
+      <c r="T17" s="65">
         <f t="shared" si="0"/>
         <v>3.8676076039349673E-2</v>
       </c>
@@ -3480,7 +3492,7 @@
       <c r="R18" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="T18" s="66">
+      <c r="T18" s="65">
         <f t="shared" si="0"/>
         <v>8.9797211660329529E-2</v>
       </c>
@@ -3493,23 +3505,23 @@
       <c r="Z18" s="62">
         <v>196.85</v>
       </c>
-      <c r="AA18" s="66">
+      <c r="AA18" s="65">
         <f>Z18/AC18*100</f>
         <v>96.929379671666183</v>
       </c>
-      <c r="AC18" s="65">
+      <c r="AC18" s="64">
         <v>203.08600000000001</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF18" s="66"/>
+        <v>84</v>
+      </c>
+      <c r="AF18" s="65"/>
     </row>
     <row r="19" spans="14:32" x14ac:dyDescent="0.3">
       <c r="R19" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="T19" s="66">
+      <c r="T19" s="65">
         <f t="shared" si="0"/>
         <v>0.74272874797153909</v>
       </c>
@@ -3522,17 +3534,17 @@
       <c r="Z19" s="62">
         <v>716.64</v>
       </c>
-      <c r="AA19" s="66">
+      <c r="AA19" s="65">
         <f t="shared" ref="AA19:AA22" si="1">Z19/AC19*100</f>
         <v>34.889970788704964</v>
       </c>
-      <c r="AC19" s="65">
+      <c r="AC19" s="64">
         <v>2054</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF19" s="66"/>
+        <v>84</v>
+      </c>
+      <c r="AF19" s="65"/>
     </row>
     <row r="20" spans="14:32" x14ac:dyDescent="0.3">
       <c r="X20" s="52" t="s">
@@ -3541,24 +3553,24 @@
       <c r="Z20" s="62">
         <v>204.73</v>
       </c>
-      <c r="AA20" s="66">
+      <c r="AA20" s="65">
         <f t="shared" si="1"/>
         <v>58.683413974179629</v>
       </c>
-      <c r="AC20" s="65">
+      <c r="AC20" s="64">
         <v>348.87200000000001</v>
       </c>
       <c r="AD20" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF20" s="66"/>
+        <v>84</v>
+      </c>
+      <c r="AF20" s="65"/>
     </row>
     <row r="21" spans="14:32" x14ac:dyDescent="0.3">
       <c r="T21" s="55">
         <v>313.54000000000002</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X21" s="50" t="s">
         <v>40</v>
@@ -3566,24 +3578,24 @@
       <c r="Z21" s="62">
         <v>709.22</v>
       </c>
-      <c r="AA21" s="66">
+      <c r="AA21" s="65">
         <f t="shared" si="1"/>
         <v>44.944233206590624</v>
       </c>
-      <c r="AC21" s="65">
+      <c r="AC21" s="64">
         <v>1578</v>
       </c>
       <c r="AD21" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF21" s="66"/>
+        <v>84</v>
+      </c>
+      <c r="AF21" s="65"/>
     </row>
     <row r="22" spans="14:32" x14ac:dyDescent="0.3">
       <c r="T22" s="55">
         <v>6846</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X22" s="50" t="s">
         <v>41</v>
@@ -3591,24 +3603,24 @@
       <c r="Z22" s="63">
         <v>47.25</v>
       </c>
-      <c r="AA22" s="66">
+      <c r="AA22" s="65">
         <f t="shared" si="1"/>
         <v>42.129571838721759</v>
       </c>
-      <c r="AC22" s="65">
+      <c r="AC22" s="64">
         <v>112.154</v>
       </c>
       <c r="AD22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF22" s="66"/>
+        <v>84</v>
+      </c>
+      <c r="AF22" s="65"/>
     </row>
     <row r="23" spans="14:32" x14ac:dyDescent="0.3">
       <c r="T23" s="55">
         <v>134.93</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="14:32" x14ac:dyDescent="0.3">
@@ -3616,7 +3628,7 @@
         <v>1417</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="14:32" x14ac:dyDescent="0.3">
@@ -3624,7 +3636,7 @@
         <v>833</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Контрольные на 4-й семестр/МЭО/Контрольная работа/Лист Microsoft Excel.xlsx
+++ b/Контрольные на 4-й семестр/МЭО/Контрольная работа/Лист Microsoft Excel.xlsx
@@ -463,7 +463,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -496,6 +496,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -521,6 +527,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,7 +638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -737,12 +749,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="21" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -751,49 +757,60 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="4" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2368,8 +2385,8 @@
   <dimension ref="A1:BF25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z1" sqref="Z1:Z7"/>
+      <pane xSplit="1" topLeftCell="AE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AI8" sqref="AI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2438,77 +2455,77 @@
       <c r="A1" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66" t="s">
+      <c r="D1" s="64"/>
+      <c r="E1" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66" t="s">
+      <c r="G1" s="64"/>
+      <c r="H1" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="66"/>
-      <c r="K1" s="71" t="s">
+      <c r="J1" s="64"/>
+      <c r="K1" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="73" t="s">
+      <c r="M1" s="64"/>
+      <c r="N1" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="66" t="s">
+      <c r="O1" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="74" t="s">
+      <c r="P1" s="64"/>
+      <c r="Q1" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="66" t="s">
+      <c r="R1" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="66"/>
-      <c r="T1" s="81" t="s">
+      <c r="S1" s="64"/>
+      <c r="T1" s="80" t="s">
         <v>85</v>
       </c>
       <c r="U1" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="66"/>
-      <c r="W1" s="73" t="s">
+      <c r="V1" s="64"/>
+      <c r="W1" s="71" t="s">
         <v>49</v>
       </c>
       <c r="X1" s="40" t="s">
         <v>42</v>
       </c>
       <c r="Y1" s="43"/>
-      <c r="Z1" s="88" t="s">
+      <c r="Z1" s="87" t="s">
         <v>86</v>
       </c>
       <c r="AA1" s="56" t="s">
         <v>42</v>
       </c>
       <c r="AB1" s="43"/>
-      <c r="AC1" s="46" t="s">
+      <c r="AC1" s="71" t="s">
         <v>57</v>
       </c>
       <c r="AD1" s="56" t="s">
         <v>42</v>
       </c>
       <c r="AE1" s="43"/>
-      <c r="AF1" s="80" t="s">
+      <c r="AF1" s="91" t="s">
         <v>65</v>
       </c>
       <c r="AG1" s="56" t="s">
@@ -2529,14 +2546,14 @@
         <v>42</v>
       </c>
       <c r="AN1" s="43"/>
-      <c r="AO1" s="80" t="s">
+      <c r="AO1" s="79" t="s">
         <v>73</v>
       </c>
       <c r="AP1" s="56" t="s">
         <v>42</v>
       </c>
       <c r="AQ1" s="43"/>
-      <c r="AR1" s="80" t="s">
+      <c r="AR1" s="79" t="s">
         <v>78</v>
       </c>
       <c r="AS1" s="56" t="s">
@@ -2563,7 +2580,7 @@
       <c r="BB1" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="BC1" s="61"/>
+      <c r="BC1" s="59"/>
       <c r="BD1" s="57" t="s">
         <v>82</v>
       </c>
@@ -2574,37 +2591,37 @@
     </row>
     <row r="2" spans="1:58" s="45" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
       <c r="U2" s="44"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
       <c r="X2" s="44"/>
       <c r="Y2" s="44"/>
-      <c r="Z2" s="89"/>
+      <c r="Z2" s="88"/>
       <c r="AA2" s="54"/>
       <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
+      <c r="AC2" s="68"/>
       <c r="AD2" s="44"/>
       <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
+      <c r="AF2" s="92"/>
       <c r="AG2" s="44"/>
       <c r="AH2" s="44"/>
       <c r="AI2" s="44"/>
@@ -2636,87 +2653,87 @@
       <c r="A3" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="67">
+      <c r="B3" s="65">
         <v>23027.41</v>
       </c>
-      <c r="C3" s="70">
+      <c r="C3" s="68">
         <v>5</v>
       </c>
-      <c r="D3" s="70"/>
-      <c r="E3" s="69">
+      <c r="D3" s="68"/>
+      <c r="E3" s="67">
         <v>1.6</v>
       </c>
-      <c r="F3" s="70">
+      <c r="F3" s="68">
         <v>3</v>
       </c>
-      <c r="G3" s="70"/>
-      <c r="H3" s="69">
+      <c r="G3" s="68"/>
+      <c r="H3" s="67">
         <v>30.2</v>
       </c>
-      <c r="I3" s="70">
+      <c r="I3" s="68">
         <v>1</v>
       </c>
-      <c r="J3" s="70"/>
-      <c r="K3" s="72">
+      <c r="J3" s="68"/>
+      <c r="K3" s="70">
         <v>2800</v>
       </c>
-      <c r="L3" s="70">
+      <c r="L3" s="68">
         <v>5</v>
       </c>
-      <c r="M3" s="70"/>
-      <c r="N3" s="69">
+      <c r="M3" s="68"/>
+      <c r="N3" s="67">
         <v>12.55</v>
       </c>
-      <c r="O3" s="70">
+      <c r="O3" s="68">
         <v>1</v>
       </c>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="69">
+      <c r="P3" s="68"/>
+      <c r="Q3" s="67">
         <v>109.8</v>
       </c>
-      <c r="R3" s="70">
+      <c r="R3" s="68">
         <v>4</v>
       </c>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70">
+      <c r="S3" s="68"/>
+      <c r="T3" s="68">
         <v>15</v>
       </c>
       <c r="U3" s="48">
         <v>3</v>
       </c>
-      <c r="V3" s="70"/>
-      <c r="W3" s="82">
+      <c r="V3" s="68"/>
+      <c r="W3" s="81">
         <v>29.06</v>
       </c>
       <c r="X3" s="48">
         <v>3</v>
       </c>
       <c r="Y3" s="54"/>
-      <c r="Z3" s="90">
+      <c r="Z3" s="89">
         <v>96.93</v>
       </c>
-      <c r="AA3" s="86">
+      <c r="AA3" s="85">
         <v>5</v>
       </c>
       <c r="AB3" s="54"/>
-      <c r="AC3" s="58" t="s">
+      <c r="AC3" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="AD3" s="54">
+      <c r="AD3" s="75">
         <v>4</v>
       </c>
       <c r="AE3" s="54"/>
-      <c r="AF3" s="59" t="s">
+      <c r="AF3" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="AG3" s="54">
+      <c r="AG3" s="75">
         <v>4</v>
       </c>
       <c r="AH3" s="54"/>
       <c r="AI3" s="54">
         <v>35</v>
       </c>
-      <c r="AJ3" s="54">
+      <c r="AJ3" s="74">
         <v>2</v>
       </c>
       <c r="AK3" s="54"/>
@@ -2762,7 +2779,7 @@
         <v>5</v>
       </c>
       <c r="BC3" s="54"/>
-      <c r="BD3" s="60">
+      <c r="BD3" s="58">
         <v>6.1</v>
       </c>
       <c r="BE3" s="54">
@@ -2774,87 +2791,87 @@
       <c r="A4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="67">
+      <c r="B4" s="65">
         <v>10888.98</v>
       </c>
-      <c r="C4" s="70">
+      <c r="C4" s="68">
         <v>3</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="69">
+      <c r="D4" s="68"/>
+      <c r="E4" s="67">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F4" s="70">
+      <c r="F4" s="68">
         <v>2</v>
       </c>
-      <c r="G4" s="70"/>
-      <c r="H4" s="69">
+      <c r="G4" s="68"/>
+      <c r="H4" s="67">
         <v>160</v>
       </c>
-      <c r="I4" s="70">
+      <c r="I4" s="68">
         <v>4</v>
       </c>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70">
+      <c r="J4" s="68"/>
+      <c r="K4" s="68">
         <v>764</v>
       </c>
-      <c r="L4" s="70">
+      <c r="L4" s="68">
         <v>1</v>
       </c>
-      <c r="M4" s="70"/>
-      <c r="N4" s="69">
+      <c r="M4" s="68"/>
+      <c r="N4" s="67">
         <v>19.309999999999999</v>
       </c>
-      <c r="O4" s="70">
+      <c r="O4" s="68">
         <v>4</v>
       </c>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="69">
+      <c r="P4" s="68"/>
+      <c r="Q4" s="67">
         <v>98.13</v>
       </c>
-      <c r="R4" s="70">
+      <c r="R4" s="68">
         <v>1</v>
       </c>
-      <c r="S4" s="70"/>
-      <c r="T4" s="70">
+      <c r="S4" s="68"/>
+      <c r="T4" s="68">
         <v>33</v>
       </c>
-      <c r="U4" s="76">
+      <c r="U4" s="75">
         <v>4</v>
       </c>
-      <c r="V4" s="70"/>
-      <c r="W4" s="69">
+      <c r="V4" s="68"/>
+      <c r="W4" s="67">
         <v>31.8</v>
       </c>
-      <c r="X4" s="76">
+      <c r="X4" s="75">
         <v>4</v>
       </c>
       <c r="Y4" s="54"/>
-      <c r="Z4" s="90">
+      <c r="Z4" s="89">
         <v>34.89</v>
       </c>
-      <c r="AA4" s="79">
+      <c r="AA4" s="78">
         <v>1</v>
       </c>
       <c r="AB4" s="54"/>
-      <c r="AC4" s="58" t="s">
+      <c r="AC4" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="AD4" s="54">
+      <c r="AD4" s="77">
         <v>3</v>
       </c>
       <c r="AE4" s="54"/>
-      <c r="AF4" s="59" t="s">
+      <c r="AF4" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="AG4" s="54">
+      <c r="AG4" s="74">
         <v>2</v>
       </c>
       <c r="AH4" s="54"/>
       <c r="AI4" s="54">
         <v>42</v>
       </c>
-      <c r="AJ4" s="54">
+      <c r="AJ4" s="77">
         <v>3</v>
       </c>
       <c r="AK4" s="54"/>
@@ -2912,87 +2929,87 @@
       <c r="A5" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="67">
+      <c r="B5" s="65">
         <v>7524.51</v>
       </c>
-      <c r="C5" s="70">
+      <c r="C5" s="68">
         <v>2</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="69">
+      <c r="D5" s="68"/>
+      <c r="E5" s="67">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F5" s="70">
+      <c r="F5" s="68">
         <v>2</v>
       </c>
-      <c r="G5" s="70"/>
-      <c r="H5" s="69">
+      <c r="G5" s="68"/>
+      <c r="H5" s="67">
         <v>108</v>
       </c>
-      <c r="I5" s="70">
+      <c r="I5" s="68">
         <v>3</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="72">
+      <c r="J5" s="68"/>
+      <c r="K5" s="70">
         <v>1900</v>
       </c>
-      <c r="L5" s="70">
+      <c r="L5" s="68">
         <v>3</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="69">
+      <c r="M5" s="68"/>
+      <c r="N5" s="67">
         <v>18.68</v>
       </c>
-      <c r="O5" s="70">
+      <c r="O5" s="68">
         <v>3</v>
       </c>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="69">
+      <c r="P5" s="68"/>
+      <c r="Q5" s="67">
         <v>100.38</v>
       </c>
-      <c r="R5" s="70">
+      <c r="R5" s="68">
         <v>2</v>
       </c>
-      <c r="S5" s="70"/>
-      <c r="T5" s="70">
+      <c r="S5" s="68"/>
+      <c r="T5" s="68">
         <v>4</v>
       </c>
-      <c r="U5" s="79">
+      <c r="U5" s="78">
         <v>1</v>
       </c>
-      <c r="V5" s="70"/>
-      <c r="W5" s="70">
+      <c r="V5" s="68"/>
+      <c r="W5" s="68">
         <v>2373.1799999999998</v>
       </c>
-      <c r="X5" s="77">
+      <c r="X5" s="76">
         <v>5</v>
       </c>
       <c r="Y5" s="54"/>
-      <c r="Z5" s="90">
+      <c r="Z5" s="89">
         <v>58.68</v>
       </c>
-      <c r="AA5" s="85">
+      <c r="AA5" s="84">
         <v>4</v>
       </c>
       <c r="AB5" s="54"/>
-      <c r="AC5" s="58" t="s">
+      <c r="AC5" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="AD5" s="54">
+      <c r="AD5" s="76">
         <v>5</v>
       </c>
       <c r="AE5" s="54"/>
-      <c r="AF5" s="59" t="s">
+      <c r="AF5" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="AG5" s="54">
+      <c r="AG5" s="76">
         <v>5</v>
       </c>
       <c r="AH5" s="54"/>
       <c r="AI5" s="54">
         <v>50</v>
       </c>
-      <c r="AJ5" s="54">
+      <c r="AJ5" s="75">
         <v>4</v>
       </c>
       <c r="AK5" s="54"/>
@@ -3050,87 +3067,87 @@
       <c r="A6" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="67">
+      <c r="B6" s="65">
         <v>11441</v>
       </c>
-      <c r="C6" s="70">
+      <c r="C6" s="68">
         <v>4</v>
       </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="69">
+      <c r="D6" s="68"/>
+      <c r="E6" s="67">
         <v>2.7</v>
       </c>
-      <c r="F6" s="70">
+      <c r="F6" s="68">
         <v>4</v>
       </c>
-      <c r="G6" s="70"/>
-      <c r="H6" s="69">
+      <c r="G6" s="68"/>
+      <c r="H6" s="67">
         <v>342</v>
       </c>
-      <c r="I6" s="70">
+      <c r="I6" s="68">
         <v>5</v>
       </c>
-      <c r="J6" s="70"/>
-      <c r="K6" s="72">
+      <c r="J6" s="68"/>
+      <c r="K6" s="70">
         <v>2360</v>
       </c>
-      <c r="L6" s="70">
+      <c r="L6" s="68">
         <v>4</v>
       </c>
-      <c r="M6" s="70"/>
-      <c r="N6" s="69">
+      <c r="M6" s="68"/>
+      <c r="N6" s="67">
         <v>21.39</v>
       </c>
-      <c r="O6" s="70">
+      <c r="O6" s="68">
         <v>5</v>
       </c>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="69">
+      <c r="P6" s="68"/>
+      <c r="Q6" s="67">
         <v>104.73</v>
       </c>
-      <c r="R6" s="70">
+      <c r="R6" s="68">
         <v>3</v>
       </c>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70">
+      <c r="S6" s="68"/>
+      <c r="T6" s="68">
         <v>9</v>
       </c>
-      <c r="U6" s="78">
+      <c r="U6" s="77">
         <v>2</v>
       </c>
-      <c r="V6" s="70"/>
-      <c r="W6" s="69">
+      <c r="V6" s="68"/>
+      <c r="W6" s="67">
         <v>9.65</v>
       </c>
-      <c r="X6" s="75">
+      <c r="X6" s="73">
         <v>1</v>
       </c>
       <c r="Y6" s="54"/>
-      <c r="Z6" s="90">
+      <c r="Z6" s="89">
         <v>44.94</v>
       </c>
-      <c r="AA6" s="84">
+      <c r="AA6" s="83">
         <v>3</v>
       </c>
       <c r="AB6" s="54"/>
-      <c r="AC6" s="58" t="s">
+      <c r="AC6" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="AD6" s="54">
+      <c r="AD6" s="73">
         <v>1</v>
       </c>
       <c r="AE6" s="54"/>
-      <c r="AF6" s="59" t="s">
+      <c r="AF6" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="AG6" s="54">
+      <c r="AG6" s="77">
         <v>3</v>
       </c>
       <c r="AH6" s="54"/>
       <c r="AI6" s="54">
         <v>53</v>
       </c>
-      <c r="AJ6" s="54">
+      <c r="AJ6" s="76">
         <v>5</v>
       </c>
       <c r="AK6" s="54"/>
@@ -3188,87 +3205,87 @@
       <c r="A7" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="67">
+      <c r="B7" s="65">
         <v>2991.63</v>
       </c>
-      <c r="C7" s="70">
+      <c r="C7" s="68">
         <v>1</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="69">
+      <c r="D7" s="68"/>
+      <c r="E7" s="67">
         <v>3.5</v>
       </c>
-      <c r="F7" s="70">
+      <c r="F7" s="68">
         <v>5</v>
       </c>
-      <c r="G7" s="70"/>
-      <c r="H7" s="69">
+      <c r="G7" s="68"/>
+      <c r="H7" s="67">
         <v>46.1</v>
       </c>
-      <c r="I7" s="70">
+      <c r="I7" s="68">
         <v>2</v>
       </c>
-      <c r="J7" s="70"/>
-      <c r="K7" s="72">
+      <c r="J7" s="68"/>
+      <c r="K7" s="70">
         <v>1020</v>
       </c>
-      <c r="L7" s="70">
+      <c r="L7" s="68">
         <v>2</v>
       </c>
-      <c r="M7" s="70"/>
-      <c r="N7" s="69">
+      <c r="M7" s="68"/>
+      <c r="N7" s="67">
         <v>17.5</v>
       </c>
-      <c r="O7" s="70">
+      <c r="O7" s="68">
         <v>2</v>
       </c>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="69">
+      <c r="P7" s="68"/>
+      <c r="Q7" s="67">
         <v>117</v>
       </c>
-      <c r="R7" s="70">
+      <c r="R7" s="68">
         <v>5</v>
       </c>
-      <c r="S7" s="70"/>
-      <c r="T7" s="70">
+      <c r="S7" s="68"/>
+      <c r="T7" s="68">
         <v>74</v>
       </c>
-      <c r="U7" s="77">
+      <c r="U7" s="76">
         <v>5</v>
       </c>
-      <c r="V7" s="70"/>
-      <c r="W7" s="83">
+      <c r="V7" s="68"/>
+      <c r="W7" s="82">
         <v>19.8</v>
       </c>
-      <c r="X7" s="78">
+      <c r="X7" s="77">
         <v>2</v>
       </c>
       <c r="Y7" s="54"/>
-      <c r="Z7" s="90">
+      <c r="Z7" s="89">
         <v>42.13</v>
       </c>
-      <c r="AA7" s="87">
+      <c r="AA7" s="86">
         <v>2</v>
       </c>
       <c r="AB7" s="54"/>
-      <c r="AC7" s="58" t="s">
+      <c r="AC7" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="AD7" s="54">
+      <c r="AD7" s="74">
         <v>2</v>
       </c>
       <c r="AE7" s="54"/>
-      <c r="AF7" s="59" t="s">
+      <c r="AF7" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="AG7" s="54">
+      <c r="AG7" s="73">
         <v>1</v>
       </c>
       <c r="AH7" s="54"/>
       <c r="AI7" s="54">
         <v>21</v>
       </c>
-      <c r="AJ7" s="54">
+      <c r="AJ7" s="73">
         <v>1</v>
       </c>
       <c r="AK7" s="54"/>
@@ -3314,7 +3331,7 @@
         <v>2</v>
       </c>
       <c r="BC7" s="54"/>
-      <c r="BD7" s="60">
+      <c r="BD7" s="58">
         <v>4.2</v>
       </c>
       <c r="BE7" s="54">
@@ -3323,25 +3340,25 @@
       <c r="BF7" s="54"/>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="68"/>
-      <c r="S8" s="68"/>
-      <c r="T8" s="68"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="66"/>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
@@ -3442,7 +3459,7 @@
       <c r="R15" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="T15" s="65">
+      <c r="T15" s="63">
         <f>T21/1000/AC18*100</f>
         <v>0.15438779630304406</v>
       </c>
@@ -3457,7 +3474,7 @@
       <c r="R16" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="T16" s="65">
+      <c r="T16" s="63">
         <f t="shared" ref="T16:T19" si="0">T22/1000/AC19*100</f>
         <v>0.33330087633885103</v>
       </c>
@@ -3473,7 +3490,7 @@
       <c r="R17" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="T17" s="65">
+      <c r="T17" s="63">
         <f t="shared" si="0"/>
         <v>3.8676076039349673E-2</v>
       </c>
@@ -3492,7 +3509,7 @@
       <c r="R18" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="T18" s="65">
+      <c r="T18" s="63">
         <f t="shared" si="0"/>
         <v>8.9797211660329529E-2</v>
       </c>
@@ -3502,26 +3519,26 @@
       <c r="X18" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="Z18" s="62">
+      <c r="Z18" s="60">
         <v>196.85</v>
       </c>
-      <c r="AA18" s="65">
+      <c r="AA18" s="63">
         <f>Z18/AC18*100</f>
         <v>96.929379671666183</v>
       </c>
-      <c r="AC18" s="64">
+      <c r="AC18" s="62">
         <v>203.08600000000001</v>
       </c>
       <c r="AD18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AF18" s="65"/>
+      <c r="AF18" s="63"/>
     </row>
     <row r="19" spans="14:32" x14ac:dyDescent="0.3">
       <c r="R19" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="T19" s="65">
+      <c r="T19" s="63">
         <f t="shared" si="0"/>
         <v>0.74272874797153909</v>
       </c>
@@ -3531,39 +3548,39 @@
       <c r="X19" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="Z19" s="62">
+      <c r="Z19" s="60">
         <v>716.64</v>
       </c>
-      <c r="AA19" s="65">
+      <c r="AA19" s="63">
         <f t="shared" ref="AA19:AA22" si="1">Z19/AC19*100</f>
         <v>34.889970788704964</v>
       </c>
-      <c r="AC19" s="64">
+      <c r="AC19" s="62">
         <v>2054</v>
       </c>
       <c r="AD19" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AF19" s="65"/>
+      <c r="AF19" s="63"/>
     </row>
     <row r="20" spans="14:32" x14ac:dyDescent="0.3">
       <c r="X20" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="Z20" s="62">
+      <c r="Z20" s="60">
         <v>204.73</v>
       </c>
-      <c r="AA20" s="65">
+      <c r="AA20" s="63">
         <f t="shared" si="1"/>
         <v>58.683413974179629</v>
       </c>
-      <c r="AC20" s="64">
+      <c r="AC20" s="62">
         <v>348.87200000000001</v>
       </c>
       <c r="AD20" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AF20" s="65"/>
+      <c r="AF20" s="63"/>
     </row>
     <row r="21" spans="14:32" x14ac:dyDescent="0.3">
       <c r="T21" s="55">
@@ -3575,20 +3592,20 @@
       <c r="X21" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="Z21" s="62">
+      <c r="Z21" s="60">
         <v>709.22</v>
       </c>
-      <c r="AA21" s="65">
+      <c r="AA21" s="63">
         <f t="shared" si="1"/>
         <v>44.944233206590624</v>
       </c>
-      <c r="AC21" s="64">
+      <c r="AC21" s="62">
         <v>1578</v>
       </c>
       <c r="AD21" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AF21" s="65"/>
+      <c r="AF21" s="63"/>
     </row>
     <row r="22" spans="14:32" x14ac:dyDescent="0.3">
       <c r="T22" s="55">
@@ -3600,20 +3617,20 @@
       <c r="X22" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="Z22" s="63">
+      <c r="Z22" s="61">
         <v>47.25</v>
       </c>
-      <c r="AA22" s="65">
+      <c r="AA22" s="63">
         <f t="shared" si="1"/>
         <v>42.129571838721759</v>
       </c>
-      <c r="AC22" s="64">
+      <c r="AC22" s="62">
         <v>112.154</v>
       </c>
       <c r="AD22" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AF22" s="65"/>
+      <c r="AF22" s="63"/>
     </row>
     <row r="23" spans="14:32" x14ac:dyDescent="0.3">
       <c r="T23" s="55">

--- a/Контрольные на 4-й семестр/МЭО/Контрольная работа/Лист Microsoft Excel.xlsx
+++ b/Контрольные на 4-й семестр/МЭО/Контрольная работа/Лист Microsoft Excel.xlsx
@@ -638,7 +638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -810,6 +810,14 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2385,8 +2393,8 @@
   <dimension ref="A1:BF25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AI8" sqref="AI8"/>
+      <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AO1" sqref="AO1:AO7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2532,21 +2540,21 @@
         <v>42</v>
       </c>
       <c r="AH1" s="43"/>
-      <c r="AI1" s="46" t="s">
+      <c r="AI1" s="87" t="s">
         <v>71</v>
       </c>
       <c r="AJ1" s="56" t="s">
         <v>42</v>
       </c>
       <c r="AK1" s="43"/>
-      <c r="AL1" s="40" t="s">
+      <c r="AL1" s="94" t="s">
         <v>72</v>
       </c>
       <c r="AM1" s="56" t="s">
         <v>42</v>
       </c>
       <c r="AN1" s="43"/>
-      <c r="AO1" s="79" t="s">
+      <c r="AO1" s="97" t="s">
         <v>73</v>
       </c>
       <c r="AP1" s="56" t="s">
@@ -2624,13 +2632,13 @@
       <c r="AF2" s="92"/>
       <c r="AG2" s="44"/>
       <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
+      <c r="AI2" s="88"/>
       <c r="AJ2" s="44"/>
       <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
+      <c r="AL2" s="88"/>
       <c r="AM2" s="44"/>
       <c r="AN2" s="44"/>
-      <c r="AO2" s="44"/>
+      <c r="AO2" s="88"/>
       <c r="AP2" s="44"/>
       <c r="AQ2" s="44"/>
       <c r="AR2" s="44"/>
@@ -2730,24 +2738,24 @@
         <v>4</v>
       </c>
       <c r="AH3" s="54"/>
-      <c r="AI3" s="54">
+      <c r="AI3" s="88">
         <v>35</v>
       </c>
       <c r="AJ3" s="74">
         <v>2</v>
       </c>
       <c r="AK3" s="54"/>
-      <c r="AL3" s="55">
+      <c r="AL3" s="95">
         <v>96.8</v>
       </c>
-      <c r="AM3" s="54">
+      <c r="AM3" s="75">
         <v>4</v>
       </c>
       <c r="AN3" s="54"/>
-      <c r="AO3" s="54" t="s">
+      <c r="AO3" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="AP3" s="54">
+      <c r="AP3" s="76">
         <v>5</v>
       </c>
       <c r="AQ3" s="54"/>
@@ -2868,24 +2876,24 @@
         <v>2</v>
       </c>
       <c r="AH4" s="54"/>
-      <c r="AI4" s="54">
+      <c r="AI4" s="88">
         <v>42</v>
       </c>
       <c r="AJ4" s="77">
         <v>3</v>
       </c>
       <c r="AK4" s="54"/>
-      <c r="AL4" s="55">
+      <c r="AL4" s="95">
         <v>3</v>
       </c>
-      <c r="AM4" s="54">
+      <c r="AM4" s="76">
         <v>5</v>
       </c>
       <c r="AN4" s="54"/>
-      <c r="AO4" s="54" t="s">
+      <c r="AO4" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="AP4" s="54">
+      <c r="AP4" s="74">
         <v>2</v>
       </c>
       <c r="AQ4" s="54"/>
@@ -3006,24 +3014,24 @@
         <v>5</v>
       </c>
       <c r="AH5" s="54"/>
-      <c r="AI5" s="54">
+      <c r="AI5" s="88">
         <v>50</v>
       </c>
       <c r="AJ5" s="75">
         <v>4</v>
       </c>
       <c r="AK5" s="54"/>
-      <c r="AL5" s="55">
+      <c r="AL5" s="95">
         <v>158.24</v>
       </c>
-      <c r="AM5" s="54">
+      <c r="AM5" s="74">
         <v>2</v>
       </c>
       <c r="AN5" s="54"/>
-      <c r="AO5" s="54" t="s">
+      <c r="AO5" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="AP5" s="54">
+      <c r="AP5" s="77">
         <v>3</v>
       </c>
       <c r="AQ5" s="54"/>
@@ -3144,24 +3152,24 @@
         <v>3</v>
       </c>
       <c r="AH6" s="54"/>
-      <c r="AI6" s="54">
+      <c r="AI6" s="88">
         <v>53</v>
       </c>
       <c r="AJ6" s="76">
         <v>5</v>
       </c>
       <c r="AK6" s="54"/>
-      <c r="AL6" s="55">
+      <c r="AL6" s="95">
         <v>120.09</v>
       </c>
-      <c r="AM6" s="54">
+      <c r="AM6" s="77">
         <v>3</v>
       </c>
       <c r="AN6" s="54"/>
-      <c r="AO6" s="54" t="s">
+      <c r="AO6" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="AP6" s="54">
+      <c r="AP6" s="75">
         <v>4</v>
       </c>
       <c r="AQ6" s="54"/>
@@ -3282,24 +3290,24 @@
         <v>1</v>
       </c>
       <c r="AH7" s="54"/>
-      <c r="AI7" s="54">
+      <c r="AI7" s="88">
         <v>21</v>
       </c>
       <c r="AJ7" s="73">
         <v>1</v>
       </c>
       <c r="AK7" s="54"/>
-      <c r="AL7" s="55">
+      <c r="AL7" s="95">
         <v>295.74200000000002</v>
       </c>
-      <c r="AM7" s="54">
+      <c r="AM7" s="73">
         <v>1</v>
       </c>
       <c r="AN7" s="54"/>
-      <c r="AO7" s="54" t="s">
+      <c r="AO7" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="AP7" s="54">
+      <c r="AP7" s="77">
         <v>3</v>
       </c>
       <c r="AQ7" s="54"/>
@@ -3359,6 +3367,7 @@
       <c r="R8" s="66"/>
       <c r="S8" s="66"/>
       <c r="T8" s="66"/>
+      <c r="AL8" s="96"/>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">

--- a/Контрольные на 4-й семестр/МЭО/Контрольная работа/Лист Microsoft Excel.xlsx
+++ b/Контрольные на 4-й семестр/МЭО/Контрольная работа/Лист Microsoft Excel.xlsx
@@ -285,7 +285,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,6 +460,21 @@
       <sz val="14"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -638,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -725,9 +740,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -749,7 +761,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -780,9 +791,6 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -819,6 +827,13 @@
     <xf numFmtId="0" fontId="20" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="21" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="21" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2393,8 +2408,8 @@
   <dimension ref="A1:BF25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AO1" sqref="AO1:AO7"/>
+      <pane xSplit="1" topLeftCell="AQ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BD10" sqref="BD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2460,197 +2475,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" s="42" customFormat="1" ht="75" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64" t="s">
+      <c r="D1" s="62"/>
+      <c r="E1" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64" t="s">
+      <c r="G1" s="62"/>
+      <c r="H1" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="64" t="s">
+      <c r="I1" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="64"/>
-      <c r="K1" s="69" t="s">
+      <c r="J1" s="62"/>
+      <c r="K1" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="64" t="s">
+      <c r="L1" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="64"/>
-      <c r="N1" s="71" t="s">
+      <c r="M1" s="62"/>
+      <c r="N1" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="64" t="s">
+      <c r="O1" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="72" t="s">
+      <c r="P1" s="62"/>
+      <c r="Q1" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="64" t="s">
+      <c r="R1" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="64"/>
-      <c r="T1" s="80" t="s">
+      <c r="S1" s="62"/>
+      <c r="T1" s="77" t="s">
         <v>85</v>
       </c>
       <c r="U1" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="64"/>
-      <c r="W1" s="71" t="s">
+      <c r="V1" s="62"/>
+      <c r="W1" s="69" t="s">
         <v>49</v>
       </c>
       <c r="X1" s="40" t="s">
         <v>42</v>
       </c>
       <c r="Y1" s="43"/>
-      <c r="Z1" s="87" t="s">
+      <c r="Z1" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="56" t="s">
+      <c r="AA1" s="55" t="s">
         <v>42</v>
       </c>
       <c r="AB1" s="43"/>
-      <c r="AC1" s="71" t="s">
+      <c r="AC1" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="AD1" s="56" t="s">
+      <c r="AD1" s="55" t="s">
         <v>42</v>
       </c>
       <c r="AE1" s="43"/>
-      <c r="AF1" s="91" t="s">
+      <c r="AF1" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="AG1" s="56" t="s">
+      <c r="AG1" s="55" t="s">
         <v>42</v>
       </c>
       <c r="AH1" s="43"/>
-      <c r="AI1" s="87" t="s">
+      <c r="AI1" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="AJ1" s="56" t="s">
+      <c r="AJ1" s="55" t="s">
         <v>42</v>
       </c>
       <c r="AK1" s="43"/>
-      <c r="AL1" s="94" t="s">
+      <c r="AL1" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="AM1" s="56" t="s">
+      <c r="AM1" s="55" t="s">
         <v>42</v>
       </c>
       <c r="AN1" s="43"/>
-      <c r="AO1" s="97" t="s">
+      <c r="AO1" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="AP1" s="56" t="s">
+      <c r="AP1" s="55" t="s">
         <v>42</v>
       </c>
       <c r="AQ1" s="43"/>
-      <c r="AR1" s="79" t="s">
+      <c r="AR1" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="AS1" s="56" t="s">
+      <c r="AS1" s="55" t="s">
         <v>42</v>
       </c>
       <c r="AT1" s="43"/>
-      <c r="AU1" s="46" t="s">
+      <c r="AU1" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="AV1" s="56" t="s">
+      <c r="AV1" s="55" t="s">
         <v>42</v>
       </c>
       <c r="AW1" s="43"/>
-      <c r="AX1" s="46" t="s">
+      <c r="AX1" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="AY1" s="56" t="s">
+      <c r="AY1" s="55" t="s">
         <v>42</v>
       </c>
       <c r="AZ1" s="43"/>
-      <c r="BA1" s="46" t="s">
+      <c r="BA1" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="BB1" s="56" t="s">
+      <c r="BB1" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="BC1" s="59"/>
-      <c r="BD1" s="57" t="s">
+      <c r="BC1" s="57"/>
+      <c r="BD1" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="BE1" s="56" t="s">
+      <c r="BE1" s="55" t="s">
         <v>42</v>
       </c>
       <c r="BF1" s="43"/>
     </row>
     <row r="2" spans="1:58" s="45" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
       <c r="U2" s="44"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
       <c r="X2" s="44"/>
       <c r="Y2" s="44"/>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="54"/>
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="53"/>
       <c r="AB2" s="44"/>
-      <c r="AC2" s="68"/>
+      <c r="AC2" s="66"/>
       <c r="AD2" s="44"/>
       <c r="AE2" s="44"/>
-      <c r="AF2" s="92"/>
+      <c r="AF2" s="89"/>
       <c r="AG2" s="44"/>
       <c r="AH2" s="44"/>
-      <c r="AI2" s="88"/>
+      <c r="AI2" s="85"/>
       <c r="AJ2" s="44"/>
       <c r="AK2" s="44"/>
-      <c r="AL2" s="88"/>
+      <c r="AL2" s="85"/>
       <c r="AM2" s="44"/>
       <c r="AN2" s="44"/>
-      <c r="AO2" s="88"/>
+      <c r="AO2" s="85"/>
       <c r="AP2" s="44"/>
       <c r="AQ2" s="44"/>
-      <c r="AR2" s="44"/>
+      <c r="AR2" s="85"/>
       <c r="AS2" s="44"/>
       <c r="AT2" s="44"/>
-      <c r="AU2" s="44"/>
+      <c r="AU2" s="85"/>
       <c r="AV2" s="44"/>
       <c r="AW2" s="44"/>
-      <c r="AX2" s="44"/>
+      <c r="AX2" s="85"/>
       <c r="AY2" s="44"/>
       <c r="AZ2" s="44"/>
-      <c r="BA2" s="44"/>
+      <c r="BA2" s="85"/>
       <c r="BB2" s="44"/>
       <c r="BC2" s="44"/>
       <c r="BD2" s="44"/>
@@ -2658,716 +2673,719 @@
       <c r="BF2" s="44"/>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="65">
+      <c r="B3" s="63">
         <v>23027.41</v>
       </c>
-      <c r="C3" s="68">
+      <c r="C3" s="66">
         <v>5</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="67">
+      <c r="D3" s="66"/>
+      <c r="E3" s="65">
         <v>1.6</v>
       </c>
-      <c r="F3" s="68">
+      <c r="F3" s="66">
         <v>3</v>
       </c>
-      <c r="G3" s="68"/>
-      <c r="H3" s="67">
+      <c r="G3" s="66"/>
+      <c r="H3" s="65">
         <v>30.2</v>
       </c>
-      <c r="I3" s="68">
+      <c r="I3" s="66">
         <v>1</v>
       </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="70">
+      <c r="J3" s="66"/>
+      <c r="K3" s="68">
         <v>2800</v>
       </c>
-      <c r="L3" s="68">
+      <c r="L3" s="66">
         <v>5</v>
       </c>
-      <c r="M3" s="68"/>
-      <c r="N3" s="67">
+      <c r="M3" s="66"/>
+      <c r="N3" s="65">
         <v>12.55</v>
       </c>
-      <c r="O3" s="68">
+      <c r="O3" s="66">
         <v>1</v>
       </c>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="67">
+      <c r="P3" s="66"/>
+      <c r="Q3" s="65">
         <v>109.8</v>
       </c>
-      <c r="R3" s="68">
+      <c r="R3" s="66">
         <v>4</v>
       </c>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68">
+      <c r="S3" s="66"/>
+      <c r="T3" s="66">
         <v>15</v>
       </c>
-      <c r="U3" s="48">
+      <c r="U3" s="47">
         <v>3</v>
       </c>
-      <c r="V3" s="68"/>
-      <c r="W3" s="81">
+      <c r="V3" s="66"/>
+      <c r="W3" s="78">
         <v>29.06</v>
       </c>
-      <c r="X3" s="48">
+      <c r="X3" s="47">
         <v>3</v>
       </c>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="89">
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="86">
         <v>96.93</v>
       </c>
-      <c r="AA3" s="85">
+      <c r="AA3" s="82">
         <v>5</v>
       </c>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="90" t="s">
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="AD3" s="75">
+      <c r="AD3" s="73">
         <v>4</v>
       </c>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="93" t="s">
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="AG3" s="75">
+      <c r="AG3" s="73">
         <v>4</v>
       </c>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="88">
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="85">
         <v>35</v>
       </c>
-      <c r="AJ3" s="74">
+      <c r="AJ3" s="72">
         <v>2</v>
       </c>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="95">
+      <c r="AK3" s="53"/>
+      <c r="AL3" s="92">
         <v>96.8</v>
       </c>
-      <c r="AM3" s="75">
+      <c r="AM3" s="73">
         <v>4</v>
       </c>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="88" t="s">
+      <c r="AN3" s="53"/>
+      <c r="AO3" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="AP3" s="76">
+      <c r="AP3" s="74">
         <v>5</v>
       </c>
-      <c r="AQ3" s="54"/>
-      <c r="AR3" s="54">
+      <c r="AQ3" s="53"/>
+      <c r="AR3" s="85">
         <v>14</v>
       </c>
-      <c r="AS3" s="54">
+      <c r="AS3" s="53">
         <v>1</v>
       </c>
-      <c r="AT3" s="54"/>
-      <c r="AU3" s="54">
+      <c r="AT3" s="53"/>
+      <c r="AU3" s="85">
         <v>0.01</v>
       </c>
-      <c r="AV3" s="54">
+      <c r="AV3" s="53">
         <v>1</v>
       </c>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="54">
-        <v>44</v>
-      </c>
-      <c r="AY3" s="54">
+      <c r="AW3" s="53"/>
+      <c r="AX3" s="95">
+        <v>68.08</v>
+      </c>
+      <c r="AY3" s="75">
+        <v>3</v>
+      </c>
+      <c r="AZ3" s="53"/>
+      <c r="BA3" s="85">
+        <v>45</v>
+      </c>
+      <c r="BB3" s="74">
+        <v>5</v>
+      </c>
+      <c r="BC3" s="53"/>
+      <c r="BD3" s="98">
+        <v>6.1</v>
+      </c>
+      <c r="BE3" s="53">
         <v>4</v>
       </c>
-      <c r="AZ3" s="54"/>
-      <c r="BA3" s="54">
-        <v>45</v>
-      </c>
-      <c r="BB3" s="54">
+      <c r="BF3" s="53"/>
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A4" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="63">
+        <v>10888.98</v>
+      </c>
+      <c r="C4" s="66">
+        <v>3</v>
+      </c>
+      <c r="D4" s="66"/>
+      <c r="E4" s="65">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F4" s="66">
+        <v>2</v>
+      </c>
+      <c r="G4" s="66"/>
+      <c r="H4" s="65">
+        <v>160</v>
+      </c>
+      <c r="I4" s="66">
+        <v>4</v>
+      </c>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66">
+        <v>764</v>
+      </c>
+      <c r="L4" s="66">
+        <v>1</v>
+      </c>
+      <c r="M4" s="66"/>
+      <c r="N4" s="65">
+        <v>19.309999999999999</v>
+      </c>
+      <c r="O4" s="66">
+        <v>4</v>
+      </c>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="65">
+        <v>98.13</v>
+      </c>
+      <c r="R4" s="66">
+        <v>1</v>
+      </c>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66">
+        <v>33</v>
+      </c>
+      <c r="U4" s="73">
+        <v>4</v>
+      </c>
+      <c r="V4" s="66"/>
+      <c r="W4" s="65">
+        <v>31.8</v>
+      </c>
+      <c r="X4" s="73">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="86">
+        <v>34.89</v>
+      </c>
+      <c r="AA4" s="76">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD4" s="75">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG4" s="72">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="85">
+        <v>42</v>
+      </c>
+      <c r="AJ4" s="75">
+        <v>3</v>
+      </c>
+      <c r="AK4" s="53"/>
+      <c r="AL4" s="92">
+        <v>3</v>
+      </c>
+      <c r="AM4" s="74">
         <v>5</v>
       </c>
-      <c r="BC3" s="54"/>
-      <c r="BD3" s="58">
-        <v>6.1</v>
-      </c>
-      <c r="BE3" s="54">
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP4" s="72">
+        <v>2</v>
+      </c>
+      <c r="AQ4" s="53"/>
+      <c r="AR4" s="85">
+        <v>43</v>
+      </c>
+      <c r="AS4" s="53">
+        <v>5</v>
+      </c>
+      <c r="AT4" s="53"/>
+      <c r="AU4" s="85">
+        <v>7.02</v>
+      </c>
+      <c r="AV4" s="53">
+        <v>5</v>
+      </c>
+      <c r="AW4" s="53"/>
+      <c r="AX4" s="95">
+        <v>55.57</v>
+      </c>
+      <c r="AY4" s="71">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="53"/>
+      <c r="BA4" s="85">
+        <v>37</v>
+      </c>
+      <c r="BB4" s="75">
+        <v>3</v>
+      </c>
+      <c r="BC4" s="53"/>
+      <c r="BD4" s="99">
+        <v>5.5</v>
+      </c>
+      <c r="BE4" s="53">
+        <v>3</v>
+      </c>
+      <c r="BF4" s="44"/>
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A5" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="63">
+        <v>7524.51</v>
+      </c>
+      <c r="C5" s="66">
+        <v>2</v>
+      </c>
+      <c r="D5" s="66"/>
+      <c r="E5" s="65">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F5" s="66">
+        <v>2</v>
+      </c>
+      <c r="G5" s="66"/>
+      <c r="H5" s="65">
+        <v>108</v>
+      </c>
+      <c r="I5" s="66">
+        <v>3</v>
+      </c>
+      <c r="J5" s="66"/>
+      <c r="K5" s="68">
+        <v>1900</v>
+      </c>
+      <c r="L5" s="66">
+        <v>3</v>
+      </c>
+      <c r="M5" s="66"/>
+      <c r="N5" s="65">
+        <v>18.68</v>
+      </c>
+      <c r="O5" s="66">
+        <v>3</v>
+      </c>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="65">
+        <v>100.38</v>
+      </c>
+      <c r="R5" s="66">
+        <v>2</v>
+      </c>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66">
         <v>4</v>
       </c>
-      <c r="BF3" s="54"/>
-    </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A4" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="65">
-        <v>10888.98</v>
-      </c>
-      <c r="C4" s="68">
+      <c r="U5" s="76">
+        <v>1</v>
+      </c>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66">
+        <v>2373.1799999999998</v>
+      </c>
+      <c r="X5" s="74">
+        <v>5</v>
+      </c>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="86">
+        <v>58.68</v>
+      </c>
+      <c r="AA5" s="81">
+        <v>4</v>
+      </c>
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD5" s="74">
+        <v>5</v>
+      </c>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG5" s="74">
+        <v>5</v>
+      </c>
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="85">
+        <v>50</v>
+      </c>
+      <c r="AJ5" s="73">
+        <v>4</v>
+      </c>
+      <c r="AK5" s="53"/>
+      <c r="AL5" s="92">
+        <v>158.24</v>
+      </c>
+      <c r="AM5" s="72">
+        <v>2</v>
+      </c>
+      <c r="AN5" s="53"/>
+      <c r="AO5" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP5" s="75">
         <v>3</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="67">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F4" s="68">
+      <c r="AQ5" s="53"/>
+      <c r="AR5" s="85">
+        <v>17</v>
+      </c>
+      <c r="AS5" s="53">
         <v>2</v>
       </c>
-      <c r="G4" s="68"/>
-      <c r="H4" s="67">
-        <v>160</v>
-      </c>
-      <c r="I4" s="68">
+      <c r="AT5" s="53"/>
+      <c r="AU5" s="85">
+        <v>4.26</v>
+      </c>
+      <c r="AV5" s="53">
+        <v>3</v>
+      </c>
+      <c r="AW5" s="53"/>
+      <c r="AX5" s="95">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="AY5" s="72">
+        <v>2</v>
+      </c>
+      <c r="AZ5" s="53"/>
+      <c r="BA5" s="85">
+        <v>43</v>
+      </c>
+      <c r="BB5" s="73">
         <v>4</v>
       </c>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68">
-        <v>764</v>
-      </c>
-      <c r="L4" s="68">
+      <c r="BC5" s="53"/>
+      <c r="BD5" s="97">
+        <v>7.3</v>
+      </c>
+      <c r="BE5" s="53">
+        <v>5</v>
+      </c>
+      <c r="BF5" s="47"/>
+    </row>
+    <row r="6" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A6" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="63">
+        <v>11441</v>
+      </c>
+      <c r="C6" s="66">
+        <v>4</v>
+      </c>
+      <c r="D6" s="66"/>
+      <c r="E6" s="65">
+        <v>2.7</v>
+      </c>
+      <c r="F6" s="66">
+        <v>4</v>
+      </c>
+      <c r="G6" s="66"/>
+      <c r="H6" s="65">
+        <v>342</v>
+      </c>
+      <c r="I6" s="66">
+        <v>5</v>
+      </c>
+      <c r="J6" s="66"/>
+      <c r="K6" s="68">
+        <v>2360</v>
+      </c>
+      <c r="L6" s="66">
+        <v>4</v>
+      </c>
+      <c r="M6" s="66"/>
+      <c r="N6" s="65">
+        <v>21.39</v>
+      </c>
+      <c r="O6" s="66">
+        <v>5</v>
+      </c>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="65">
+        <v>104.73</v>
+      </c>
+      <c r="R6" s="66">
+        <v>3</v>
+      </c>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66">
+        <v>9</v>
+      </c>
+      <c r="U6" s="75">
+        <v>2</v>
+      </c>
+      <c r="V6" s="66"/>
+      <c r="W6" s="65">
+        <v>9.65</v>
+      </c>
+      <c r="X6" s="71">
         <v>1</v>
       </c>
-      <c r="M4" s="68"/>
-      <c r="N4" s="67">
-        <v>19.309999999999999</v>
-      </c>
-      <c r="O4" s="68">
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="86">
+        <v>44.94</v>
+      </c>
+      <c r="AA6" s="80">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="87" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD6" s="71">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="53"/>
+      <c r="AF6" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG6" s="75">
+        <v>3</v>
+      </c>
+      <c r="AH6" s="53"/>
+      <c r="AI6" s="85">
+        <v>53</v>
+      </c>
+      <c r="AJ6" s="74">
+        <v>5</v>
+      </c>
+      <c r="AK6" s="53"/>
+      <c r="AL6" s="92">
+        <v>120.09</v>
+      </c>
+      <c r="AM6" s="75">
+        <v>3</v>
+      </c>
+      <c r="AN6" s="53"/>
+      <c r="AO6" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP6" s="73">
         <v>4</v>
       </c>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="67">
-        <v>98.13</v>
-      </c>
-      <c r="R4" s="68">
+      <c r="AQ6" s="53"/>
+      <c r="AR6" s="85">
+        <v>27</v>
+      </c>
+      <c r="AS6" s="53">
+        <v>4</v>
+      </c>
+      <c r="AT6" s="53"/>
+      <c r="AU6" s="85">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="AV6" s="53">
+        <v>4</v>
+      </c>
+      <c r="AW6" s="53"/>
+      <c r="AX6" s="96">
+        <v>77.37</v>
+      </c>
+      <c r="AY6" s="74">
+        <v>5</v>
+      </c>
+      <c r="AZ6" s="53"/>
+      <c r="BA6" s="85">
+        <v>29</v>
+      </c>
+      <c r="BB6" s="71">
         <v>1</v>
       </c>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68">
-        <v>33</v>
-      </c>
-      <c r="U4" s="75">
+      <c r="BC6" s="53"/>
+      <c r="BD6" s="100">
+        <v>5</v>
+      </c>
+      <c r="BE6" s="53">
+        <v>2</v>
+      </c>
+      <c r="BF6" s="44"/>
+    </row>
+    <row r="7" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A7" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="63">
+        <v>2991.63</v>
+      </c>
+      <c r="C7" s="66">
+        <v>1</v>
+      </c>
+      <c r="D7" s="66"/>
+      <c r="E7" s="65">
+        <v>3.5</v>
+      </c>
+      <c r="F7" s="66">
+        <v>5</v>
+      </c>
+      <c r="G7" s="66"/>
+      <c r="H7" s="65">
+        <v>46.1</v>
+      </c>
+      <c r="I7" s="66">
+        <v>2</v>
+      </c>
+      <c r="J7" s="66"/>
+      <c r="K7" s="68">
+        <v>1020</v>
+      </c>
+      <c r="L7" s="66">
+        <v>2</v>
+      </c>
+      <c r="M7" s="66"/>
+      <c r="N7" s="65">
+        <v>17.5</v>
+      </c>
+      <c r="O7" s="66">
+        <v>2</v>
+      </c>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="65">
+        <v>117</v>
+      </c>
+      <c r="R7" s="66">
+        <v>5</v>
+      </c>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66">
+        <v>74</v>
+      </c>
+      <c r="U7" s="74">
+        <v>5</v>
+      </c>
+      <c r="V7" s="66"/>
+      <c r="W7" s="79">
+        <v>19.8</v>
+      </c>
+      <c r="X7" s="75">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="86">
+        <v>42.13</v>
+      </c>
+      <c r="AA7" s="83">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="87" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD7" s="72">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="53"/>
+      <c r="AF7" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG7" s="71">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="53"/>
+      <c r="AI7" s="85">
+        <v>21</v>
+      </c>
+      <c r="AJ7" s="71">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="53"/>
+      <c r="AL7" s="92">
+        <v>295.74200000000002</v>
+      </c>
+      <c r="AM7" s="71">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="53"/>
+      <c r="AO7" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP7" s="75">
+        <v>3</v>
+      </c>
+      <c r="AQ7" s="53"/>
+      <c r="AR7" s="85">
+        <v>18</v>
+      </c>
+      <c r="AS7" s="53">
+        <v>3</v>
+      </c>
+      <c r="AT7" s="53"/>
+      <c r="AU7" s="85">
+        <v>1.65</v>
+      </c>
+      <c r="AV7" s="53">
+        <v>2</v>
+      </c>
+      <c r="AW7" s="53"/>
+      <c r="AX7" s="95">
+        <v>68.25</v>
+      </c>
+      <c r="AY7" s="73">
         <v>4</v>
       </c>
-      <c r="V4" s="68"/>
-      <c r="W4" s="67">
-        <v>31.8</v>
-      </c>
-      <c r="X4" s="75">
-        <v>4</v>
-      </c>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="89">
-        <v>34.89</v>
-      </c>
-      <c r="AA4" s="78">
+      <c r="AZ7" s="53"/>
+      <c r="BA7" s="85">
+        <v>32</v>
+      </c>
+      <c r="BB7" s="72">
+        <v>2</v>
+      </c>
+      <c r="BC7" s="53"/>
+      <c r="BD7" s="101">
+        <v>4.2</v>
+      </c>
+      <c r="BE7" s="53">
         <v>1</v>
       </c>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD4" s="77">
-        <v>3</v>
-      </c>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="93" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG4" s="74">
-        <v>2</v>
-      </c>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="88">
-        <v>42</v>
-      </c>
-      <c r="AJ4" s="77">
-        <v>3</v>
-      </c>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="95">
-        <v>3</v>
-      </c>
-      <c r="AM4" s="76">
-        <v>5</v>
-      </c>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="88" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP4" s="74">
-        <v>2</v>
-      </c>
-      <c r="AQ4" s="54"/>
-      <c r="AR4" s="54">
-        <v>43</v>
-      </c>
-      <c r="AS4" s="54">
-        <v>5</v>
-      </c>
-      <c r="AT4" s="54"/>
-      <c r="AU4" s="54">
-        <v>7.02</v>
-      </c>
-      <c r="AV4" s="54">
-        <v>5</v>
-      </c>
-      <c r="AW4" s="54"/>
-      <c r="AX4" s="54">
-        <v>140</v>
-      </c>
-      <c r="AY4" s="54">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="54"/>
-      <c r="BA4" s="54">
-        <v>37</v>
-      </c>
-      <c r="BB4" s="54">
-        <v>3</v>
-      </c>
-      <c r="BC4" s="54"/>
-      <c r="BD4" s="55">
-        <v>5.5</v>
-      </c>
-      <c r="BE4" s="54">
-        <v>3</v>
-      </c>
-      <c r="BF4" s="44"/>
-    </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A5" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="65">
-        <v>7524.51</v>
-      </c>
-      <c r="C5" s="68">
-        <v>2</v>
-      </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="67">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F5" s="68">
-        <v>2</v>
-      </c>
-      <c r="G5" s="68"/>
-      <c r="H5" s="67">
-        <v>108</v>
-      </c>
-      <c r="I5" s="68">
-        <v>3</v>
-      </c>
-      <c r="J5" s="68"/>
-      <c r="K5" s="70">
-        <v>1900</v>
-      </c>
-      <c r="L5" s="68">
-        <v>3</v>
-      </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="67">
-        <v>18.68</v>
-      </c>
-      <c r="O5" s="68">
-        <v>3</v>
-      </c>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="67">
-        <v>100.38</v>
-      </c>
-      <c r="R5" s="68">
-        <v>2</v>
-      </c>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68">
-        <v>4</v>
-      </c>
-      <c r="U5" s="78">
-        <v>1</v>
-      </c>
-      <c r="V5" s="68"/>
-      <c r="W5" s="68">
-        <v>2373.1799999999998</v>
-      </c>
-      <c r="X5" s="76">
-        <v>5</v>
-      </c>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="89">
-        <v>58.68</v>
-      </c>
-      <c r="AA5" s="84">
-        <v>4</v>
-      </c>
-      <c r="AB5" s="54"/>
-      <c r="AC5" s="90" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD5" s="76">
-        <v>5</v>
-      </c>
-      <c r="AE5" s="54"/>
-      <c r="AF5" s="93" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG5" s="76">
-        <v>5</v>
-      </c>
-      <c r="AH5" s="54"/>
-      <c r="AI5" s="88">
-        <v>50</v>
-      </c>
-      <c r="AJ5" s="75">
-        <v>4</v>
-      </c>
-      <c r="AK5" s="54"/>
-      <c r="AL5" s="95">
-        <v>158.24</v>
-      </c>
-      <c r="AM5" s="74">
-        <v>2</v>
-      </c>
-      <c r="AN5" s="54"/>
-      <c r="AO5" s="88" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP5" s="77">
-        <v>3</v>
-      </c>
-      <c r="AQ5" s="54"/>
-      <c r="AR5" s="54">
-        <v>17</v>
-      </c>
-      <c r="AS5" s="54">
-        <v>2</v>
-      </c>
-      <c r="AT5" s="54"/>
-      <c r="AU5" s="54">
-        <v>4.26</v>
-      </c>
-      <c r="AV5" s="54">
-        <v>3</v>
-      </c>
-      <c r="AW5" s="54"/>
-      <c r="AX5" s="54">
-        <v>134</v>
-      </c>
-      <c r="AY5" s="54">
-        <v>2</v>
-      </c>
-      <c r="AZ5" s="54"/>
-      <c r="BA5" s="54">
-        <v>43</v>
-      </c>
-      <c r="BB5" s="54">
-        <v>4</v>
-      </c>
-      <c r="BC5" s="54"/>
-      <c r="BD5" s="55">
-        <v>7.3</v>
-      </c>
-      <c r="BE5" s="54">
-        <v>5</v>
-      </c>
-      <c r="BF5" s="48"/>
-    </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A6" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="65">
-        <v>11441</v>
-      </c>
-      <c r="C6" s="68">
-        <v>4</v>
-      </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="67">
-        <v>2.7</v>
-      </c>
-      <c r="F6" s="68">
-        <v>4</v>
-      </c>
-      <c r="G6" s="68"/>
-      <c r="H6" s="67">
-        <v>342</v>
-      </c>
-      <c r="I6" s="68">
-        <v>5</v>
-      </c>
-      <c r="J6" s="68"/>
-      <c r="K6" s="70">
-        <v>2360</v>
-      </c>
-      <c r="L6" s="68">
-        <v>4</v>
-      </c>
-      <c r="M6" s="68"/>
-      <c r="N6" s="67">
-        <v>21.39</v>
-      </c>
-      <c r="O6" s="68">
-        <v>5</v>
-      </c>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="67">
-        <v>104.73</v>
-      </c>
-      <c r="R6" s="68">
-        <v>3</v>
-      </c>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68">
-        <v>9</v>
-      </c>
-      <c r="U6" s="77">
-        <v>2</v>
-      </c>
-      <c r="V6" s="68"/>
-      <c r="W6" s="67">
-        <v>9.65</v>
-      </c>
-      <c r="X6" s="73">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="54"/>
-      <c r="Z6" s="89">
-        <v>44.94</v>
-      </c>
-      <c r="AA6" s="83">
-        <v>3</v>
-      </c>
-      <c r="AB6" s="54"/>
-      <c r="AC6" s="90" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD6" s="73">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="54"/>
-      <c r="AF6" s="93" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG6" s="77">
-        <v>3</v>
-      </c>
-      <c r="AH6" s="54"/>
-      <c r="AI6" s="88">
-        <v>53</v>
-      </c>
-      <c r="AJ6" s="76">
-        <v>5</v>
-      </c>
-      <c r="AK6" s="54"/>
-      <c r="AL6" s="95">
-        <v>120.09</v>
-      </c>
-      <c r="AM6" s="77">
-        <v>3</v>
-      </c>
-      <c r="AN6" s="54"/>
-      <c r="AO6" s="88" t="s">
-        <v>77</v>
-      </c>
-      <c r="AP6" s="75">
-        <v>4</v>
-      </c>
-      <c r="AQ6" s="54"/>
-      <c r="AR6" s="54">
-        <v>27</v>
-      </c>
-      <c r="AS6" s="54">
-        <v>4</v>
-      </c>
-      <c r="AT6" s="54"/>
-      <c r="AU6" s="54">
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="AV6" s="54">
-        <v>4</v>
-      </c>
-      <c r="AW6" s="54"/>
-      <c r="AX6" s="54">
-        <v>32</v>
-      </c>
-      <c r="AY6" s="54">
-        <v>5</v>
-      </c>
-      <c r="AZ6" s="54"/>
-      <c r="BA6" s="54">
-        <v>29</v>
-      </c>
-      <c r="BB6" s="54">
-        <v>1</v>
-      </c>
-      <c r="BC6" s="54"/>
-      <c r="BD6" s="55">
-        <v>5</v>
-      </c>
-      <c r="BE6" s="54">
-        <v>2</v>
-      </c>
-      <c r="BF6" s="44"/>
-    </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A7" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="65">
-        <v>2991.63</v>
-      </c>
-      <c r="C7" s="68">
-        <v>1</v>
-      </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="67">
-        <v>3.5</v>
-      </c>
-      <c r="F7" s="68">
-        <v>5</v>
-      </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="67">
-        <v>46.1</v>
-      </c>
-      <c r="I7" s="68">
-        <v>2</v>
-      </c>
-      <c r="J7" s="68"/>
-      <c r="K7" s="70">
-        <v>1020</v>
-      </c>
-      <c r="L7" s="68">
-        <v>2</v>
-      </c>
-      <c r="M7" s="68"/>
-      <c r="N7" s="67">
-        <v>17.5</v>
-      </c>
-      <c r="O7" s="68">
-        <v>2</v>
-      </c>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="67">
-        <v>117</v>
-      </c>
-      <c r="R7" s="68">
-        <v>5</v>
-      </c>
-      <c r="S7" s="68"/>
-      <c r="T7" s="68">
-        <v>74</v>
-      </c>
-      <c r="U7" s="76">
-        <v>5</v>
-      </c>
-      <c r="V7" s="68"/>
-      <c r="W7" s="82">
-        <v>19.8</v>
-      </c>
-      <c r="X7" s="77">
-        <v>2</v>
-      </c>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="89">
-        <v>42.13</v>
-      </c>
-      <c r="AA7" s="86">
-        <v>2</v>
-      </c>
-      <c r="AB7" s="54"/>
-      <c r="AC7" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD7" s="74">
-        <v>2</v>
-      </c>
-      <c r="AE7" s="54"/>
-      <c r="AF7" s="93" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG7" s="73">
-        <v>1</v>
-      </c>
-      <c r="AH7" s="54"/>
-      <c r="AI7" s="88">
-        <v>21</v>
-      </c>
-      <c r="AJ7" s="73">
-        <v>1</v>
-      </c>
-      <c r="AK7" s="54"/>
-      <c r="AL7" s="95">
-        <v>295.74200000000002</v>
-      </c>
-      <c r="AM7" s="73">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="54"/>
-      <c r="AO7" s="88" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP7" s="77">
-        <v>3</v>
-      </c>
-      <c r="AQ7" s="54"/>
-      <c r="AR7" s="54">
-        <v>18</v>
-      </c>
-      <c r="AS7" s="54">
-        <v>3</v>
-      </c>
-      <c r="AT7" s="54"/>
-      <c r="AU7" s="54">
-        <v>1.65</v>
-      </c>
-      <c r="AV7" s="54">
-        <v>2</v>
-      </c>
-      <c r="AW7" s="54"/>
-      <c r="AX7" s="54">
-        <v>56</v>
-      </c>
-      <c r="AY7" s="54">
-        <v>3</v>
-      </c>
-      <c r="AZ7" s="54"/>
-      <c r="BA7" s="54">
-        <v>32</v>
-      </c>
-      <c r="BB7" s="54">
-        <v>2</v>
-      </c>
-      <c r="BC7" s="54"/>
-      <c r="BD7" s="58">
-        <v>4.2</v>
-      </c>
-      <c r="BE7" s="54">
-        <v>1</v>
-      </c>
-      <c r="BF7" s="54"/>
+      <c r="BF7" s="53"/>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="66"/>
-      <c r="AL8" s="96"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="AL8" s="93"/>
+      <c r="AU8" s="93"/>
+      <c r="AX8" s="93"/>
+      <c r="BA8" s="93"/>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
@@ -3379,18 +3397,21 @@
       <c r="U9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="W9" s="53">
+      <c r="W9" s="52">
         <v>32621</v>
       </c>
       <c r="X9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Z9" s="47">
+      <c r="Z9" s="46">
         <v>1228554</v>
       </c>
       <c r="AA9" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="AU9" s="93"/>
+      <c r="AX9" s="93"/>
+      <c r="BA9" s="93"/>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -3403,14 +3424,14 @@
       <c r="U10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="W10" s="53">
+      <c r="W10" s="52">
         <f>W9/A10</f>
         <v>2374.1630276564774</v>
       </c>
       <c r="X10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Z10" s="53">
+      <c r="Z10" s="52">
         <f>Z9/A16</f>
         <v>47252.076923076922</v>
       </c>
@@ -3419,13 +3440,13 @@
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="W11" s="49">
+      <c r="W11" s="48">
         <v>27.9</v>
       </c>
       <c r="X11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Z11" s="53">
+      <c r="Z11" s="52">
         <f>Z10/1000</f>
         <v>47.25207692307692</v>
       </c>
@@ -3443,7 +3464,7 @@
       <c r="U12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="W12" s="53">
+      <c r="W12" s="52">
         <f>W11/A13</f>
         <v>29.0625</v>
       </c>
@@ -3459,16 +3480,16 @@
         <f>T12/A10</f>
         <v>134.93449781659388</v>
       </c>
-      <c r="W13" s="53"/>
+      <c r="W13" s="52"/>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A15" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="R15" s="50" t="s">
+      <c r="R15" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="T15" s="63">
+      <c r="T15" s="61">
         <f>T21/1000/AC18*100</f>
         <v>0.15438779630304406</v>
       </c>
@@ -3480,10 +3501,10 @@
       <c r="A16" s="2">
         <v>26</v>
       </c>
-      <c r="R16" s="50" t="s">
+      <c r="R16" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="T16" s="63">
+      <c r="T16" s="61">
         <f t="shared" ref="T16:T19" si="0">T22/1000/AC19*100</f>
         <v>0.33330087633885103</v>
       </c>
@@ -3496,10 +3517,10 @@
       <c r="AF16" s="41"/>
     </row>
     <row r="17" spans="14:32" x14ac:dyDescent="0.3">
-      <c r="R17" s="52" t="s">
+      <c r="R17" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="T17" s="63">
+      <c r="T17" s="61">
         <f t="shared" si="0"/>
         <v>3.8676076039349673E-2</v>
       </c>
@@ -3515,134 +3536,134 @@
         <f>100-98.13</f>
         <v>1.8700000000000045</v>
       </c>
-      <c r="R18" s="50" t="s">
+      <c r="R18" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="T18" s="63">
+      <c r="T18" s="61">
         <f t="shared" si="0"/>
         <v>8.9797211660329529E-2</v>
       </c>
       <c r="U18" s="2">
         <v>9</v>
       </c>
-      <c r="X18" s="50" t="s">
+      <c r="X18" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="Z18" s="60">
+      <c r="Z18" s="58">
         <v>196.85</v>
       </c>
-      <c r="AA18" s="63">
+      <c r="AA18" s="61">
         <f>Z18/AC18*100</f>
         <v>96.929379671666183</v>
       </c>
-      <c r="AC18" s="62">
+      <c r="AC18" s="60">
         <v>203.08600000000001</v>
       </c>
       <c r="AD18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AF18" s="63"/>
+      <c r="AF18" s="61"/>
     </row>
     <row r="19" spans="14:32" x14ac:dyDescent="0.3">
-      <c r="R19" s="50" t="s">
+      <c r="R19" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="T19" s="63">
+      <c r="T19" s="61">
         <f t="shared" si="0"/>
         <v>0.74272874797153909</v>
       </c>
       <c r="U19" s="2">
         <v>74</v>
       </c>
-      <c r="X19" s="50" t="s">
+      <c r="X19" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="Z19" s="60">
+      <c r="Z19" s="58">
         <v>716.64</v>
       </c>
-      <c r="AA19" s="63">
+      <c r="AA19" s="61">
         <f t="shared" ref="AA19:AA22" si="1">Z19/AC19*100</f>
         <v>34.889970788704964</v>
       </c>
-      <c r="AC19" s="62">
+      <c r="AC19" s="60">
         <v>2054</v>
       </c>
       <c r="AD19" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AF19" s="63"/>
+      <c r="AF19" s="61"/>
     </row>
     <row r="20" spans="14:32" x14ac:dyDescent="0.3">
-      <c r="X20" s="52" t="s">
+      <c r="X20" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="Z20" s="60">
+      <c r="Z20" s="58">
         <v>204.73</v>
       </c>
-      <c r="AA20" s="63">
+      <c r="AA20" s="61">
         <f t="shared" si="1"/>
         <v>58.683413974179629</v>
       </c>
-      <c r="AC20" s="62">
+      <c r="AC20" s="60">
         <v>348.87200000000001</v>
       </c>
       <c r="AD20" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AF20" s="63"/>
+      <c r="AF20" s="61"/>
     </row>
     <row r="21" spans="14:32" x14ac:dyDescent="0.3">
-      <c r="T21" s="55">
+      <c r="T21" s="54">
         <v>313.54000000000002</v>
       </c>
       <c r="U21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="X21" s="50" t="s">
+      <c r="X21" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="Z21" s="60">
+      <c r="Z21" s="58">
         <v>709.22</v>
       </c>
-      <c r="AA21" s="63">
+      <c r="AA21" s="61">
         <f t="shared" si="1"/>
         <v>44.944233206590624</v>
       </c>
-      <c r="AC21" s="62">
+      <c r="AC21" s="60">
         <v>1578</v>
       </c>
       <c r="AD21" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AF21" s="63"/>
+      <c r="AF21" s="61"/>
     </row>
     <row r="22" spans="14:32" x14ac:dyDescent="0.3">
-      <c r="T22" s="55">
+      <c r="T22" s="54">
         <v>6846</v>
       </c>
       <c r="U22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="X22" s="50" t="s">
+      <c r="X22" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="Z22" s="61">
+      <c r="Z22" s="59">
         <v>47.25</v>
       </c>
-      <c r="AA22" s="63">
+      <c r="AA22" s="61">
         <f t="shared" si="1"/>
         <v>42.129571838721759</v>
       </c>
-      <c r="AC22" s="62">
+      <c r="AC22" s="60">
         <v>112.154</v>
       </c>
       <c r="AD22" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AF22" s="63"/>
+      <c r="AF22" s="61"/>
     </row>
     <row r="23" spans="14:32" x14ac:dyDescent="0.3">
-      <c r="T23" s="55">
+      <c r="T23" s="54">
         <v>134.93</v>
       </c>
       <c r="U23" s="2" t="s">
@@ -3650,7 +3671,7 @@
       </c>
     </row>
     <row r="24" spans="14:32" x14ac:dyDescent="0.3">
-      <c r="T24" s="55">
+      <c r="T24" s="54">
         <v>1417</v>
       </c>
       <c r="U24" s="2" t="s">
@@ -3658,7 +3679,7 @@
       </c>
     </row>
     <row r="25" spans="14:32" x14ac:dyDescent="0.3">
-      <c r="T25" s="55">
+      <c r="T25" s="54">
         <v>833</v>
       </c>
       <c r="U25" s="2" t="s">

--- a/Контрольные на 4-й семестр/МЭО/Контрольная работа/Лист Microsoft Excel.xlsx
+++ b/Контрольные на 4-й семестр/МЭО/Контрольная работа/Лист Microsoft Excel.xlsx
@@ -12,13 +12,14 @@
     <sheet name="ИТП-1" sheetId="3" r:id="rId3"/>
     <sheet name="ИТП-2" sheetId="4" r:id="rId4"/>
     <sheet name="Лист4" sheetId="5" r:id="rId5"/>
+    <sheet name="Лист2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="113">
   <si>
     <t>Украина</t>
   </si>
@@ -279,13 +280,94 @@
   </si>
   <si>
     <t>Денежная масса и квазиденьги %</t>
+  </si>
+  <si>
+    <t>ВВП Украина</t>
+  </si>
+  <si>
+    <t>млрд$</t>
+  </si>
+  <si>
+    <t>Таблица 1.1 Экспорт товаров, млрд. долл.</t>
+  </si>
+  <si>
+    <t>Таблица 1.1 Импорт товаров, млрд. долл.</t>
+  </si>
+  <si>
+    <t>Страна</t>
+  </si>
+  <si>
+    <t>2014 р.</t>
+  </si>
+  <si>
+    <t>2015 р.</t>
+  </si>
+  <si>
+    <t>2016 р.</t>
+  </si>
+  <si>
+    <t>2017 р.</t>
+  </si>
+  <si>
+    <t>2014-2017гг.</t>
+  </si>
+  <si>
+    <t>Аргентина</t>
+  </si>
+  <si>
+    <t>Чили</t>
+  </si>
+  <si>
+    <t>Пакистан</t>
+  </si>
+  <si>
+    <t>Египет</t>
+  </si>
+  <si>
+    <t>Алжир</t>
+  </si>
+  <si>
+    <t>Бангладеш</t>
+  </si>
+  <si>
+    <t>Колумбия</t>
+  </si>
+  <si>
+    <t>Новая Зеландия</t>
+  </si>
+  <si>
+    <t>Марроко</t>
+  </si>
+  <si>
+    <t>Мьянма</t>
+  </si>
+  <si>
+    <t>Республика Корея</t>
+  </si>
+  <si>
+    <t>Кения</t>
+  </si>
+  <si>
+    <t>Испания</t>
+  </si>
+  <si>
+    <t>Уганда</t>
+  </si>
+  <si>
+    <t>Судан</t>
+  </si>
+  <si>
+    <t>Польша</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="#,##0.000"/>
+  </numFmts>
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,8 +559,22 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -551,8 +647,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -649,11 +751,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -834,6 +1001,91 @@
     <xf numFmtId="2" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="21" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2408,8 +2660,8 @@
   <dimension ref="A1:BF25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AQ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BD10" sqref="BD10"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2679,7 +2931,7 @@
       <c r="B3" s="63">
         <v>23027.41</v>
       </c>
-      <c r="C3" s="66">
+      <c r="C3" s="74">
         <v>5</v>
       </c>
       <c r="D3" s="66"/>
@@ -2700,7 +2952,7 @@
       <c r="K3" s="68">
         <v>2800</v>
       </c>
-      <c r="L3" s="66">
+      <c r="L3" s="74">
         <v>5</v>
       </c>
       <c r="M3" s="66"/>
@@ -2915,14 +3167,14 @@
       <c r="AR4" s="85">
         <v>43</v>
       </c>
-      <c r="AS4" s="53">
+      <c r="AS4" s="74">
         <v>5</v>
       </c>
       <c r="AT4" s="53"/>
       <c r="AU4" s="85">
         <v>7.02</v>
       </c>
-      <c r="AV4" s="53">
+      <c r="AV4" s="74">
         <v>5</v>
       </c>
       <c r="AW4" s="53"/>
@@ -3107,7 +3359,7 @@
       <c r="H6" s="65">
         <v>342</v>
       </c>
-      <c r="I6" s="66">
+      <c r="I6" s="74">
         <v>5</v>
       </c>
       <c r="J6" s="66"/>
@@ -3121,7 +3373,7 @@
       <c r="N6" s="65">
         <v>21.39</v>
       </c>
-      <c r="O6" s="66">
+      <c r="O6" s="74">
         <v>5</v>
       </c>
       <c r="P6" s="66"/>
@@ -3238,7 +3490,7 @@
       <c r="E7" s="65">
         <v>3.5</v>
       </c>
-      <c r="F7" s="66">
+      <c r="F7" s="74">
         <v>5</v>
       </c>
       <c r="G7" s="66"/>
@@ -3266,7 +3518,7 @@
       <c r="Q7" s="65">
         <v>117</v>
       </c>
-      <c r="R7" s="66">
+      <c r="R7" s="74">
         <v>5</v>
       </c>
       <c r="S7" s="66"/>
@@ -3458,6 +3710,13 @@
       <c r="A12" s="42" t="s">
         <v>52</v>
       </c>
+      <c r="B12" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="132">
+        <f>SUM(C3,F3,I3,L3,O3,R3,U3,X3,AA3,AD3,AG3,AJ3,AM3,AP3,AS3,AV3,AY3,BB3,BE3)</f>
+        <v>63</v>
+      </c>
       <c r="T12" s="15">
         <v>1854</v>
       </c>
@@ -3476,16 +3735,39 @@
       <c r="A13" s="2">
         <v>0.96</v>
       </c>
+      <c r="B13" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="6">
+        <f>SUM(C4,F4,I4,L4,O4,R4,U4,X4,AA4,AD4,AG4,AJ4,AM4,AP4,AS4,AV4,AY4,BB4,BE4)</f>
+        <v>56</v>
+      </c>
       <c r="T13" s="2">
         <f>T12/A10</f>
         <v>134.93449781659388</v>
       </c>
       <c r="W13" s="52"/>
     </row>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="B14" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="133">
+        <f>SUM(C5,F5,I5,L5,O5,R5,U5,X5,AA5,AD5,AG5,AJ5,AM5,AP5,AS5,AV5,AY5,BB5,BE5)</f>
+        <v>60</v>
+      </c>
+    </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A15" s="42" t="s">
         <v>53</v>
       </c>
+      <c r="B15" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="132">
+        <f>SUM(C6,F6,I6,L6,O6,R6,U6,X6,AA6,AD6,AG6,AJ6,AM6,AP6,AS6,AV6,AY6,BB6,BE6)</f>
+        <v>63</v>
+      </c>
       <c r="R15" s="49" t="s">
         <v>37</v>
       </c>
@@ -3500,6 +3782,13 @@
     <row r="16" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>26</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="134">
+        <f>SUM(C7,F7,I7,L7,O7,R7,U7,X7,AA7,AD7,AG7,AJ7,AM7,AP7,AS7,AV7,AY7,BB7,BE7)</f>
+        <v>46</v>
       </c>
       <c r="R16" s="49" t="s">
         <v>24</v>
@@ -3690,4 +3979,779 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:P39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29:P39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="103" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+    </row>
+    <row r="4" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="112">
+        <v>54.216999999999999</v>
+      </c>
+      <c r="C4" s="104">
+        <v>57.201999999999998</v>
+      </c>
+      <c r="D4" s="104">
+        <v>56.136000000000003</v>
+      </c>
+      <c r="E4" s="104">
+        <v>60.6</v>
+      </c>
+      <c r="G4" s="102">
+        <f>SUM(B4:E4)/COUNT(B4:E4)</f>
+        <v>57.03875</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="105">
+        <v>85.369</v>
+      </c>
+      <c r="C5" s="106">
+        <v>51.337000000000003</v>
+      </c>
+      <c r="D5" s="106">
+        <v>41.298000000000002</v>
+      </c>
+      <c r="E5" s="106">
+        <v>44.67</v>
+      </c>
+      <c r="G5" s="102">
+        <f t="shared" ref="G5:G14" si="0">SUM(B5:E5)/COUNT(B5:E5)</f>
+        <v>55.668500000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="105">
+        <v>104.791</v>
+      </c>
+      <c r="C6" s="106">
+        <v>55.335000000000001</v>
+      </c>
+      <c r="D6" s="106">
+        <v>46.616</v>
+      </c>
+      <c r="E6" s="106">
+        <v>43.84</v>
+      </c>
+      <c r="G6" s="102">
+        <f t="shared" si="0"/>
+        <v>62.645500000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="105">
+        <v>49.823</v>
+      </c>
+      <c r="C7" s="106">
+        <v>43.197000000000003</v>
+      </c>
+      <c r="D7" s="106">
+        <v>42.734000000000002</v>
+      </c>
+      <c r="E7" s="106">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="G7" s="102">
+        <f t="shared" si="0"/>
+        <v>43.488500000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="107">
+        <v>39.531999999999996</v>
+      </c>
+      <c r="C8" s="108">
+        <v>34.314</v>
+      </c>
+      <c r="D8" s="108">
+        <v>37.018999999999998</v>
+      </c>
+      <c r="E8" s="108">
+        <v>38.090000000000003</v>
+      </c>
+      <c r="G8" s="102">
+        <f t="shared" si="0"/>
+        <v>37.238750000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="109">
+        <v>50.552</v>
+      </c>
+      <c r="C9" s="110">
+        <v>35.42</v>
+      </c>
+      <c r="D9" s="110">
+        <v>33.56</v>
+      </c>
+      <c r="E9" s="111">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="G9" s="102">
+        <f t="shared" si="0"/>
+        <v>39.082999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="105">
+        <v>56.898000000000003</v>
+      </c>
+      <c r="C10" s="106">
+        <v>38.572000000000003</v>
+      </c>
+      <c r="D10" s="106">
+        <v>34.090000000000003</v>
+      </c>
+      <c r="E10" s="106">
+        <v>35.28</v>
+      </c>
+      <c r="G10" s="102">
+        <f t="shared" si="0"/>
+        <v>41.21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="105">
+        <v>29.923999999999999</v>
+      </c>
+      <c r="C11" s="106">
+        <v>31.736000000000001</v>
+      </c>
+      <c r="D11" s="106">
+        <v>34.122</v>
+      </c>
+      <c r="E11" s="106">
+        <v>33.32</v>
+      </c>
+      <c r="G11" s="102">
+        <f t="shared" si="0"/>
+        <v>32.275500000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="105">
+        <v>53.564999999999998</v>
+      </c>
+      <c r="C12" s="106">
+        <v>35.682000000000002</v>
+      </c>
+      <c r="D12" s="106">
+        <v>27.544</v>
+      </c>
+      <c r="E12" s="106">
+        <v>32.884999999999998</v>
+      </c>
+      <c r="G12" s="102">
+        <f t="shared" si="0"/>
+        <v>37.418999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="105">
+        <v>30.478000000000002</v>
+      </c>
+      <c r="C13" s="106">
+        <v>26.658000000000001</v>
+      </c>
+      <c r="D13" s="106">
+        <v>27.65</v>
+      </c>
+      <c r="E13" s="106">
+        <v>32.158999999999999</v>
+      </c>
+      <c r="G13" s="102">
+        <f t="shared" si="0"/>
+        <v>29.236249999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="105">
+        <v>35.656999999999996</v>
+      </c>
+      <c r="C14" s="106">
+        <v>27.507999999999999</v>
+      </c>
+      <c r="D14" s="106">
+        <v>27.222999999999999</v>
+      </c>
+      <c r="E14" s="106">
+        <v>31.681000000000001</v>
+      </c>
+      <c r="G14" s="102">
+        <f t="shared" si="0"/>
+        <v>30.517249999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>2017</v>
+      </c>
+      <c r="C20">
+        <v>2016</v>
+      </c>
+      <c r="D20">
+        <v>2015</v>
+      </c>
+      <c r="E20">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>112.13</v>
+      </c>
+      <c r="C21">
+        <v>93.31</v>
+      </c>
+      <c r="D21">
+        <v>90.49</v>
+      </c>
+      <c r="E21">
+        <v>130.57</v>
+      </c>
+      <c r="G21" s="102">
+        <f t="shared" ref="G21" si="1">SUM(B21:E21)/COUNT(B21:E21)</f>
+        <v>106.625</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <f>G9/G21</f>
+        <v>0.36654630715123093</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <f>G34/G21</f>
+        <v>0.43709495896834705</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="103" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="103"/>
+    </row>
+    <row r="27" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="113" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="114" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="114" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="114" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="114" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" s="119" t="s">
+        <v>96</v>
+      </c>
+      <c r="K28" s="113" t="s">
+        <v>91</v>
+      </c>
+      <c r="L28" s="114" t="s">
+        <v>92</v>
+      </c>
+      <c r="M28" s="114" t="s">
+        <v>93</v>
+      </c>
+      <c r="N28" s="114" t="s">
+        <v>94</v>
+      </c>
+      <c r="O28" s="114" t="s">
+        <v>95</v>
+      </c>
+      <c r="P28" s="119" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="115" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="106">
+        <v>62.898000000000003</v>
+      </c>
+      <c r="D29" s="106">
+        <v>57.594000000000001</v>
+      </c>
+      <c r="E29" s="106">
+        <v>53.542999999999999</v>
+      </c>
+      <c r="F29" s="116">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="G29" s="120">
+        <f>SUM(C29:F29)/COUNT(C29:F29)</f>
+        <v>59.533749999999998</v>
+      </c>
+      <c r="K29" s="131" t="s">
+        <v>106</v>
+      </c>
+      <c r="L29" s="123">
+        <v>51.92</v>
+      </c>
+      <c r="M29" s="124">
+        <v>52.4</v>
+      </c>
+      <c r="N29" s="124">
+        <v>52.88</v>
+      </c>
+      <c r="O29" s="124">
+        <v>53.37</v>
+      </c>
+      <c r="P29" s="120">
+        <f>SUM(L29:O29)/COUNT(L29:O29)</f>
+        <v>52.642499999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="115" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="106">
+        <v>68.597999999999999</v>
+      </c>
+      <c r="D30" s="106">
+        <v>58.607999999999997</v>
+      </c>
+      <c r="E30" s="106">
+        <v>55.853999999999999</v>
+      </c>
+      <c r="F30" s="116">
+        <v>61.499000000000002</v>
+      </c>
+      <c r="G30" s="121">
+        <f t="shared" ref="G30:G39" si="2">SUM(C30:F30)/COUNT(C30:F30)</f>
+        <v>61.139749999999999</v>
+      </c>
+      <c r="K30" s="115" t="s">
+        <v>107</v>
+      </c>
+      <c r="L30" s="125">
+        <v>50.74</v>
+      </c>
+      <c r="M30" s="126">
+        <v>51.01</v>
+      </c>
+      <c r="N30" s="126">
+        <v>51.24</v>
+      </c>
+      <c r="O30" s="126">
+        <v>51.46</v>
+      </c>
+      <c r="P30" s="120">
+        <f t="shared" ref="P30:P39" si="3">SUM(L30:O30)/COUNT(L30:O30)</f>
+        <v>51.112500000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="106">
+        <v>65.108000000000004</v>
+      </c>
+      <c r="D31" s="106">
+        <v>47.103000000000002</v>
+      </c>
+      <c r="E31" s="106">
+        <v>47.078000000000003</v>
+      </c>
+      <c r="F31" s="116">
+        <v>54.055999999999997</v>
+      </c>
+      <c r="G31" s="121">
+        <f t="shared" si="2"/>
+        <v>53.336250000000007</v>
+      </c>
+      <c r="K31" s="115" t="s">
+        <v>108</v>
+      </c>
+      <c r="L31" s="127">
+        <v>46.02</v>
+      </c>
+      <c r="M31" s="126">
+        <v>47.23</v>
+      </c>
+      <c r="N31" s="128">
+        <v>48.46</v>
+      </c>
+      <c r="O31" s="128">
+        <v>49.69</v>
+      </c>
+      <c r="P31" s="120">
+        <f t="shared" si="3"/>
+        <v>47.85</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="115" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="106">
+        <v>42.674999999999997</v>
+      </c>
+      <c r="D32" s="106">
+        <v>39.814999999999998</v>
+      </c>
+      <c r="E32" s="106">
+        <v>42.686999999999998</v>
+      </c>
+      <c r="F32" s="116">
+        <v>53.258000000000003</v>
+      </c>
+      <c r="G32" s="121">
+        <f t="shared" si="2"/>
+        <v>44.608750000000001</v>
+      </c>
+      <c r="K32" s="115" t="s">
+        <v>103</v>
+      </c>
+      <c r="L32" s="125">
+        <v>47.79</v>
+      </c>
+      <c r="M32" s="128">
+        <v>48.22</v>
+      </c>
+      <c r="N32" s="126">
+        <v>48.65</v>
+      </c>
+      <c r="O32" s="126">
+        <v>49.06</v>
+      </c>
+      <c r="P32" s="120">
+        <f t="shared" si="3"/>
+        <v>48.43</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="115" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="108">
+        <v>56.445999999999998</v>
+      </c>
+      <c r="D33" s="108">
+        <v>50.418999999999997</v>
+      </c>
+      <c r="E33" s="108">
+        <v>51.066000000000003</v>
+      </c>
+      <c r="F33" s="117">
+        <v>52.404000000000003</v>
+      </c>
+      <c r="G33" s="121">
+        <f t="shared" si="2"/>
+        <v>52.583749999999995</v>
+      </c>
+      <c r="K33" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="L33" s="127">
+        <v>46.48</v>
+      </c>
+      <c r="M33" s="128">
+        <v>46.44</v>
+      </c>
+      <c r="N33" s="128">
+        <v>46.48</v>
+      </c>
+      <c r="O33" s="128">
+        <v>46.57</v>
+      </c>
+      <c r="P33" s="120">
+        <f t="shared" si="3"/>
+        <v>46.492499999999993</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="110">
+        <v>57.68</v>
+      </c>
+      <c r="D34" s="110">
+        <v>38.875</v>
+      </c>
+      <c r="E34" s="110">
+        <v>40.502000000000002</v>
+      </c>
+      <c r="F34" s="118">
+        <v>49.363999999999997</v>
+      </c>
+      <c r="G34" s="121">
+        <f t="shared" si="2"/>
+        <v>46.605250000000005</v>
+      </c>
+      <c r="K34" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="L34" s="129">
+        <v>45.27</v>
+      </c>
+      <c r="M34" s="130">
+        <v>45.15</v>
+      </c>
+      <c r="N34" s="130">
+        <v>45</v>
+      </c>
+      <c r="O34" s="130">
+        <v>44.83</v>
+      </c>
+      <c r="P34" s="120">
+        <f t="shared" si="3"/>
+        <v>45.0625</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="115" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="106">
+        <v>59.457000000000001</v>
+      </c>
+      <c r="D35" s="106">
+        <v>52.261000000000003</v>
+      </c>
+      <c r="E35" s="106">
+        <v>49.316000000000003</v>
+      </c>
+      <c r="F35" s="116">
+        <v>48.81</v>
+      </c>
+      <c r="G35" s="121">
+        <f t="shared" si="2"/>
+        <v>52.460999999999999</v>
+      </c>
+      <c r="K35" s="115" t="s">
+        <v>97</v>
+      </c>
+      <c r="L35" s="125">
+        <v>42.98</v>
+      </c>
+      <c r="M35" s="126">
+        <v>43.41</v>
+      </c>
+      <c r="N35" s="126">
+        <v>43.84</v>
+      </c>
+      <c r="O35" s="126">
+        <v>44.27</v>
+      </c>
+      <c r="P35" s="120">
+        <f t="shared" si="3"/>
+        <v>43.625</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="115" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="106">
+        <v>37.405999999999999</v>
+      </c>
+      <c r="D36" s="106">
+        <v>37.856000000000002</v>
+      </c>
+      <c r="E36" s="106">
+        <v>40.365000000000002</v>
+      </c>
+      <c r="F36" s="116">
+        <v>47.557000000000002</v>
+      </c>
+      <c r="G36" s="121">
+        <f t="shared" si="2"/>
+        <v>40.796000000000006</v>
+      </c>
+      <c r="K36" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="L36" s="125">
+        <v>38.83</v>
+      </c>
+      <c r="M36" s="126">
+        <v>40.14</v>
+      </c>
+      <c r="N36" s="126">
+        <v>41.48</v>
+      </c>
+      <c r="O36" s="126">
+        <v>42.86</v>
+      </c>
+      <c r="P36" s="120">
+        <f t="shared" si="3"/>
+        <v>40.827500000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="115" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="106">
+        <v>61.539000000000001</v>
+      </c>
+      <c r="D37" s="106">
+        <v>52.05</v>
+      </c>
+      <c r="E37" s="106">
+        <v>43.238</v>
+      </c>
+      <c r="F37" s="116">
+        <v>44.247</v>
+      </c>
+      <c r="G37" s="121">
+        <f t="shared" si="2"/>
+        <v>50.268500000000003</v>
+      </c>
+      <c r="K37" s="115" t="s">
+        <v>101</v>
+      </c>
+      <c r="L37" s="125">
+        <v>39.11</v>
+      </c>
+      <c r="M37" s="126">
+        <v>39.869999999999997</v>
+      </c>
+      <c r="N37" s="126">
+        <v>40.6</v>
+      </c>
+      <c r="O37" s="126">
+        <v>41.31</v>
+      </c>
+      <c r="P37" s="120">
+        <f t="shared" si="3"/>
+        <v>40.222499999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="115" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="106">
+        <v>41</v>
+      </c>
+      <c r="D38" s="106">
+        <v>35.786000000000001</v>
+      </c>
+      <c r="E38" s="106">
+        <v>35.533999999999999</v>
+      </c>
+      <c r="F38" s="116">
+        <v>39.737000000000002</v>
+      </c>
+      <c r="G38" s="121">
+        <f t="shared" si="2"/>
+        <v>38.014249999999997</v>
+      </c>
+      <c r="K38" s="115" t="s">
+        <v>111</v>
+      </c>
+      <c r="L38" s="125">
+        <v>37.729999999999997</v>
+      </c>
+      <c r="M38" s="126">
+        <v>38.64</v>
+      </c>
+      <c r="N38" s="126">
+        <v>39.57</v>
+      </c>
+      <c r="O38" s="126">
+        <v>40.53</v>
+      </c>
+      <c r="P38" s="120">
+        <f t="shared" si="3"/>
+        <v>39.1175</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="115" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="106">
+        <v>41.031999999999996</v>
+      </c>
+      <c r="D39" s="106">
+        <v>33.307000000000002</v>
+      </c>
+      <c r="E39" s="106">
+        <v>36.594000000000001</v>
+      </c>
+      <c r="F39" s="116">
+        <v>39.662999999999997</v>
+      </c>
+      <c r="G39" s="122">
+        <f t="shared" si="2"/>
+        <v>37.649000000000001</v>
+      </c>
+      <c r="K39" s="115" t="s">
+        <v>112</v>
+      </c>
+      <c r="L39" s="125">
+        <v>38.01</v>
+      </c>
+      <c r="M39" s="126">
+        <v>37.979999999999997</v>
+      </c>
+      <c r="N39" s="126">
+        <v>37.97</v>
+      </c>
+      <c r="O39" s="126">
+        <v>37.97</v>
+      </c>
+      <c r="P39" s="120">
+        <f t="shared" si="3"/>
+        <v>37.982500000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B26:G26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" copies="0" r:id="rId1"/>
+</worksheet>
 </file>